--- a/data/Covid-19_data.xlsx
+++ b/data/Covid-19_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C4ECF-1103-714A-B91E-2FD92B9CE11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF19AE-A050-A446-9AD6-34410704ED58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{239DC1C1-CD2F-1E41-ACCC-2923A4E1825B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{239DC1C1-CD2F-1E41-ACCC-2923A4E1825B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Covid" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="57">
   <si>
     <t>CCAA</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>Importar en D1</t>
+  </si>
+  <si>
+    <t>confin</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>to_study</t>
   </si>
 </sst>
 </file>
@@ -2437,27 +2449,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_37_COVID-19" connectionId="2" xr16:uid="{5CFB9376-3EAD-CA4E-AB81-C1BCF8D4FA26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_40_COVID-19" connectionId="5" xr16:uid="{CC7EF425-5489-914D-8A92-0ACAE9CA3B3B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_39_COVID-19" connectionId="4" xr16:uid="{8635814F-0D08-FC46-A729-F6EBAF32D7F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_51_COVID-19" connectionId="6" xr16:uid="{7C33F37E-B5DB-FC43-B1F3-4C6616C92B19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_36_COVID-19" connectionId="1" xr16:uid="{903EF60C-4201-D145-9FCB-F17FD78E1C76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_38_COVID-19" connectionId="3" xr16:uid="{95E03C17-AA2B-FD45-8B76-7C96A74FA4E5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_37_COVID-19" connectionId="2" xr16:uid="{5CFB9376-3EAD-CA4E-AB81-C1BCF8D4FA26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_39_COVID-19" connectionId="4" xr16:uid="{8635814F-0D08-FC46-A729-F6EBAF32D7F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2768,8 +2780,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K438"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2807,8 +2819,12 @@
       <c r="I1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
@@ -2833,6 +2849,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="14"/>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J65" si="0">IF(C2&gt;DATE(2020,3,21),"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -2857,6 +2880,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="14"/>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -2881,6 +2911,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="14"/>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -2905,6 +2942,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="14"/>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -2929,6 +2973,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="14"/>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -2953,6 +3004,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="14"/>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -2977,6 +3035,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="14"/>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -3001,6 +3066,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="14"/>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -3020,6 +3092,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="14"/>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -3039,6 +3118,13 @@
         <v>6</v>
       </c>
       <c r="I11" s="14"/>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -3063,6 +3149,13 @@
         <v>7</v>
       </c>
       <c r="I12" s="14"/>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -3087,6 +3180,13 @@
         <v>11</v>
       </c>
       <c r="I13" s="14"/>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
@@ -3111,6 +3211,13 @@
         <v>19</v>
       </c>
       <c r="I14" s="14"/>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -3135,6 +3242,13 @@
         <v>42</v>
       </c>
       <c r="I15" s="14"/>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -3159,8 +3273,15 @@
         <v>30</v>
       </c>
       <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3186,8 +3307,15 @@
         <v>40</v>
       </c>
       <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -3213,8 +3341,15 @@
         <v>47</v>
       </c>
       <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -3242,8 +3377,15 @@
       <c r="I19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3271,8 +3413,15 @@
       <c r="I20">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -3300,8 +3449,15 @@
       <c r="I21">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -3329,8 +3485,15 @@
       <c r="I22">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -3358,8 +3521,15 @@
       <c r="I23">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3387,8 +3557,15 @@
       <c r="I24">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -3411,8 +3588,15 @@
         <v>0</v>
       </c>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -3435,8 +3619,15 @@
         <v>0</v>
       </c>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -3459,8 +3650,15 @@
         <v>1</v>
       </c>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -3483,8 +3681,15 @@
         <v>1</v>
       </c>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -3507,8 +3712,15 @@
         <v>3</v>
       </c>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -3531,8 +3743,15 @@
         <v>4</v>
       </c>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -3555,8 +3774,15 @@
         <v>6</v>
       </c>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -3579,8 +3805,15 @@
         <v>7</v>
       </c>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -3598,8 +3831,15 @@
         <v>7</v>
       </c>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -3617,8 +3857,15 @@
         <v>7</v>
       </c>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -3641,8 +3888,15 @@
         <v>11</v>
       </c>
       <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -3665,8 +3919,15 @@
         <v>12</v>
       </c>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -3689,8 +3950,15 @@
         <v>13</v>
       </c>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -3713,8 +3981,15 @@
         <v>29</v>
       </c>
       <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -3737,8 +4012,15 @@
         <v>17</v>
       </c>
       <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
@@ -3764,8 +4046,15 @@
         <v>22</v>
       </c>
       <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
@@ -3791,8 +4080,15 @@
         <v>24</v>
       </c>
       <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
@@ -3820,8 +4116,15 @@
       <c r="I42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
@@ -3849,8 +4152,15 @@
       <c r="I43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
@@ -3878,8 +4188,15 @@
       <c r="I44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -3907,8 +4224,15 @@
       <c r="I45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -3936,8 +4260,15 @@
       <c r="I46">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
@@ -3965,8 +4296,15 @@
       <c r="I47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -3989,8 +4327,15 @@
         <v>0</v>
       </c>
       <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -4013,8 +4358,15 @@
         <v>0</v>
       </c>
       <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -4037,8 +4389,15 @@
         <v>0</v>
       </c>
       <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -4061,8 +4420,15 @@
         <v>0</v>
       </c>
       <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -4085,8 +4451,15 @@
         <v>0</v>
       </c>
       <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -4109,8 +4482,15 @@
         <v>0</v>
       </c>
       <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -4133,8 +4513,15 @@
         <v>1</v>
       </c>
       <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -4157,8 +4544,15 @@
         <v>1</v>
       </c>
       <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -4176,8 +4570,15 @@
         <v>1</v>
       </c>
       <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -4195,8 +4596,15 @@
         <v>1</v>
       </c>
       <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -4219,8 +4627,15 @@
         <v>1</v>
       </c>
       <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -4243,8 +4658,15 @@
         <v>1</v>
       </c>
       <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -4267,8 +4689,15 @@
         <v>1</v>
       </c>
       <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -4291,8 +4720,15 @@
         <v>55</v>
       </c>
       <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -4315,8 +4751,15 @@
         <v>2</v>
       </c>
       <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -4342,8 +4785,15 @@
         <v>5</v>
       </c>
       <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -4369,8 +4819,15 @@
         <v>8</v>
       </c>
       <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="K64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -4398,8 +4855,15 @@
       <c r="I65">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="K65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -4427,8 +4891,15 @@
       <c r="I66">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="str">
+        <f t="shared" ref="J66:J129" si="1">IF(C66&gt;DATE(2020,3,21),"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="K66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -4456,8 +4927,15 @@
       <c r="I67">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -4485,8 +4963,15 @@
       <c r="I68">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -4514,8 +4999,15 @@
       <c r="I69">
         <v>52</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -4543,8 +5035,15 @@
       <c r="I70">
         <v>65</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4567,8 +5066,15 @@
         <v>0</v>
       </c>
       <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4591,8 +5097,15 @@
         <v>0</v>
       </c>
       <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -4615,8 +5128,15 @@
         <v>0</v>
       </c>
       <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -4639,8 +5159,15 @@
         <v>0</v>
       </c>
       <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4663,8 +5190,15 @@
         <v>0</v>
       </c>
       <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -4687,8 +5221,15 @@
         <v>0</v>
       </c>
       <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -4711,8 +5252,15 @@
         <v>1</v>
       </c>
       <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -4735,8 +5283,15 @@
         <v>1</v>
       </c>
       <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -4754,8 +5309,15 @@
         <v>1</v>
       </c>
       <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -4773,8 +5335,15 @@
         <v>1</v>
       </c>
       <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -4797,8 +5366,15 @@
         <v>1</v>
       </c>
       <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4821,8 +5397,15 @@
         <v>1</v>
       </c>
       <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -4845,8 +5428,15 @@
         <v>1</v>
       </c>
       <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -4869,8 +5459,15 @@
         <v>23</v>
       </c>
       <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K84" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -4893,8 +5490,15 @@
         <v>2</v>
       </c>
       <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -4920,8 +5524,15 @@
         <v>4</v>
       </c>
       <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -4947,8 +5558,15 @@
         <v>4</v>
       </c>
       <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4976,8 +5594,15 @@
       <c r="I88">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -5005,8 +5630,15 @@
       <c r="I89">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -5034,8 +5666,15 @@
       <c r="I90">
         <v>28</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -5063,8 +5702,15 @@
       <c r="I91">
         <v>39</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -5092,8 +5738,15 @@
       <c r="I92">
         <v>67</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -5121,8 +5774,15 @@
       <c r="I93">
         <v>80</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -5145,8 +5805,15 @@
         <v>0</v>
       </c>
       <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K94" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -5169,8 +5836,15 @@
         <v>0</v>
       </c>
       <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -5193,8 +5867,15 @@
         <v>0</v>
       </c>
       <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9" s="9" customFormat="1">
+      <c r="J96" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="9" customFormat="1">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -5218,8 +5899,15 @@
         <v>0</v>
       </c>
       <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -5242,8 +5930,15 @@
         <v>0</v>
       </c>
       <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -5266,8 +5961,15 @@
         <v>0</v>
       </c>
       <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -5290,8 +5992,15 @@
         <v>0</v>
       </c>
       <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -5314,8 +6023,15 @@
         <v>0</v>
       </c>
       <c r="I101" s="4"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -5333,8 +6049,15 @@
         <v>1</v>
       </c>
       <c r="I102" s="4"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -5352,8 +6075,15 @@
         <v>1</v>
       </c>
       <c r="I103" s="4"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -5376,8 +6106,15 @@
         <v>1</v>
       </c>
       <c r="I104" s="4"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -5400,8 +6137,15 @@
         <v>2</v>
       </c>
       <c r="I105" s="4"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -5424,8 +6168,15 @@
         <v>3</v>
       </c>
       <c r="I106" s="4"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -5448,8 +6199,15 @@
         <v>15</v>
       </c>
       <c r="I107" s="4"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K107" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -5472,8 +6230,15 @@
         <v>4</v>
       </c>
       <c r="I108" s="4"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K108" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -5499,8 +6264,15 @@
         <v>7</v>
       </c>
       <c r="I109" s="4"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -5526,8 +6298,15 @@
         <v>9</v>
       </c>
       <c r="I110" s="4"/>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -5555,8 +6334,15 @@
       <c r="I111">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -5584,8 +6370,15 @@
       <c r="I112">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -5613,8 +6406,15 @@
       <c r="I113">
         <v>15</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K113" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -5642,8 +6442,15 @@
       <c r="I114">
         <v>18</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -5671,8 +6478,15 @@
       <c r="I115">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -5700,8 +6514,15 @@
       <c r="I116">
         <v>25</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" t="str">
+        <f t="shared" si="1"/>
+        <v>Si</v>
+      </c>
+      <c r="K116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -5724,8 +6545,15 @@
         <v>0</v>
       </c>
       <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -5748,8 +6576,15 @@
         <v>0</v>
       </c>
       <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -5772,8 +6607,15 @@
         <v>0</v>
       </c>
       <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -5796,8 +6638,15 @@
         <v>0</v>
       </c>
       <c r="I120" s="4"/>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -5820,8 +6669,15 @@
         <v>0</v>
       </c>
       <c r="I121" s="4"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -5844,8 +6700,15 @@
         <v>0</v>
       </c>
       <c r="I122" s="4"/>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K122" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -5868,8 +6731,15 @@
         <v>0</v>
       </c>
       <c r="I123" s="4"/>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K123" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -5892,8 +6762,15 @@
         <v>0</v>
       </c>
       <c r="I124" s="4"/>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K124" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -5911,8 +6788,15 @@
         <v>0</v>
       </c>
       <c r="I125" s="4"/>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -5930,8 +6814,15 @@
         <v>0</v>
       </c>
       <c r="I126" s="4"/>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K126" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -5954,8 +6845,15 @@
         <v>0</v>
       </c>
       <c r="I127" s="4"/>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K127" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -5978,8 +6876,15 @@
         <v>0</v>
       </c>
       <c r="I128" s="4"/>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K128" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -6002,8 +6907,15 @@
         <v>1</v>
       </c>
       <c r="I129" s="4"/>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="K129" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -6026,8 +6938,15 @@
         <v>1</v>
       </c>
       <c r="I130" s="4"/>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" t="str">
+        <f t="shared" ref="J130:J193" si="2">IF(C130&gt;DATE(2020,3,21),"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="K130" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -6050,8 +6969,15 @@
         <v>1</v>
       </c>
       <c r="I131" s="4"/>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K131" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -6077,8 +7003,15 @@
         <v>2</v>
       </c>
       <c r="I132" s="4"/>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K132" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -6104,8 +7037,15 @@
         <v>5</v>
       </c>
       <c r="I133" s="4"/>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K133" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -6133,8 +7073,15 @@
       <c r="I134">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K134" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -6162,8 +7109,15 @@
       <c r="I135">
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K135" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -6191,8 +7145,15 @@
       <c r="I136">
         <v>12</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K136" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -6220,8 +7181,15 @@
       <c r="I137">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K137" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -6249,8 +7217,15 @@
       <c r="I138">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K138" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -6278,8 +7253,15 @@
       <c r="I139">
         <v>21</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K139" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -6302,8 +7284,15 @@
         <v>0</v>
       </c>
       <c r="I140" s="4"/>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K140" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -6326,8 +7315,15 @@
         <v>0</v>
       </c>
       <c r="I141" s="4"/>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K141" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -6350,8 +7346,15 @@
         <v>0</v>
       </c>
       <c r="I142" s="4"/>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K142" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -6374,8 +7377,15 @@
         <v>0</v>
       </c>
       <c r="I143" s="4"/>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="J143" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K143" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -6398,8 +7408,15 @@
         <v>0</v>
       </c>
       <c r="I144" s="4"/>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K144" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -6422,8 +7439,15 @@
         <v>0</v>
       </c>
       <c r="I145" s="4"/>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K145" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -6446,8 +7470,15 @@
         <v>0</v>
       </c>
       <c r="I146" s="4"/>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -6470,8 +7501,15 @@
         <v>1</v>
       </c>
       <c r="I147" s="4"/>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="J147" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -6489,8 +7527,15 @@
         <v>3</v>
       </c>
       <c r="I148" s="4"/>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="J148" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -6508,8 +7553,15 @@
         <v>6</v>
       </c>
       <c r="I149" s="4"/>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K149" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -6532,8 +7584,15 @@
         <v>9</v>
       </c>
       <c r="I150" s="4"/>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K150" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -6556,8 +7615,15 @@
         <v>12</v>
       </c>
       <c r="I151" s="4"/>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="J151" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K151" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -6580,8 +7646,15 @@
         <v>22</v>
       </c>
       <c r="I152" s="4"/>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="J152" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K152" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -6604,8 +7677,15 @@
         <v>3</v>
       </c>
       <c r="I153" s="4"/>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="J153" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K153" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -6628,8 +7708,15 @@
         <v>43</v>
       </c>
       <c r="I154" s="4"/>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K154" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -6655,8 +7742,15 @@
         <v>55</v>
       </c>
       <c r="I155" s="4"/>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="J155" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K155" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -6682,8 +7776,15 @@
         <v>74</v>
       </c>
       <c r="I156" s="4"/>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K156" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -6711,8 +7812,15 @@
       <c r="I157">
         <v>117</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="J157" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K157" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -6740,8 +7848,15 @@
       <c r="I158">
         <v>140</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="J158" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K158" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -6769,8 +7884,15 @@
       <c r="I159">
         <v>213</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K159" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -6798,8 +7920,15 @@
       <c r="I160">
         <v>308</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="J160" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K160" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -6827,8 +7956,15 @@
       <c r="I161">
         <v>423</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="J161" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K161" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -6856,8 +7992,15 @@
       <c r="I162">
         <v>585</v>
       </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="J162" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K162" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -6880,8 +8023,15 @@
         <v>0</v>
       </c>
       <c r="I163" s="4"/>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="J163" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K163" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
         <v>16</v>
       </c>
@@ -6904,8 +8054,15 @@
         <v>0</v>
       </c>
       <c r="I164" s="4"/>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="J164" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K164" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -6928,8 +8085,15 @@
         <v>0</v>
       </c>
       <c r="I165" s="4"/>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -6952,8 +8116,15 @@
         <v>0</v>
       </c>
       <c r="I166" s="4"/>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="J166" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K166" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>16</v>
       </c>
@@ -6976,8 +8147,15 @@
         <v>0</v>
       </c>
       <c r="I167" s="4"/>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="J167" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
         <v>16</v>
       </c>
@@ -7000,8 +8178,15 @@
         <v>0</v>
       </c>
       <c r="I168" s="4"/>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="J168" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K168" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
         <v>16</v>
       </c>
@@ -7024,8 +8209,15 @@
         <v>1</v>
       </c>
       <c r="I169" s="4"/>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="J169" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K169" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -7048,8 +8240,15 @@
         <v>5</v>
       </c>
       <c r="I170" s="4"/>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="J170" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K170" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -7067,8 +8266,15 @@
         <v>6</v>
       </c>
       <c r="I171" s="4"/>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="J171" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K171" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -7086,8 +8292,15 @@
         <v>10</v>
       </c>
       <c r="I172" s="4"/>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="J172" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K172" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -7110,8 +8323,15 @@
         <v>17</v>
       </c>
       <c r="I173" s="4"/>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K173" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -7134,8 +8354,15 @@
         <v>17</v>
       </c>
       <c r="I174" s="4"/>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K174" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -7158,8 +8385,15 @@
         <v>28</v>
       </c>
       <c r="I175" s="4"/>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K175" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -7182,8 +8416,15 @@
         <v>2</v>
       </c>
       <c r="I176" s="4"/>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K176" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -7206,8 +8447,15 @@
         <v>62</v>
       </c>
       <c r="I177" s="4"/>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K177" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -7233,8 +8481,15 @@
         <v>84</v>
       </c>
       <c r="I178" s="4"/>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="J178" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K178" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -7260,8 +8515,15 @@
         <v>112</v>
       </c>
       <c r="I179" s="4"/>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K179" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -7289,8 +8551,15 @@
       <c r="I180">
         <v>51</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K180" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
         <v>16</v>
       </c>
@@ -7318,8 +8587,15 @@
       <c r="I181">
         <v>53</v>
       </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="J181" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K181" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -7347,8 +8623,15 @@
       <c r="I182">
         <v>71</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K182" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -7376,8 +8659,15 @@
       <c r="I183">
         <v>95</v>
       </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="J183" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K183" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
         <v>16</v>
       </c>
@@ -7405,8 +8695,15 @@
       <c r="I184">
         <v>153</v>
       </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="J184" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K184" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -7434,8 +8731,15 @@
       <c r="I185">
         <v>197</v>
       </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="J185" t="str">
+        <f t="shared" si="2"/>
+        <v>Si</v>
+      </c>
+      <c r="K185" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -7458,8 +8762,15 @@
         <v>0</v>
       </c>
       <c r="I186" s="4"/>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="J186" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K186" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
         <v>18</v>
       </c>
@@ -7482,8 +8793,15 @@
         <v>0</v>
       </c>
       <c r="I187" s="4"/>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="J187" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K187" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
         <v>18</v>
       </c>
@@ -7506,8 +8824,15 @@
         <v>0</v>
       </c>
       <c r="I188" s="4"/>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="J188" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K188" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
         <v>18</v>
       </c>
@@ -7530,8 +8855,15 @@
         <v>1</v>
       </c>
       <c r="I189" s="4"/>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="J189" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K189" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" t="s">
         <v>18</v>
       </c>
@@ -7554,8 +8886,15 @@
         <v>3</v>
       </c>
       <c r="I190" s="4"/>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K190" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
         <v>18</v>
       </c>
@@ -7578,8 +8917,15 @@
         <v>3</v>
       </c>
       <c r="I191" s="4"/>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="J191" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K191" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -7602,8 +8948,15 @@
         <v>4</v>
       </c>
       <c r="I192" s="4"/>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="J192" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K192" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>18</v>
       </c>
@@ -7626,8 +8979,15 @@
         <v>4</v>
       </c>
       <c r="I193" s="4"/>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="J193" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="K193" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>18</v>
       </c>
@@ -7645,8 +9005,15 @@
         <v>6</v>
       </c>
       <c r="I194" s="4"/>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194" t="str">
+        <f t="shared" ref="J194:J257" si="3">IF(C194&gt;DATE(2020,3,21),"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="K194" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -7664,8 +9031,15 @@
         <v>8</v>
       </c>
       <c r="I195" s="4"/>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K195" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -7689,8 +9063,15 @@
         <v>12</v>
       </c>
       <c r="I196" s="4"/>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="J196" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K196" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -7713,8 +9094,15 @@
         <v>18</v>
       </c>
       <c r="I197" s="4"/>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="J197" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K197" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -7737,8 +9125,15 @@
         <v>41</v>
       </c>
       <c r="I198" s="4"/>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="J198" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K198" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>18</v>
       </c>
@@ -7761,8 +9156,15 @@
         <v>1</v>
       </c>
       <c r="I199" s="4"/>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="J199" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K199" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>18</v>
       </c>
@@ -7785,8 +9187,15 @@
         <v>82</v>
       </c>
       <c r="I200" s="4"/>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="J200" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K200" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>18</v>
       </c>
@@ -7812,8 +9221,15 @@
         <v>122</v>
       </c>
       <c r="I201" s="4"/>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="J201" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K201" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>18</v>
       </c>
@@ -7839,8 +9255,15 @@
         <v>191</v>
       </c>
       <c r="I202" s="4"/>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="J202" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K202" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>18</v>
       </c>
@@ -7868,8 +9291,15 @@
       <c r="I203">
         <v>644</v>
       </c>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="J203" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K203" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -7897,8 +9327,15 @@
       <c r="I204">
         <v>728</v>
       </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="J204" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K204" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>18</v>
       </c>
@@ -7926,8 +9363,15 @@
       <c r="I205" s="3">
         <v>1274</v>
       </c>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="J205" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K205" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>18</v>
       </c>
@@ -7955,8 +9399,15 @@
       <c r="I206" s="3">
         <v>1697</v>
       </c>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="J206" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K206" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>18</v>
       </c>
@@ -7984,8 +9435,15 @@
       <c r="I207" s="3">
         <v>2348</v>
       </c>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="J207" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K207" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>18</v>
       </c>
@@ -8013,8 +9471,15 @@
       <c r="I208" s="3">
         <v>3106</v>
       </c>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="J208" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K208" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2" t="s">
         <v>2</v>
       </c>
@@ -8037,8 +9502,15 @@
         <v>1</v>
       </c>
       <c r="I209" s="4"/>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="J209" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K209" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2" t="s">
         <v>2</v>
       </c>
@@ -8061,8 +9533,15 @@
         <v>1</v>
       </c>
       <c r="I210" s="4"/>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="J210" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K210" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2" t="s">
         <v>2</v>
       </c>
@@ -8085,8 +9564,15 @@
         <v>1</v>
       </c>
       <c r="I211" s="4"/>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="J211" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K211" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2" t="s">
         <v>2</v>
       </c>
@@ -8109,8 +9595,15 @@
         <v>1</v>
       </c>
       <c r="I212" s="4"/>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="J212" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K212" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2" t="s">
         <v>2</v>
       </c>
@@ -8133,8 +9626,15 @@
         <v>1</v>
       </c>
       <c r="I213" s="4"/>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="J213" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K213" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2" t="s">
         <v>2</v>
       </c>
@@ -8157,8 +9657,15 @@
         <v>1</v>
       </c>
       <c r="I214" s="4"/>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="J214" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K214" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2" t="s">
         <v>2</v>
       </c>
@@ -8181,8 +9688,15 @@
         <v>1</v>
       </c>
       <c r="I215" s="4"/>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="J215" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K215" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2" t="s">
         <v>2</v>
       </c>
@@ -8205,8 +9719,15 @@
         <v>1</v>
       </c>
       <c r="I216" s="4"/>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="J216" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K216" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2" t="s">
         <v>2</v>
       </c>
@@ -8224,8 +9745,15 @@
         <v>4</v>
       </c>
       <c r="I217" s="4"/>
-    </row>
-    <row r="218" spans="1:9">
+      <c r="J217" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K217" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2" t="s">
         <v>2</v>
       </c>
@@ -8243,8 +9771,15 @@
         <v>5</v>
       </c>
       <c r="I218" s="4"/>
-    </row>
-    <row r="219" spans="1:9">
+      <c r="J218" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K218" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2" t="s">
         <v>2</v>
       </c>
@@ -8267,8 +9802,15 @@
         <v>5</v>
       </c>
       <c r="I219" s="4"/>
-    </row>
-    <row r="220" spans="1:9">
+      <c r="J219" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K219" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2" t="s">
         <v>2</v>
       </c>
@@ -8291,8 +9833,15 @@
         <v>13</v>
       </c>
       <c r="I220" s="4"/>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="J220" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K220" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2" t="s">
         <v>2</v>
       </c>
@@ -8315,8 +9864,15 @@
         <v>22</v>
       </c>
       <c r="I221" s="4"/>
-    </row>
-    <row r="222" spans="1:9">
+      <c r="J221" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K221" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2" t="s">
         <v>2</v>
       </c>
@@ -8339,8 +9895,15 @@
         <v>24</v>
       </c>
       <c r="I222" s="4"/>
-    </row>
-    <row r="223" spans="1:9">
+      <c r="J222" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K222" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2" t="s">
         <v>2</v>
       </c>
@@ -8363,8 +9926,15 @@
         <v>33</v>
       </c>
       <c r="I223" s="4"/>
-    </row>
-    <row r="224" spans="1:9">
+      <c r="J223" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K223" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2" t="s">
         <v>2</v>
       </c>
@@ -8390,8 +9960,15 @@
         <v>50</v>
       </c>
       <c r="I224" s="4"/>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="J224" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K224" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2" t="s">
         <v>2</v>
       </c>
@@ -8417,8 +9994,15 @@
         <v>69</v>
       </c>
       <c r="I225" s="4"/>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="J225" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K225" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -8446,8 +10030,15 @@
       <c r="I226">
         <v>36</v>
       </c>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="J226" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K226" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2" t="s">
         <v>2</v>
       </c>
@@ -8475,8 +10066,15 @@
       <c r="I227">
         <v>37</v>
       </c>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="J227" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K227" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2" t="s">
         <v>2</v>
       </c>
@@ -8504,8 +10102,15 @@
       <c r="I228">
         <v>44</v>
       </c>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="J228" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K228" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2" t="s">
         <v>2</v>
       </c>
@@ -8533,8 +10138,15 @@
       <c r="I229">
         <v>57</v>
       </c>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="J229" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K229" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2" t="s">
         <v>2</v>
       </c>
@@ -8562,8 +10174,15 @@
       <c r="I230">
         <v>73</v>
       </c>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="J230" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K230" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2" t="s">
         <v>2</v>
       </c>
@@ -8591,8 +10210,15 @@
       <c r="I231">
         <v>92</v>
       </c>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="J231" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K231" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -8615,8 +10241,15 @@
         <v>0</v>
       </c>
       <c r="I232" s="4"/>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="J232" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K232" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" t="s">
         <v>3</v>
       </c>
@@ -8639,8 +10272,15 @@
         <v>0</v>
       </c>
       <c r="I233" s="4"/>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="J233" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K233" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" t="s">
         <v>3</v>
       </c>
@@ -8663,8 +10303,15 @@
         <v>0</v>
       </c>
       <c r="I234" s="4"/>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="J234" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K234" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -8687,8 +10334,15 @@
         <v>0</v>
       </c>
       <c r="I235" s="4"/>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="J235" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K235" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" t="s">
         <v>3</v>
       </c>
@@ -8711,8 +10365,15 @@
         <v>0</v>
       </c>
       <c r="I236" s="4"/>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="J236" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K236" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -8735,8 +10396,15 @@
         <v>0</v>
       </c>
       <c r="I237" s="4"/>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="J237" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K237" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -8759,8 +10427,15 @@
         <v>1</v>
       </c>
       <c r="I238" s="4"/>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="J238" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K238" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" t="s">
         <v>3</v>
       </c>
@@ -8783,8 +10458,15 @@
         <v>1</v>
       </c>
       <c r="I239" s="4"/>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="J239" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K239" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" t="s">
         <v>3</v>
       </c>
@@ -8802,8 +10484,15 @@
         <v>2</v>
       </c>
       <c r="I240" s="4"/>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="J240" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K240" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -8821,8 +10510,15 @@
         <v>2</v>
       </c>
       <c r="I241" s="4"/>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="J241" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K241" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -8845,8 +10541,15 @@
         <v>2</v>
       </c>
       <c r="I242" s="4"/>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="J242" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K242" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -8869,8 +10572,15 @@
         <v>3</v>
       </c>
       <c r="I243" s="4"/>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="J243" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K243" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" t="s">
         <v>3</v>
       </c>
@@ -8893,8 +10603,15 @@
         <v>6</v>
       </c>
       <c r="I244" s="4"/>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="J244" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K244" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" t="s">
         <v>3</v>
       </c>
@@ -8917,8 +10634,15 @@
         <v>8</v>
       </c>
       <c r="I245" s="4"/>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="J245" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K245" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" t="s">
         <v>3</v>
       </c>
@@ -8941,8 +10665,15 @@
         <v>10</v>
       </c>
       <c r="I246" s="4"/>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="J246" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K246" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" t="s">
         <v>3</v>
       </c>
@@ -8968,8 +10699,15 @@
         <v>12</v>
       </c>
       <c r="I247" s="4"/>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="J247" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K247" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -8995,8 +10733,15 @@
         <v>14</v>
       </c>
       <c r="I248" s="4"/>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="J248" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K248" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" t="s">
         <v>3</v>
       </c>
@@ -9024,8 +10769,15 @@
       <c r="I249">
         <v>6</v>
       </c>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="J249" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K249" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" t="s">
         <v>3</v>
       </c>
@@ -9053,8 +10805,15 @@
       <c r="I250">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="J250" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K250" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" t="s">
         <v>3</v>
       </c>
@@ -9082,8 +10841,15 @@
       <c r="I251">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="J251" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K251" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" t="s">
         <v>3</v>
       </c>
@@ -9111,8 +10877,15 @@
       <c r="I252">
         <v>24</v>
       </c>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="J252" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K252" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -9140,8 +10913,15 @@
       <c r="I253">
         <v>33</v>
       </c>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="J253" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K253" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -9169,8 +10949,15 @@
       <c r="I254">
         <v>49</v>
       </c>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="J254" t="str">
+        <f t="shared" si="3"/>
+        <v>Si</v>
+      </c>
+      <c r="K254" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2" t="s">
         <v>4</v>
       </c>
@@ -9193,8 +10980,15 @@
         <v>0</v>
       </c>
       <c r="I255" s="4"/>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="J255" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K255" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2" t="s">
         <v>4</v>
       </c>
@@ -9217,8 +11011,15 @@
         <v>0</v>
       </c>
       <c r="I256" s="4"/>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="J256" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K256" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2" t="s">
         <v>4</v>
       </c>
@@ -9241,8 +11042,15 @@
         <v>0</v>
       </c>
       <c r="I257" s="4"/>
-    </row>
-    <row r="258" spans="1:9">
+      <c r="J257" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="K257" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2" t="s">
         <v>4</v>
       </c>
@@ -9265,8 +11073,15 @@
         <v>0</v>
       </c>
       <c r="I258" s="4"/>
-    </row>
-    <row r="259" spans="1:9">
+      <c r="J258" t="str">
+        <f t="shared" ref="J258:J321" si="4">IF(C258&gt;DATE(2020,3,21),"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="K258" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2" t="s">
         <v>4</v>
       </c>
@@ -9289,8 +11104,15 @@
         <v>0</v>
       </c>
       <c r="I259" s="4"/>
-    </row>
-    <row r="260" spans="1:9">
+      <c r="J259" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K259" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2" t="s">
         <v>4</v>
       </c>
@@ -9313,8 +11135,15 @@
         <v>0</v>
       </c>
       <c r="I260" s="4"/>
-    </row>
-    <row r="261" spans="1:9">
+      <c r="J260" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K260" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2" t="s">
         <v>4</v>
       </c>
@@ -9337,8 +11166,15 @@
         <v>0</v>
       </c>
       <c r="I261" s="4"/>
-    </row>
-    <row r="262" spans="1:9">
+      <c r="J261" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K261" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2" t="s">
         <v>4</v>
       </c>
@@ -9361,8 +11197,15 @@
         <v>0</v>
       </c>
       <c r="I262" s="4"/>
-    </row>
-    <row r="263" spans="1:9">
+      <c r="J262" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K262" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2" t="s">
         <v>4</v>
       </c>
@@ -9380,8 +11223,15 @@
         <v>0</v>
       </c>
       <c r="I263" s="4"/>
-    </row>
-    <row r="264" spans="1:9">
+      <c r="J263" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K263" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2" t="s">
         <v>4</v>
       </c>
@@ -9399,8 +11249,15 @@
         <v>2</v>
       </c>
       <c r="I264" s="4"/>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="J264" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K264" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2" t="s">
         <v>4</v>
       </c>
@@ -9423,8 +11280,15 @@
         <v>2</v>
       </c>
       <c r="I265" s="4"/>
-    </row>
-    <row r="266" spans="1:9">
+      <c r="J265" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K265" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2" t="s">
         <v>4</v>
       </c>
@@ -9447,8 +11311,15 @@
         <v>3</v>
       </c>
       <c r="I266" s="4"/>
-    </row>
-    <row r="267" spans="1:9">
+      <c r="J266" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K266" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2" t="s">
         <v>4</v>
       </c>
@@ -9471,8 +11342,15 @@
         <v>3</v>
       </c>
       <c r="I267" s="4"/>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="J267" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K267" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2" t="s">
         <v>4</v>
       </c>
@@ -9495,8 +11373,15 @@
         <v>4</v>
       </c>
       <c r="I268" s="4"/>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="J268" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K268" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2" t="s">
         <v>4</v>
       </c>
@@ -9519,8 +11404,15 @@
         <v>5</v>
       </c>
       <c r="I269" s="4"/>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="J269" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K269" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2" t="s">
         <v>4</v>
       </c>
@@ -9546,8 +11438,15 @@
         <v>9</v>
       </c>
       <c r="I270" s="4"/>
-    </row>
-    <row r="271" spans="1:9">
+      <c r="J270" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K270" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -9573,8 +11472,15 @@
         <v>12</v>
       </c>
       <c r="I271" s="4"/>
-    </row>
-    <row r="272" spans="1:9">
+      <c r="J271" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K271" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -9602,8 +11508,15 @@
       <c r="I272">
         <v>19</v>
       </c>
-    </row>
-    <row r="273" spans="1:9">
+      <c r="J272" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K272" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2" t="s">
         <v>4</v>
       </c>
@@ -9631,8 +11544,15 @@
       <c r="I273">
         <v>19</v>
       </c>
-    </row>
-    <row r="274" spans="1:9">
+      <c r="J273" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K273" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2" t="s">
         <v>4</v>
       </c>
@@ -9660,8 +11580,15 @@
       <c r="I274">
         <v>25</v>
       </c>
-    </row>
-    <row r="275" spans="1:9">
+      <c r="J274" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K274" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2" t="s">
         <v>4</v>
       </c>
@@ -9689,8 +11616,15 @@
       <c r="I275">
         <v>47</v>
       </c>
-    </row>
-    <row r="276" spans="1:9">
+      <c r="J275" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K275" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2" t="s">
         <v>4</v>
       </c>
@@ -9718,8 +11652,15 @@
       <c r="I276">
         <v>67</v>
       </c>
-    </row>
-    <row r="277" spans="1:9">
+      <c r="J276" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K276" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2" t="s">
         <v>4</v>
       </c>
@@ -9747,8 +11688,15 @@
       <c r="I277">
         <v>95</v>
       </c>
-    </row>
-    <row r="278" spans="1:9">
+      <c r="J277" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K277" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -9771,8 +11719,15 @@
         <v>0</v>
       </c>
       <c r="I278" s="4"/>
-    </row>
-    <row r="279" spans="1:9">
+      <c r="J278" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K278" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -9795,8 +11750,15 @@
         <v>1</v>
       </c>
       <c r="I279" s="4"/>
-    </row>
-    <row r="280" spans="1:9">
+      <c r="J279" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K279" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -9819,8 +11781,15 @@
         <v>2</v>
       </c>
       <c r="I280" s="4"/>
-    </row>
-    <row r="281" spans="1:9">
+      <c r="J280" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K280" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -9843,8 +11812,15 @@
         <v>8</v>
       </c>
       <c r="I281" s="4"/>
-    </row>
-    <row r="282" spans="1:9">
+      <c r="J281" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K281" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -9867,8 +11843,15 @@
         <v>21</v>
       </c>
       <c r="I282" s="4"/>
-    </row>
-    <row r="283" spans="1:9">
+      <c r="J282" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K282" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -9891,8 +11874,15 @@
         <v>31</v>
       </c>
       <c r="I283" s="4"/>
-    </row>
-    <row r="284" spans="1:9">
+      <c r="J283" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K283" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -9915,8 +11905,15 @@
         <v>56</v>
       </c>
       <c r="I284" s="4"/>
-    </row>
-    <row r="285" spans="1:9">
+      <c r="J284" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K284" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -9939,8 +11936,15 @@
         <v>81</v>
       </c>
       <c r="I285" s="4"/>
-    </row>
-    <row r="286" spans="1:9">
+      <c r="J285" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K285" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -9958,8 +11962,15 @@
         <v>86</v>
       </c>
       <c r="I286" s="4"/>
-    </row>
-    <row r="287" spans="1:9">
+      <c r="J286" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K286" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -9977,8 +11988,15 @@
         <v>213</v>
       </c>
       <c r="I287" s="4"/>
-    </row>
-    <row r="288" spans="1:9">
+      <c r="J287" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K287" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -10001,8 +12019,15 @@
         <v>213</v>
       </c>
       <c r="I288" s="4"/>
-    </row>
-    <row r="289" spans="1:9">
+      <c r="J288" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K288" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" t="s">
         <v>5</v>
       </c>
@@ -10025,8 +12050,15 @@
         <v>355</v>
       </c>
       <c r="I289" s="4"/>
-    </row>
-    <row r="290" spans="1:9">
+      <c r="J289" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K289" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -10049,8 +12081,15 @@
         <v>390</v>
       </c>
       <c r="I290" s="4"/>
-    </row>
-    <row r="291" spans="1:9">
+      <c r="J290" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K290" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -10073,8 +12112,15 @@
         <v>498</v>
       </c>
       <c r="I291" s="4"/>
-    </row>
-    <row r="292" spans="1:9">
+      <c r="J291" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K291" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -10097,8 +12143,15 @@
         <v>628</v>
       </c>
       <c r="I292" s="4"/>
-    </row>
-    <row r="293" spans="1:9">
+      <c r="J292" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K292" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -10124,8 +12177,15 @@
         <v>804</v>
       </c>
       <c r="I293" s="4"/>
-    </row>
-    <row r="294" spans="1:9">
+      <c r="J293" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K293" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -10151,8 +12211,15 @@
         <v>1021</v>
       </c>
       <c r="I294" s="4"/>
-    </row>
-    <row r="295" spans="1:9">
+      <c r="J294" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K294" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -10180,8 +12247,15 @@
       <c r="I295" s="3">
         <v>2063</v>
       </c>
-    </row>
-    <row r="296" spans="1:9">
+      <c r="J295" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K295" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -10209,8 +12283,15 @@
       <c r="I296" s="3">
         <v>2291</v>
       </c>
-    </row>
-    <row r="297" spans="1:9">
+      <c r="J296" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K296" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -10238,8 +12319,15 @@
       <c r="I297" s="3">
         <v>3031</v>
       </c>
-    </row>
-    <row r="298" spans="1:9">
+      <c r="J297" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K297" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" t="s">
         <v>5</v>
       </c>
@@ -10267,8 +12355,15 @@
       <c r="I298" s="3">
         <v>3882</v>
       </c>
-    </row>
-    <row r="299" spans="1:9">
+      <c r="J298" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K298" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -10296,8 +12391,15 @@
       <c r="I299" s="3">
         <v>5044</v>
       </c>
-    </row>
-    <row r="300" spans="1:9">
+      <c r="J299" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K299" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -10325,8 +12427,15 @@
       <c r="I300" s="3">
         <v>6326</v>
       </c>
-    </row>
-    <row r="301" spans="1:9">
+      <c r="J300" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K300" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -10349,8 +12458,15 @@
         <v>0</v>
       </c>
       <c r="I301" s="4"/>
-    </row>
-    <row r="302" spans="1:9">
+      <c r="J301" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K301" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -10373,8 +12489,15 @@
         <v>0</v>
       </c>
       <c r="I302" s="4"/>
-    </row>
-    <row r="303" spans="1:9">
+      <c r="J302" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K302" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -10397,8 +12520,15 @@
         <v>0</v>
       </c>
       <c r="I303" s="4"/>
-    </row>
-    <row r="304" spans="1:9">
+      <c r="J303" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K303" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -10421,8 +12551,15 @@
         <v>0</v>
       </c>
       <c r="I304" s="4"/>
-    </row>
-    <row r="305" spans="1:9">
+      <c r="J304" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K304" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -10445,8 +12582,15 @@
         <v>0</v>
       </c>
       <c r="I305" s="4"/>
-    </row>
-    <row r="306" spans="1:9">
+      <c r="J305" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K305" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -10469,8 +12613,15 @@
         <v>0</v>
       </c>
       <c r="I306" s="4"/>
-    </row>
-    <row r="307" spans="1:9">
+      <c r="J306" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K306" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -10493,8 +12644,15 @@
         <v>0</v>
       </c>
       <c r="I307" s="4"/>
-    </row>
-    <row r="308" spans="1:9">
+      <c r="J307" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K307" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -10517,8 +12675,15 @@
         <v>0</v>
       </c>
       <c r="I308" s="4"/>
-    </row>
-    <row r="309" spans="1:9">
+      <c r="J308" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K308" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -10536,8 +12701,15 @@
         <v>0</v>
       </c>
       <c r="I309" s="4"/>
-    </row>
-    <row r="310" spans="1:9">
+      <c r="J309" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K309" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -10555,8 +12727,15 @@
         <v>0</v>
       </c>
       <c r="I310" s="4"/>
-    </row>
-    <row r="311" spans="1:9">
+      <c r="J310" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K310" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -10579,8 +12758,15 @@
         <v>0</v>
       </c>
       <c r="I311" s="4"/>
-    </row>
-    <row r="312" spans="1:9">
+      <c r="J311" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K311" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -10603,8 +12789,15 @@
         <v>0</v>
       </c>
       <c r="I312" s="4"/>
-    </row>
-    <row r="313" spans="1:9">
+      <c r="J312" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K312" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -10627,8 +12820,15 @@
         <v>0</v>
       </c>
       <c r="I313" s="4"/>
-    </row>
-    <row r="314" spans="1:9">
+      <c r="J313" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K313" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -10651,8 +12851,15 @@
         <v>0</v>
       </c>
       <c r="I314" s="4"/>
-    </row>
-    <row r="315" spans="1:9">
+      <c r="J314" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K314" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -10675,8 +12882,15 @@
         <v>0</v>
       </c>
       <c r="I315" s="4"/>
-    </row>
-    <row r="316" spans="1:9">
+      <c r="J315" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K315" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -10702,8 +12916,15 @@
         <v>1</v>
       </c>
       <c r="I316" s="4"/>
-    </row>
-    <row r="317" spans="1:9">
+      <c r="J316" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K316" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -10729,8 +12950,15 @@
         <v>1</v>
       </c>
       <c r="I317" s="4"/>
-    </row>
-    <row r="318" spans="1:9">
+      <c r="J317" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="K317" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -10758,8 +12986,15 @@
       <c r="I318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:9">
+      <c r="J318" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K318" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -10787,8 +13022,15 @@
       <c r="I319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:9">
+      <c r="J319" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K319" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -10816,8 +13058,15 @@
       <c r="I320">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:9">
+      <c r="J320" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K320" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -10845,8 +13094,15 @@
       <c r="I321">
         <v>9</v>
       </c>
-    </row>
-    <row r="322" spans="1:9">
+      <c r="J321" t="str">
+        <f t="shared" si="4"/>
+        <v>Si</v>
+      </c>
+      <c r="K321" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -10874,8 +13130,15 @@
       <c r="I322">
         <v>12</v>
       </c>
-    </row>
-    <row r="323" spans="1:9">
+      <c r="J322" t="str">
+        <f t="shared" ref="J322:J385" si="5">IF(C322&gt;DATE(2020,3,21),"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="K322" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -10903,8 +13166,15 @@
       <c r="I323">
         <v>12</v>
       </c>
-    </row>
-    <row r="324" spans="1:9">
+      <c r="J323" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K323" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11">
       <c r="A324" s="2" t="s">
         <v>8</v>
       </c>
@@ -10927,8 +13197,15 @@
         <v>0</v>
       </c>
       <c r="I324" s="4"/>
-    </row>
-    <row r="325" spans="1:9">
+      <c r="J324" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K324" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11">
       <c r="A325" s="2" t="s">
         <v>8</v>
       </c>
@@ -10951,8 +13228,15 @@
         <v>0</v>
       </c>
       <c r="I325" s="4"/>
-    </row>
-    <row r="326" spans="1:9">
+      <c r="J325" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K325" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11">
       <c r="A326" s="2" t="s">
         <v>8</v>
       </c>
@@ -10975,8 +13259,15 @@
         <v>0</v>
       </c>
       <c r="I326" s="4"/>
-    </row>
-    <row r="327" spans="1:9">
+      <c r="J326" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K326" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
       <c r="A327" s="2" t="s">
         <v>8</v>
       </c>
@@ -10999,8 +13290,15 @@
         <v>0</v>
       </c>
       <c r="I327" s="4"/>
-    </row>
-    <row r="328" spans="1:9">
+      <c r="J327" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K327" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11">
       <c r="A328" s="2" t="s">
         <v>8</v>
       </c>
@@ -11023,8 +13321,15 @@
         <v>0</v>
       </c>
       <c r="I328" s="4"/>
-    </row>
-    <row r="329" spans="1:9">
+      <c r="J328" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K328" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11">
       <c r="A329" s="2" t="s">
         <v>8</v>
       </c>
@@ -11047,8 +13352,15 @@
         <v>0</v>
       </c>
       <c r="I329" s="4"/>
-    </row>
-    <row r="330" spans="1:9">
+      <c r="J329" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K329" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
       <c r="A330" s="2" t="s">
         <v>8</v>
       </c>
@@ -11071,8 +13383,15 @@
         <v>0</v>
       </c>
       <c r="I330" s="4"/>
-    </row>
-    <row r="331" spans="1:9">
+      <c r="J330" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K330" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11">
       <c r="A331" s="2" t="s">
         <v>8</v>
       </c>
@@ -11095,8 +13414,15 @@
         <v>0</v>
       </c>
       <c r="I331" s="4"/>
-    </row>
-    <row r="332" spans="1:9">
+      <c r="J331" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K331" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11">
       <c r="A332" s="2" t="s">
         <v>8</v>
       </c>
@@ -11114,8 +13440,15 @@
         <v>0</v>
       </c>
       <c r="I332" s="4"/>
-    </row>
-    <row r="333" spans="1:9">
+      <c r="J332" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K332" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11">
       <c r="A333" s="2" t="s">
         <v>8</v>
       </c>
@@ -11133,8 +13466,15 @@
         <v>0</v>
       </c>
       <c r="I333" s="4"/>
-    </row>
-    <row r="334" spans="1:9">
+      <c r="J333" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K333" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11">
       <c r="A334" s="2" t="s">
         <v>8</v>
       </c>
@@ -11157,8 +13497,15 @@
         <v>1</v>
       </c>
       <c r="I334" s="4"/>
-    </row>
-    <row r="335" spans="1:9">
+      <c r="J334" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K334" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11">
       <c r="A335" s="2" t="s">
         <v>8</v>
       </c>
@@ -11181,8 +13528,15 @@
         <v>2</v>
       </c>
       <c r="I335" s="4"/>
-    </row>
-    <row r="336" spans="1:9">
+      <c r="J335" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K335" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11">
       <c r="A336" s="2" t="s">
         <v>8</v>
       </c>
@@ -11205,8 +13559,15 @@
         <v>3</v>
       </c>
       <c r="I336" s="4"/>
-    </row>
-    <row r="337" spans="1:9">
+      <c r="J336" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K336" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11">
       <c r="A337" s="2" t="s">
         <v>8</v>
       </c>
@@ -11229,8 +13590,15 @@
         <v>4</v>
       </c>
       <c r="I337" s="4"/>
-    </row>
-    <row r="338" spans="1:9">
+      <c r="J337" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K337" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11">
       <c r="A338" s="2" t="s">
         <v>8</v>
       </c>
@@ -11253,8 +13621,15 @@
         <v>5</v>
       </c>
       <c r="I338" s="4"/>
-    </row>
-    <row r="339" spans="1:9">
+      <c r="J338" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K338" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11">
       <c r="A339" s="2" t="s">
         <v>8</v>
       </c>
@@ -11280,8 +13655,15 @@
         <v>9</v>
       </c>
       <c r="I339" s="4"/>
-    </row>
-    <row r="340" spans="1:9">
+      <c r="J339" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K339" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11">
       <c r="A340" t="s">
         <v>8</v>
       </c>
@@ -11307,8 +13689,15 @@
         <v>14</v>
       </c>
       <c r="I340" s="4"/>
-    </row>
-    <row r="341" spans="1:9">
+      <c r="J340" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K340" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11">
       <c r="A341" t="s">
         <v>8</v>
       </c>
@@ -11336,8 +13725,15 @@
       <c r="I341">
         <v>7</v>
       </c>
-    </row>
-    <row r="342" spans="1:9">
+      <c r="J341" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K341" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11">
       <c r="A342" s="2" t="s">
         <v>8</v>
       </c>
@@ -11365,8 +13761,15 @@
       <c r="I342">
         <v>11</v>
       </c>
-    </row>
-    <row r="343" spans="1:9">
+      <c r="J342" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K342" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11">
       <c r="A343" s="2" t="s">
         <v>8</v>
       </c>
@@ -11394,8 +13797,15 @@
       <c r="I343">
         <v>23</v>
       </c>
-    </row>
-    <row r="344" spans="1:9">
+      <c r="J343" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K343" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11">
       <c r="A344" s="2" t="s">
         <v>8</v>
       </c>
@@ -11423,8 +13833,15 @@
       <c r="I344">
         <v>35</v>
       </c>
-    </row>
-    <row r="345" spans="1:9">
+      <c r="J344" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K344" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
       <c r="A345" s="2" t="s">
         <v>8</v>
       </c>
@@ -11452,8 +13869,15 @@
       <c r="I345">
         <v>70</v>
       </c>
-    </row>
-    <row r="346" spans="1:9">
+      <c r="J345" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K345" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11">
       <c r="A346" s="2" t="s">
         <v>8</v>
       </c>
@@ -11481,8 +13905,15 @@
       <c r="I346">
         <v>98</v>
       </c>
-    </row>
-    <row r="347" spans="1:9">
+      <c r="J346" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K346" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
       <c r="A347" t="s">
         <v>9</v>
       </c>
@@ -11505,8 +13936,15 @@
         <v>0</v>
       </c>
       <c r="I347" s="4"/>
-    </row>
-    <row r="348" spans="1:9">
+      <c r="J347" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K347" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -11529,8 +13967,15 @@
         <v>1</v>
       </c>
       <c r="I348" s="4"/>
-    </row>
-    <row r="349" spans="1:9">
+      <c r="J348" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K348" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -11553,8 +13998,15 @@
         <v>1</v>
       </c>
       <c r="I349" s="4"/>
-    </row>
-    <row r="350" spans="1:9">
+      <c r="J349" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K349" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -11577,8 +14029,15 @@
         <v>5</v>
       </c>
       <c r="I350" s="4"/>
-    </row>
-    <row r="351" spans="1:9">
+      <c r="J350" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K350" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -11601,8 +14060,15 @@
         <v>6</v>
       </c>
       <c r="I351" s="4"/>
-    </row>
-    <row r="352" spans="1:9">
+      <c r="J351" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K351" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -11625,8 +14091,15 @@
         <v>6</v>
       </c>
       <c r="I352" s="4"/>
-    </row>
-    <row r="353" spans="1:9">
+      <c r="J352" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K352" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11">
       <c r="A353" t="s">
         <v>9</v>
       </c>
@@ -11649,8 +14122,15 @@
         <v>11</v>
       </c>
       <c r="I353" s="4"/>
-    </row>
-    <row r="354" spans="1:9">
+      <c r="J353" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K353" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -11673,8 +14153,15 @@
         <v>14</v>
       </c>
       <c r="I354" s="4"/>
-    </row>
-    <row r="355" spans="1:9">
+      <c r="J354" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K354" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11">
       <c r="A355" t="s">
         <v>9</v>
       </c>
@@ -11692,8 +14179,15 @@
         <v>14</v>
       </c>
       <c r="I355" s="4"/>
-    </row>
-    <row r="356" spans="1:9">
+      <c r="J355" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K355" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11">
       <c r="A356" t="s">
         <v>9</v>
       </c>
@@ -11711,8 +14205,15 @@
         <v>23</v>
       </c>
       <c r="I356" s="4"/>
-    </row>
-    <row r="357" spans="1:9">
+      <c r="J356" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K356" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11">
       <c r="A357" t="s">
         <v>9</v>
       </c>
@@ -11735,8 +14236,15 @@
         <v>23</v>
       </c>
       <c r="I357" s="4"/>
-    </row>
-    <row r="358" spans="1:9">
+      <c r="J357" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K357" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11">
       <c r="A358" t="s">
         <v>9</v>
       </c>
@@ -11759,8 +14267,15 @@
         <v>36</v>
       </c>
       <c r="I358" s="4"/>
-    </row>
-    <row r="359" spans="1:9">
+      <c r="J358" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K358" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -11783,8 +14298,15 @@
         <v>40</v>
       </c>
       <c r="I359" s="4"/>
-    </row>
-    <row r="360" spans="1:9">
+      <c r="J359" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K359" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11">
       <c r="A360" t="s">
         <v>9</v>
       </c>
@@ -11807,8 +14329,15 @@
         <v>53</v>
       </c>
       <c r="I360" s="4"/>
-    </row>
-    <row r="361" spans="1:9">
+      <c r="J360" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K360" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11">
       <c r="A361" t="s">
         <v>9</v>
       </c>
@@ -11831,8 +14360,15 @@
         <v>71</v>
       </c>
       <c r="I361" s="4"/>
-    </row>
-    <row r="362" spans="1:9">
+      <c r="J361" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K361" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11">
       <c r="A362" t="s">
         <v>9</v>
       </c>
@@ -11858,8 +14394,15 @@
         <v>85</v>
       </c>
       <c r="I362" s="4"/>
-    </row>
-    <row r="363" spans="1:9">
+      <c r="J362" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K362" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -11885,8 +14428,15 @@
         <v>97</v>
       </c>
       <c r="I363" s="4"/>
-    </row>
-    <row r="364" spans="1:9">
+      <c r="J363" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K363" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11">
       <c r="A364" t="s">
         <v>9</v>
       </c>
@@ -11914,8 +14464,15 @@
       <c r="I364">
         <v>283</v>
       </c>
-    </row>
-    <row r="365" spans="1:9">
+      <c r="J364" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K364" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -11943,8 +14500,15 @@
       <c r="I365">
         <v>344</v>
       </c>
-    </row>
-    <row r="366" spans="1:9">
+      <c r="J365" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K365" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11">
       <c r="A366" t="s">
         <v>9</v>
       </c>
@@ -11972,8 +14536,15 @@
       <c r="I366">
         <v>466</v>
       </c>
-    </row>
-    <row r="367" spans="1:9">
+      <c r="J366" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K366" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11">
       <c r="A367" t="s">
         <v>9</v>
       </c>
@@ -12001,8 +14572,15 @@
       <c r="I367">
         <v>621</v>
       </c>
-    </row>
-    <row r="368" spans="1:9">
+      <c r="J367" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K367" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11">
       <c r="A368" t="s">
         <v>9</v>
       </c>
@@ -12030,8 +14608,15 @@
       <c r="I368">
         <v>814</v>
       </c>
-    </row>
-    <row r="369" spans="1:9">
+      <c r="J368" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K368" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -12059,8 +14644,15 @@
       <c r="I369" s="3">
         <v>1023</v>
       </c>
-    </row>
-    <row r="370" spans="1:9">
+      <c r="J369" t="str">
+        <f t="shared" si="5"/>
+        <v>Si</v>
+      </c>
+      <c r="K369" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11">
       <c r="A370" s="9" t="s">
         <v>19</v>
       </c>
@@ -12083,8 +14675,15 @@
         <v>0</v>
       </c>
       <c r="I370" s="4"/>
-    </row>
-    <row r="371" spans="1:9">
+      <c r="J370" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K370" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11">
       <c r="A371" s="9" t="s">
         <v>19</v>
       </c>
@@ -12107,8 +14706,15 @@
         <v>0</v>
       </c>
       <c r="I371" s="4"/>
-    </row>
-    <row r="372" spans="1:9">
+      <c r="J371" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K371" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11">
       <c r="A372" s="9" t="s">
         <v>19</v>
       </c>
@@ -12131,8 +14737,15 @@
         <v>0</v>
       </c>
       <c r="I372" s="4"/>
-    </row>
-    <row r="373" spans="1:9">
+      <c r="J372" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K372" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11">
       <c r="A373" s="9" t="s">
         <v>19</v>
       </c>
@@ -12155,8 +14768,15 @@
         <v>0</v>
       </c>
       <c r="I373" s="4"/>
-    </row>
-    <row r="374" spans="1:9">
+      <c r="J373" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K373" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11">
       <c r="A374" s="9" t="s">
         <v>19</v>
       </c>
@@ -12179,8 +14799,15 @@
         <v>1</v>
       </c>
       <c r="I374" s="4"/>
-    </row>
-    <row r="375" spans="1:9">
+      <c r="J374" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K374" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11">
       <c r="A375" s="9" t="s">
         <v>19</v>
       </c>
@@ -12203,8 +14830,15 @@
         <v>2</v>
       </c>
       <c r="I375" s="4"/>
-    </row>
-    <row r="376" spans="1:9">
+      <c r="J375" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K375" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11">
       <c r="A376" s="9" t="s">
         <v>19</v>
       </c>
@@ -12227,8 +14861,15 @@
         <v>2</v>
       </c>
       <c r="I376" s="4"/>
-    </row>
-    <row r="377" spans="1:9">
+      <c r="J376" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K376" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11">
       <c r="A377" s="9" t="s">
         <v>19</v>
       </c>
@@ -12251,8 +14892,15 @@
         <v>2</v>
       </c>
       <c r="I377" s="4"/>
-    </row>
-    <row r="378" spans="1:9">
+      <c r="J377" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K377" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11">
       <c r="A378" s="9" t="s">
         <v>19</v>
       </c>
@@ -12270,8 +14918,15 @@
         <v>3</v>
       </c>
       <c r="I378" s="4"/>
-    </row>
-    <row r="379" spans="1:9">
+      <c r="J378" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K378" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11">
       <c r="A379" s="9" t="s">
         <v>19</v>
       </c>
@@ -12289,8 +14944,15 @@
         <v>3</v>
       </c>
       <c r="I379" s="4"/>
-    </row>
-    <row r="380" spans="1:9">
+      <c r="J379" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K379" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11">
       <c r="A380" s="9" t="s">
         <v>19</v>
       </c>
@@ -12313,8 +14975,15 @@
         <v>4</v>
       </c>
       <c r="I380" s="4"/>
-    </row>
-    <row r="381" spans="1:9">
+      <c r="J380" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K380" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11">
       <c r="A381" s="9" t="s">
         <v>19</v>
       </c>
@@ -12337,8 +15006,15 @@
         <v>5</v>
       </c>
       <c r="I381" s="4"/>
-    </row>
-    <row r="382" spans="1:9">
+      <c r="J381" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K381" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11">
       <c r="A382" s="9" t="s">
         <v>19</v>
       </c>
@@ -12361,8 +15037,15 @@
         <v>5</v>
       </c>
       <c r="I382" s="4"/>
-    </row>
-    <row r="383" spans="1:9">
+      <c r="J382" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K382" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11">
       <c r="A383" s="9" t="s">
         <v>19</v>
       </c>
@@ -12385,8 +15068,15 @@
         <v>5</v>
       </c>
       <c r="I383" s="4"/>
-    </row>
-    <row r="384" spans="1:9">
+      <c r="J383" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K383" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11">
       <c r="A384" s="9" t="s">
         <v>19</v>
       </c>
@@ -12409,8 +15099,15 @@
         <v>7</v>
       </c>
       <c r="I384" s="4"/>
-    </row>
-    <row r="385" spans="1:9">
+      <c r="J384" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K384" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11">
       <c r="A385" s="9" t="s">
         <v>19</v>
       </c>
@@ -12436,8 +15133,15 @@
         <v>15</v>
       </c>
       <c r="I385" s="4"/>
-    </row>
-    <row r="386" spans="1:9">
+      <c r="J385" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="K385" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11">
       <c r="A386" t="s">
         <v>19</v>
       </c>
@@ -12463,8 +15167,15 @@
         <v>18</v>
       </c>
       <c r="I386" s="4"/>
-    </row>
-    <row r="387" spans="1:9">
+      <c r="J386" t="str">
+        <f t="shared" ref="J386:J438" si="6">IF(C386&gt;DATE(2020,3,21),"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="K386" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11">
       <c r="A387" t="s">
         <v>19</v>
       </c>
@@ -12492,8 +15203,15 @@
       <c r="I387">
         <v>18</v>
       </c>
-    </row>
-    <row r="388" spans="1:9">
+      <c r="J387" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K387" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11">
       <c r="A388" s="9" t="s">
         <v>19</v>
       </c>
@@ -12521,8 +15239,15 @@
       <c r="I388">
         <v>24</v>
       </c>
-    </row>
-    <row r="389" spans="1:9">
+      <c r="J388" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K388" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11">
       <c r="A389" s="9" t="s">
         <v>19</v>
       </c>
@@ -12550,8 +15275,15 @@
       <c r="I389">
         <v>43</v>
       </c>
-    </row>
-    <row r="390" spans="1:9">
+      <c r="J389" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K389" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11">
       <c r="A390" s="9" t="s">
         <v>19</v>
       </c>
@@ -12579,8 +15311,15 @@
       <c r="I390">
         <v>48</v>
       </c>
-    </row>
-    <row r="391" spans="1:9">
+      <c r="J390" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K390" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11">
       <c r="A391" s="9" t="s">
         <v>19</v>
       </c>
@@ -12608,8 +15347,15 @@
       <c r="I391">
         <v>62</v>
       </c>
-    </row>
-    <row r="392" spans="1:9">
+      <c r="J391" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K391" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11">
       <c r="A392" s="9" t="s">
         <v>19</v>
       </c>
@@ -12637,8 +15383,15 @@
       <c r="I392">
         <v>364</v>
       </c>
-    </row>
-    <row r="393" spans="1:9">
+      <c r="J392" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K392" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11">
       <c r="A393" t="s">
         <v>1</v>
       </c>
@@ -12661,8 +15414,15 @@
         <v>0</v>
       </c>
       <c r="I393" s="4"/>
-    </row>
-    <row r="394" spans="1:9">
+      <c r="J393" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K393" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11">
       <c r="A394" t="s">
         <v>1</v>
       </c>
@@ -12685,8 +15445,15 @@
         <v>0</v>
       </c>
       <c r="I394" s="4"/>
-    </row>
-    <row r="395" spans="1:9">
+      <c r="J394" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K394" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11">
       <c r="A395" t="s">
         <v>1</v>
       </c>
@@ -12709,8 +15476,15 @@
         <v>0</v>
       </c>
       <c r="I395" s="4"/>
-    </row>
-    <row r="396" spans="1:9">
+      <c r="J395" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K395" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11">
       <c r="A396" t="s">
         <v>1</v>
       </c>
@@ -12733,8 +15507,15 @@
         <v>0</v>
       </c>
       <c r="I396" s="4"/>
-    </row>
-    <row r="397" spans="1:9">
+      <c r="J396" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K396" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11">
       <c r="A397" t="s">
         <v>1</v>
       </c>
@@ -12757,8 +15538,15 @@
         <v>0</v>
       </c>
       <c r="I397" s="4"/>
-    </row>
-    <row r="398" spans="1:9">
+      <c r="J397" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K397" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11">
       <c r="A398" t="s">
         <v>1</v>
       </c>
@@ -12781,8 +15569,15 @@
         <v>0</v>
       </c>
       <c r="I398" s="4"/>
-    </row>
-    <row r="399" spans="1:9">
+      <c r="J398" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K398" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
       <c r="A399" t="s">
         <v>1</v>
       </c>
@@ -12805,8 +15600,15 @@
         <v>0</v>
       </c>
       <c r="I399" s="4"/>
-    </row>
-    <row r="400" spans="1:9">
+      <c r="J399" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K399" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11">
       <c r="A400" t="s">
         <v>1</v>
       </c>
@@ -12829,8 +15631,15 @@
         <v>0</v>
       </c>
       <c r="I400" s="4"/>
-    </row>
-    <row r="401" spans="1:9">
+      <c r="J400" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K400" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11">
       <c r="A401" t="s">
         <v>1</v>
       </c>
@@ -12848,8 +15657,15 @@
         <v>1</v>
       </c>
       <c r="I401" s="4"/>
-    </row>
-    <row r="402" spans="1:9">
+      <c r="J401" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K401" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11">
       <c r="A402" t="s">
         <v>1</v>
       </c>
@@ -12867,8 +15683,15 @@
         <v>0</v>
       </c>
       <c r="I402" s="4"/>
-    </row>
-    <row r="403" spans="1:9">
+      <c r="J402" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K402" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11">
       <c r="A403" t="s">
         <v>1</v>
       </c>
@@ -12891,8 +15714,15 @@
         <v>0</v>
       </c>
       <c r="I403" s="4"/>
-    </row>
-    <row r="404" spans="1:9">
+      <c r="J403" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K403" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11">
       <c r="A404" t="s">
         <v>1</v>
       </c>
@@ -12915,8 +15745,15 @@
         <v>0</v>
       </c>
       <c r="I404" s="4"/>
-    </row>
-    <row r="405" spans="1:9">
+      <c r="J404" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K404" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11">
       <c r="A405" t="s">
         <v>1</v>
       </c>
@@ -12939,8 +15776,15 @@
         <v>0</v>
       </c>
       <c r="I405" s="4"/>
-    </row>
-    <row r="406" spans="1:9">
+      <c r="J405" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K405" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11">
       <c r="A406" t="s">
         <v>1</v>
       </c>
@@ -12963,8 +15807,15 @@
         <v>0</v>
       </c>
       <c r="I406" s="4"/>
-    </row>
-    <row r="407" spans="1:9">
+      <c r="J406" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K406" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11">
       <c r="A407" t="s">
         <v>1</v>
       </c>
@@ -12986,8 +15837,15 @@
       <c r="H407" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:9">
+      <c r="J407" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K407" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11">
       <c r="A408" t="s">
         <v>1</v>
       </c>
@@ -13012,8 +15870,15 @@
       <c r="H408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:9">
+      <c r="J408" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K408" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11">
       <c r="A409" t="s">
         <v>1</v>
       </c>
@@ -13038,8 +15903,15 @@
       <c r="H409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:9">
+      <c r="J409" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K409" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11">
       <c r="A410" t="s">
         <v>1</v>
       </c>
@@ -13067,8 +15939,15 @@
       <c r="I410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:9">
+      <c r="J410" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K410" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11">
       <c r="A411" t="s">
         <v>1</v>
       </c>
@@ -13096,8 +15975,15 @@
       <c r="I411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:9">
+      <c r="J411" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K411" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11">
       <c r="A412" t="s">
         <v>1</v>
       </c>
@@ -13125,8 +16011,15 @@
       <c r="I412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:9">
+      <c r="J412" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K412" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11">
       <c r="A413" t="s">
         <v>1</v>
       </c>
@@ -13154,8 +16047,15 @@
       <c r="I413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:9">
+      <c r="J413" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K413" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11">
       <c r="A414" t="s">
         <v>1</v>
       </c>
@@ -13183,8 +16083,15 @@
       <c r="I414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:9">
+      <c r="J414" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K414" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11">
       <c r="A415" t="s">
         <v>1</v>
       </c>
@@ -13212,8 +16119,15 @@
       <c r="I415" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:9">
+      <c r="J415" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K415" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11">
       <c r="A416" s="2" t="s">
         <v>6</v>
       </c>
@@ -13235,8 +16149,15 @@
       <c r="H416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:8">
+      <c r="J416" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K416" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11">
       <c r="A417" s="2" t="s">
         <v>6</v>
       </c>
@@ -13258,8 +16179,15 @@
       <c r="H417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:8">
+      <c r="J417" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K417" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11">
       <c r="A418" s="2" t="s">
         <v>6</v>
       </c>
@@ -13281,8 +16209,15 @@
       <c r="H418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:8">
+      <c r="J418" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K418" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
       <c r="A419" s="2" t="s">
         <v>6</v>
       </c>
@@ -13304,8 +16239,15 @@
       <c r="H419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:8">
+      <c r="J419" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K419" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11">
       <c r="A420" s="2" t="s">
         <v>6</v>
       </c>
@@ -13327,8 +16269,15 @@
       <c r="H420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:8">
+      <c r="J420" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K420" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11">
       <c r="A421" s="2" t="s">
         <v>6</v>
       </c>
@@ -13350,8 +16299,15 @@
       <c r="H421" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:8">
+      <c r="J421" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K421" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11">
       <c r="A422" s="2" t="s">
         <v>6</v>
       </c>
@@ -13373,8 +16329,15 @@
       <c r="H422" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:8">
+      <c r="J422" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K422" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11">
       <c r="A423" s="2" t="s">
         <v>6</v>
       </c>
@@ -13396,8 +16359,15 @@
       <c r="H423" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:8">
+      <c r="J423" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K423" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11">
       <c r="A424" s="2" t="s">
         <v>6</v>
       </c>
@@ -13414,8 +16384,15 @@
       <c r="H424" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:8">
+      <c r="J424" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K424" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11">
       <c r="A425" s="2" t="s">
         <v>6</v>
       </c>
@@ -13432,8 +16409,15 @@
       <c r="H425" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:8">
+      <c r="J425" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K425" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11">
       <c r="A426" s="2" t="s">
         <v>6</v>
       </c>
@@ -13455,8 +16439,15 @@
       <c r="H426" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:8">
+      <c r="J426" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K426" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11">
       <c r="A427" s="2" t="s">
         <v>6</v>
       </c>
@@ -13478,8 +16469,15 @@
       <c r="H427" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:8">
+      <c r="J427" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K427" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11">
       <c r="A428" s="2" t="s">
         <v>6</v>
       </c>
@@ -13501,8 +16499,15 @@
       <c r="H428" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:8">
+      <c r="J428" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K428" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11">
       <c r="A429" s="2" t="s">
         <v>6</v>
       </c>
@@ -13524,8 +16529,15 @@
       <c r="H429" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:8">
+      <c r="J429" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K429" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11">
       <c r="A430" s="2" t="s">
         <v>6</v>
       </c>
@@ -13547,8 +16559,15 @@
       <c r="H430" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:8">
+      <c r="J430" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K430" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11">
       <c r="A431" s="2" t="s">
         <v>6</v>
       </c>
@@ -13573,8 +16592,15 @@
       <c r="H431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:8">
+      <c r="J431" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K431" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11">
       <c r="A432" t="s">
         <v>6</v>
       </c>
@@ -13599,8 +16625,15 @@
       <c r="H432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:9">
+      <c r="J432" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="K432" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11">
       <c r="A433" t="s">
         <v>6</v>
       </c>
@@ -13628,8 +16661,15 @@
       <c r="I433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:9">
+      <c r="J433" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K433" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11">
       <c r="A434" s="2" t="s">
         <v>6</v>
       </c>
@@ -13657,8 +16697,15 @@
       <c r="I434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:9">
+      <c r="J434" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K434" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11">
       <c r="A435" s="2" t="s">
         <v>6</v>
       </c>
@@ -13686,8 +16733,15 @@
       <c r="I435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:9">
+      <c r="J435" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K435" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11">
       <c r="A436" s="2" t="s">
         <v>6</v>
       </c>
@@ -13715,8 +16769,15 @@
       <c r="I436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:9">
+      <c r="J436" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K436" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11">
       <c r="A437" s="2" t="s">
         <v>6</v>
       </c>
@@ -13744,8 +16805,15 @@
       <c r="I437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:9">
+      <c r="J437" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K437" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11">
       <c r="A438" s="2" t="s">
         <v>6</v>
       </c>
@@ -13772,6 +16840,13 @@
       </c>
       <c r="I438" s="3">
         <v>0</v>
+      </c>
+      <c r="J438" t="str">
+        <f t="shared" si="6"/>
+        <v>Si</v>
+      </c>
+      <c r="K438" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -14835,7 +17910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508DEE02-24D9-3D4B-AF5F-61ECC054DBB8}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/data/Covid-19_data.xlsx
+++ b/data/Covid-19_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB733346-C0E6-9E42-968C-2F531968592E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9415E2F-ECAB-C44C-A5F1-3152BB13CFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{239DC1C1-CD2F-1E41-ACCC-2923A4E1825B}"/>
   </bookViews>
@@ -18,16 +18,16 @@
     <sheet name="Importador" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_Covid!$A$1:$I$343</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_Covid!$A$1:$I$476</definedName>
     <definedName name="tabula_Actualizacion_36_COVID_19" localSheetId="0">Data_Covid!$A$191:$H$209</definedName>
     <definedName name="tabula_Actualizacion_37_COVID_19" localSheetId="0">Data_Covid!$A$210:$H$228</definedName>
     <definedName name="tabula_Actualizacion_38_COVID_19" localSheetId="0">Data_Covid!$A$229:$G$247</definedName>
-    <definedName name="tabula_Actualizacion_39_COVID_19" localSheetId="0">Data_Covid!$A$248:$G$266</definedName>
-    <definedName name="tabula_Actualizacion_40_COVID_19" localSheetId="0">Data_Covid!$A$267:$H$285</definedName>
-    <definedName name="tabula_Actualizacion_51_COVID_19" localSheetId="0">Data_Covid!$A$286:$H$305</definedName>
+    <definedName name="tabula_Actualizacion_39_COVID_19" localSheetId="0">Data_Covid!$A$248:$G$248</definedName>
+    <definedName name="tabula_Actualizacion_40_COVID_19" localSheetId="0">Data_Covid!$A$249:$H$266</definedName>
+    <definedName name="tabula_Actualizacion_49_COVID_19" localSheetId="2">Importador!$M$25:$Q$43</definedName>
+    <definedName name="tabula_Actualizacion_51_COVID_19" localSheetId="0">Data_Covid!$A$267:$H$286</definedName>
     <definedName name="tabula_Actualizacion_54_COVID_19" localSheetId="2">Importador!$A$1:$I$21</definedName>
     <definedName name="tabula_Actualizacion_55_COVID_19" localSheetId="2">Importador!$A$25:$G$49</definedName>
-    <definedName name="tabula_Actualizacion_61_COVID_19" localSheetId="2">Importador!$L$23:$R$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,7 +101,18 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{71219151-F78B-BF43-B203-0C97CB7948C4}" name="tabula-Actualizacion_51_COVID-191" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+  <connection id="6" xr16:uid="{26ABD4B3-6A20-3648-AE5F-2AD58D291F17}" name="tabula-Actualizacion_49_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_49_COVID-19.csv" decimal="," thousands="." comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" xr16:uid="{71219151-F78B-BF43-B203-0C97CB7948C4}" name="tabula-Actualizacion_51_COVID-191" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_51_COVID-19.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -114,7 +125,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" xr16:uid="{D4CDB2D8-FB89-5F46-9B42-A119CD287A81}" name="tabula-Actualizacion_54_COVID-19" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+  <connection id="8" xr16:uid="{D4CDB2D8-FB89-5F46-9B42-A119CD287A81}" name="tabula-Actualizacion_54_COVID-19" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_54_COVID-19.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -127,23 +138,10 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" xr16:uid="{4F988ACB-876B-8B42-8D81-3A573859BE92}" name="tabula-Actualizacion_55_COVID-19" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+  <connection id="9" xr16:uid="{4F988ACB-876B-8B42-8D81-3A573859BE92}" name="tabula-Actualizacion_55_COVID-19" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_55_COVID-19.csv" decimal="," thousands="." comma="1">
       <textFields count="8">
         <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="9" xr16:uid="{CC71D802-208A-C043-A00F-FEDF7F8E8655}" name="tabula-Actualizacion_61_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_61_COVID-19.csv" decimal="," thousands="." tab="0" comma="1">
-      <textFields count="7">
         <textField/>
         <textField/>
         <textField/>
@@ -158,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="63">
   <si>
     <t>CCAA</t>
   </si>
@@ -337,9 +335,6 @@
     <t>Arag√≥n</t>
   </si>
   <si>
-    <t>Castilla La Mancha</t>
-  </si>
-  <si>
     <t>Castilla y Le√≥n</t>
   </si>
   <si>
@@ -356,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,6 +388,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -487,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -518,6 +527,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,8 +920,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>74162</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1159933" cy="0"/>
     <xdr:pic>
@@ -1636,8 +1648,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>74162</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1159933" cy="0"/>
     <xdr:pic>
@@ -2481,39 +2493,39 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_51_COVID-19" connectionId="6" xr16:uid="{7C33F37E-B5DB-FC43-B1F3-4C6616C92B19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_39_COVID-19" connectionId="4" xr16:uid="{8635814F-0D08-FC46-A729-F6EBAF32D7F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_40_COVID-19" connectionId="5" xr16:uid="{CC7EF425-5489-914D-8A92-0ACAE9CA3B3B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_51_COVID-19" connectionId="7" xr16:uid="{7C33F37E-B5DB-FC43-B1F3-4C6616C92B19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_36_COVID-19" connectionId="1" xr16:uid="{903EF60C-4201-D145-9FCB-F17FD78E1C76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_38_COVID-19" connectionId="3" xr16:uid="{95E03C17-AA2B-FD45-8B76-7C96A74FA4E5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_37_COVID-19" connectionId="2" xr16:uid="{5CFB9376-3EAD-CA4E-AB81-C1BCF8D4FA26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_39_COVID-19" connectionId="4" xr16:uid="{8635814F-0D08-FC46-A729-F6EBAF32D7F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_40_COVID-19" connectionId="5" xr16:uid="{CC7EF425-5489-914D-8A92-0ACAE9CA3B3B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_36_COVID-19" connectionId="1" xr16:uid="{903EF60C-4201-D145-9FCB-F17FD78E1C76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19" connectionId="9" xr16:uid="{5FF6A3BA-506D-DD42-BA20-C4C5829E3E10}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_49_COVID-19" connectionId="6" xr16:uid="{59BF418D-27F8-B240-8C7F-1C3E22902B97}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="7" xr16:uid="{3CB8AD48-40F5-D349-ACB3-ECA65A993340}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="8" xr16:uid="{3CB8AD48-40F5-D349-ACB3-ECA65A993340}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="8" xr16:uid="{02F6A1DC-5207-2947-942B-2AF76DEC0006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="9" xr16:uid="{02F6A1DC-5207-2947-942B-2AF76DEC0006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2816,8 +2828,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2862,7 +2874,7 @@
         <v>56</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3311,28 +3323,27 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="18">
         <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>43908</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="19">
         <v>1008</v>
       </c>
-      <c r="E15">
-        <v>11.84</v>
-      </c>
-      <c r="G15" s="9">
-        <v>37</v>
-      </c>
-      <c r="H15" s="9">
-        <v>42</v>
-      </c>
-      <c r="I15" s="13"/>
+      <c r="E15" s="19">
+        <v>12</v>
+      </c>
+      <c r="G15" s="18">
+        <v>25</v>
+      </c>
+      <c r="H15" s="19">
+        <v>23</v>
+      </c>
       <c r="J15" t="str">
         <f>IF(C15&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -3769,7 +3780,7 @@
         <v>Si</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" t="str">
         <f>IF(C26&gt;DATE(2020,3,15),IF(C26&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -3809,7 +3820,7 @@
         <v>Si</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" t="str">
         <f>IF(C27&gt;DATE(2020,3,15),IF(C27&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -4262,28 +4273,27 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="18">
         <v>2</v>
       </c>
       <c r="C41" s="3">
         <v>43908</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="19">
         <v>281</v>
       </c>
-      <c r="E41">
-        <v>21.22</v>
-      </c>
-      <c r="G41" s="9">
-        <v>54</v>
-      </c>
-      <c r="H41" s="9">
-        <v>29</v>
-      </c>
-      <c r="I41" s="3"/>
+      <c r="E41" s="19">
+        <v>21</v>
+      </c>
+      <c r="G41" s="18">
+        <v>14</v>
+      </c>
+      <c r="H41" s="18">
+        <v>15</v>
+      </c>
       <c r="J41" t="str">
         <f>IF(C41&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -4720,7 +4730,7 @@
         <v>Si</v>
       </c>
       <c r="K52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L52" t="str">
         <f>IF(C52&gt;DATE(2020,3,15),IF(C52&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -4760,7 +4770,7 @@
         <v>Si</v>
       </c>
       <c r="K53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L53" t="str">
         <f>IF(C53&gt;DATE(2020,3,15),IF(C53&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -5213,28 +5223,27 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="18">
         <v>3</v>
       </c>
       <c r="C67" s="3">
         <v>43908</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="19">
         <v>292</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="18">
         <v>28.06</v>
       </c>
-      <c r="G67" s="9">
-        <v>33</v>
-      </c>
-      <c r="H67" s="9">
-        <v>55</v>
-      </c>
-      <c r="I67" s="3"/>
+      <c r="G67" s="18">
+        <v>6</v>
+      </c>
+      <c r="H67" s="18">
+        <v>1</v>
+      </c>
       <c r="J67" t="str">
         <f>IF(C67&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -5671,7 +5680,7 @@
         <v>Si</v>
       </c>
       <c r="K78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L78" t="str">
         <f>IF(C78&gt;DATE(2020,3,15),IF(C78&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -5711,7 +5720,7 @@
         <v>Si</v>
       </c>
       <c r="K79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L79" t="str">
         <f>IF(C79&gt;DATE(2020,3,15),IF(C79&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -6164,28 +6173,27 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="18">
         <v>4</v>
       </c>
       <c r="C93" s="3">
         <v>43908</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="19">
         <v>169</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="18">
         <v>14.18</v>
       </c>
-      <c r="G93" s="9">
-        <v>25</v>
-      </c>
-      <c r="H93" s="9">
-        <v>23</v>
-      </c>
-      <c r="I93" s="3"/>
+      <c r="G93" s="18">
+        <v>7</v>
+      </c>
+      <c r="H93" s="18">
+        <v>2</v>
+      </c>
       <c r="J93" t="str">
         <f>IF(C93&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -6622,7 +6630,7 @@
         <v>Si</v>
       </c>
       <c r="K104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L104" t="str">
         <f>IF(C104&gt;DATE(2020,3,15),IF(C104&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -6662,7 +6670,7 @@
         <v>Si</v>
       </c>
       <c r="K105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L105" t="str">
         <f>IF(C105&gt;DATE(2020,3,15),IF(C105&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -7115,28 +7123,27 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="18">
         <v>5</v>
       </c>
       <c r="C119" s="3">
         <v>43908</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="19">
         <v>220</v>
       </c>
-      <c r="E119">
-        <v>9.84</v>
-      </c>
-      <c r="G119" s="9">
-        <v>14</v>
-      </c>
-      <c r="H119" s="9">
-        <v>15</v>
-      </c>
-      <c r="I119" s="3"/>
+      <c r="E119" s="19">
+        <v>10</v>
+      </c>
+      <c r="G119" s="19">
+        <v>23</v>
+      </c>
+      <c r="H119" s="18">
+        <v>3</v>
+      </c>
       <c r="J119" t="str">
         <f>IF(C119&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -7573,7 +7580,7 @@
         <v>Si</v>
       </c>
       <c r="K130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L130" t="str">
         <f>IF(C130&gt;DATE(2020,3,15),IF(C130&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -7613,7 +7620,7 @@
         <v>Si</v>
       </c>
       <c r="K131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L131" t="str">
         <f>IF(C131&gt;DATE(2020,3,15),IF(C131&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -8066,28 +8073,27 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="A145" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="18">
         <v>6</v>
       </c>
       <c r="C145" s="3">
         <v>43908</v>
       </c>
-      <c r="D145" s="9">
+      <c r="D145" s="19">
         <v>83</v>
       </c>
-      <c r="E145">
-        <v>12.56</v>
-      </c>
-      <c r="G145" s="9">
-        <v>6</v>
-      </c>
-      <c r="H145" s="9">
+      <c r="E145" s="19">
+        <v>13</v>
+      </c>
+      <c r="G145" s="19">
+        <v>4</v>
+      </c>
+      <c r="H145" s="18">
         <v>1</v>
       </c>
-      <c r="I145" s="3"/>
       <c r="J145" t="str">
         <f>IF(C145&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -8484,7 +8490,7 @@
         <v>Si</v>
       </c>
       <c r="K155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L155" t="str">
         <f>IF(C155&gt;DATE(2020,3,15),IF(C155&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -8524,7 +8530,7 @@
         <v>Si</v>
       </c>
       <c r="K156" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L156" t="str">
         <f>IF(C156&gt;DATE(2020,3,15),IF(C156&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -8564,7 +8570,7 @@
         <v>Si</v>
       </c>
       <c r="K157" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L157" t="str">
         <f>IF(C157&gt;DATE(2020,3,15),IF(C157&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -9017,28 +9023,27 @@
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="A171" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="18">
         <v>7</v>
       </c>
       <c r="C171" s="3">
         <v>43908</v>
       </c>
-      <c r="D171" s="9">
+      <c r="D171" s="18">
         <v>868</v>
       </c>
-      <c r="E171">
-        <v>35.72</v>
-      </c>
-      <c r="G171" s="9">
-        <v>23</v>
-      </c>
-      <c r="H171" s="9">
-        <v>3</v>
-      </c>
-      <c r="I171" s="3"/>
+      <c r="E171" s="19">
+        <v>36</v>
+      </c>
+      <c r="G171" s="18">
+        <v>54</v>
+      </c>
+      <c r="H171" s="19">
+        <v>29</v>
+      </c>
       <c r="J171" t="str">
         <f>IF(C171&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -9435,7 +9440,7 @@
         <v>Si</v>
       </c>
       <c r="K181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L181" t="str">
         <f>IF(C181&gt;DATE(2020,3,15),IF(C181&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -9475,7 +9480,7 @@
         <v>Si</v>
       </c>
       <c r="K182" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L182" t="str">
         <f>IF(C182&gt;DATE(2020,3,15),IF(C182&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -9515,7 +9520,7 @@
         <v>Si</v>
       </c>
       <c r="K183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L183" t="str">
         <f>IF(C183&gt;DATE(2020,3,15),IF(C183&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -9968,28 +9973,27 @@
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="A197" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="18">
         <v>8</v>
       </c>
       <c r="C197" s="3">
         <v>43908</v>
       </c>
-      <c r="D197" s="9">
+      <c r="D197" s="19">
         <v>801</v>
       </c>
-      <c r="E197">
-        <v>38.76</v>
-      </c>
-      <c r="G197" s="9">
-        <v>7</v>
-      </c>
-      <c r="H197" s="9">
-        <v>2</v>
-      </c>
-      <c r="I197" s="3"/>
+      <c r="E197" s="19">
+        <v>39</v>
+      </c>
+      <c r="G197" s="19">
+        <v>37</v>
+      </c>
+      <c r="H197" s="19">
+        <v>42</v>
+      </c>
       <c r="J197" t="str">
         <f>IF(C197&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -10386,7 +10390,7 @@
         <v>Si</v>
       </c>
       <c r="K207" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L207" t="str">
         <f>IF(C207&gt;DATE(2020,3,15),IF(C207&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -10426,7 +10430,7 @@
         <v>Si</v>
       </c>
       <c r="K208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L208" t="str">
         <f>IF(C208&gt;DATE(2020,3,15),IF(C208&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -10466,7 +10470,7 @@
         <v>Si</v>
       </c>
       <c r="K209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L209" t="str">
         <f>IF(C209&gt;DATE(2020,3,15),IF(C209&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -10920,28 +10924,27 @@
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+      <c r="A223" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="18">
         <v>9</v>
       </c>
       <c r="C223" s="3">
         <v>43908</v>
       </c>
-      <c r="D223" s="9">
+      <c r="D223" s="19">
         <v>2702</v>
       </c>
-      <c r="E223">
-        <v>34.89</v>
-      </c>
-      <c r="G223" s="9">
-        <v>4</v>
-      </c>
-      <c r="H223" s="9">
-        <v>1</v>
-      </c>
-      <c r="I223" s="3"/>
+      <c r="E223" s="19">
+        <v>35</v>
+      </c>
+      <c r="G223" s="19">
+        <v>33</v>
+      </c>
+      <c r="H223" s="19">
+        <v>55</v>
+      </c>
       <c r="J223" t="str">
         <f>IF(C223&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -11338,7 +11341,7 @@
         <v>Si</v>
       </c>
       <c r="K233" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L233" t="str">
         <f>IF(C233&gt;DATE(2020,3,15),IF(C233&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -11378,7 +11381,7 @@
         <v>Si</v>
       </c>
       <c r="K234" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L234" t="str">
         <f>IF(C234&gt;DATE(2020,3,15),IF(C234&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -11418,7 +11421,7 @@
         <v>Si</v>
       </c>
       <c r="K235" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L235" t="str">
         <f>IF(C235&gt;DATE(2020,3,15),IF(C235&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -11871,28 +11874,27 @@
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="18">
         <v>10</v>
       </c>
       <c r="C249" s="3">
         <v>43908</v>
       </c>
-      <c r="D249" s="9">
+      <c r="D249" s="19">
         <v>921</v>
       </c>
-      <c r="E249">
-        <v>18.03</v>
-      </c>
-      <c r="G249" s="9">
+      <c r="E249" s="19">
+        <v>18</v>
+      </c>
+      <c r="G249" s="19">
         <v>52</v>
       </c>
-      <c r="H249" s="9">
+      <c r="H249" s="19">
         <v>24</v>
       </c>
-      <c r="I249" s="3"/>
       <c r="J249" t="str">
         <f>IF(C249&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -12289,7 +12291,7 @@
         <v>Si</v>
       </c>
       <c r="K259" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L259" t="str">
         <f>IF(C259&gt;DATE(2020,3,15),IF(C259&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -12329,7 +12331,7 @@
         <v>Si</v>
       </c>
       <c r="K260" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L260" t="str">
         <f>IF(C260&gt;DATE(2020,3,15),IF(C260&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -12369,7 +12371,7 @@
         <v>Si</v>
       </c>
       <c r="K261" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L261" t="str">
         <f>IF(C261&gt;DATE(2020,3,15),IF(C261&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -12822,28 +12824,27 @@
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+      <c r="A275" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="18">
         <v>11</v>
       </c>
       <c r="C275" s="3">
         <v>43908</v>
       </c>
-      <c r="D275" s="9">
+      <c r="D275" s="19">
         <v>241</v>
       </c>
-      <c r="E275">
-        <v>22.01</v>
-      </c>
-      <c r="G275" s="9">
+      <c r="E275" s="19">
+        <v>22</v>
+      </c>
+      <c r="G275" s="19">
         <v>3</v>
       </c>
-      <c r="H275" s="9">
+      <c r="H275" s="19">
         <v>8</v>
       </c>
-      <c r="I275" s="3"/>
       <c r="J275" t="str">
         <f>IF(C275&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -13240,7 +13241,7 @@
         <v>Si</v>
       </c>
       <c r="K285" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L285" t="str">
         <f>IF(C285&gt;DATE(2020,3,15),IF(C285&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -13280,7 +13281,7 @@
         <v>Si</v>
       </c>
       <c r="K286" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L286" t="str">
         <f>IF(C286&gt;DATE(2020,3,15),IF(C286&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -13320,7 +13321,7 @@
         <v>Si</v>
       </c>
       <c r="K287" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L287" t="str">
         <f>IF(C287&gt;DATE(2020,3,15),IF(C287&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -13773,28 +13774,27 @@
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="18">
         <v>12</v>
       </c>
       <c r="C301" s="3">
         <v>43908</v>
       </c>
-      <c r="D301" s="9">
+      <c r="D301" s="18">
         <v>453</v>
       </c>
-      <c r="E301">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="G301" s="9">
+      <c r="E301" s="19">
+        <v>17</v>
+      </c>
+      <c r="G301" s="18">
         <v>15</v>
       </c>
-      <c r="H301" s="9">
+      <c r="H301" s="18">
         <v>4</v>
       </c>
-      <c r="I301" s="3"/>
       <c r="J301" t="str">
         <f>IF(C301&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -14191,7 +14191,7 @@
         <v>Si</v>
       </c>
       <c r="K311" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L311" t="str">
         <f>IF(C311&gt;DATE(2020,3,15),IF(C311&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -14231,7 +14231,7 @@
         <v>Si</v>
       </c>
       <c r="K312" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L312" t="str">
         <f>IF(C312&gt;DATE(2020,3,15),IF(C312&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -14271,7 +14271,7 @@
         <v>Si</v>
       </c>
       <c r="K313" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L313" t="str">
         <f>IF(C313&gt;DATE(2020,3,15),IF(C313&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -14724,28 +14724,27 @@
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
+      <c r="A327" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="18">
         <v>13</v>
       </c>
       <c r="C327" s="3">
         <v>43908</v>
       </c>
-      <c r="D327" s="9">
+      <c r="D327" s="19">
         <v>6777</v>
       </c>
-      <c r="E327">
-        <v>100.35</v>
-      </c>
-      <c r="G327" s="9">
+      <c r="E327" s="19">
+        <v>100</v>
+      </c>
+      <c r="G327" s="18">
         <v>590</v>
       </c>
-      <c r="H327" s="9">
+      <c r="H327" s="19">
         <v>498</v>
       </c>
-      <c r="I327" s="3"/>
       <c r="J327" t="str">
         <f>IF(C327&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -15142,7 +15141,7 @@
         <v>Si</v>
       </c>
       <c r="K337" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L337" t="str">
         <f>IF(C337&gt;DATE(2020,3,15),IF(C337&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -15182,7 +15181,7 @@
         <v>Si</v>
       </c>
       <c r="K338" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L338" t="str">
         <f>IF(C338&gt;DATE(2020,3,15),IF(C338&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -15222,7 +15221,7 @@
         <v>Si</v>
       </c>
       <c r="K339" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L339" t="str">
         <f>IF(C339&gt;DATE(2020,3,15),IF(C339&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -15675,28 +15674,27 @@
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
+      <c r="A353" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="18">
         <v>14</v>
       </c>
       <c r="C353" s="3">
         <v>43908</v>
       </c>
-      <c r="D353" s="9">
+      <c r="D353" s="19">
         <v>167</v>
       </c>
-      <c r="E353">
-        <v>11.18</v>
-      </c>
-      <c r="G353" s="9">
+      <c r="E353" s="19">
+        <v>11</v>
+      </c>
+      <c r="G353" s="19">
         <v>6</v>
       </c>
-      <c r="H353" s="9">
-        <v>0</v>
-      </c>
-      <c r="I353" s="3"/>
+      <c r="H353" s="18">
+        <v>0</v>
+      </c>
       <c r="J353" t="str">
         <f>IF(C353&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -16093,7 +16091,7 @@
         <v>Si</v>
       </c>
       <c r="K363" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L363" t="str">
         <f>IF(C363&gt;DATE(2020,3,15),IF(C363&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -16133,7 +16131,7 @@
         <v>Si</v>
       </c>
       <c r="K364" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L364" t="str">
         <f>IF(C364&gt;DATE(2020,3,15),IF(C364&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -16173,7 +16171,7 @@
         <v>Si</v>
       </c>
       <c r="K365" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L365" t="str">
         <f>IF(C365&gt;DATE(2020,3,15),IF(C365&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -16626,28 +16624,27 @@
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="18">
         <v>15</v>
       </c>
       <c r="C379" s="3">
         <v>43908</v>
       </c>
-      <c r="D379" s="9">
+      <c r="D379" s="19">
         <v>482</v>
       </c>
-      <c r="E379">
-        <v>73.22</v>
-      </c>
-      <c r="G379" s="9">
+      <c r="E379" s="19">
+        <v>73</v>
+      </c>
+      <c r="G379" s="18">
         <v>11</v>
       </c>
-      <c r="H379" s="9">
+      <c r="H379" s="18">
         <v>4</v>
       </c>
-      <c r="I379" s="3"/>
       <c r="J379" t="str">
         <f>IF(C379&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -17044,7 +17041,7 @@
         <v>Si</v>
       </c>
       <c r="K389" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L389" t="str">
         <f>IF(C389&gt;DATE(2020,3,15),IF(C389&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -17084,7 +17081,7 @@
         <v>Si</v>
       </c>
       <c r="K390" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L390" t="str">
         <f>IF(C390&gt;DATE(2020,3,15),IF(C390&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -17124,7 +17121,7 @@
         <v>Si</v>
       </c>
       <c r="K391" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L391" t="str">
         <f>IF(C391&gt;DATE(2020,3,15),IF(C391&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -17577,28 +17574,27 @@
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
+      <c r="A405" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="18">
         <v>16</v>
       </c>
       <c r="C405" s="3">
         <v>43908</v>
       </c>
-      <c r="D405" s="9">
+      <c r="D405" s="19">
         <v>1190</v>
       </c>
-      <c r="E405">
-        <v>53.13</v>
-      </c>
-      <c r="G405" s="9">
+      <c r="E405" s="19">
+        <v>53</v>
+      </c>
+      <c r="G405" s="18">
         <v>44</v>
       </c>
-      <c r="H405" s="9">
+      <c r="H405" s="19">
         <v>53</v>
       </c>
-      <c r="I405" s="3"/>
       <c r="J405" t="str">
         <f>IF(C405&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -17995,7 +17991,7 @@
         <v>Si</v>
       </c>
       <c r="K415" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L415" t="str">
         <f>IF(C415&gt;DATE(2020,3,15),IF(C415&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -18035,7 +18031,7 @@
         <v>Si</v>
       </c>
       <c r="K416" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L416" t="str">
         <f>IF(C416&gt;DATE(2020,3,15),IF(C416&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -18075,7 +18071,7 @@
         <v>Si</v>
       </c>
       <c r="K417" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L417" t="str">
         <f>IF(C417&gt;DATE(2020,3,15),IF(C417&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -18528,28 +18524,27 @@
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A431" s="8" t="s">
+      <c r="A431" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="18">
         <v>17</v>
       </c>
       <c r="C431" s="3">
         <v>43908</v>
       </c>
-      <c r="D431" s="9">
+      <c r="D431" s="18">
         <v>468</v>
       </c>
-      <c r="E431">
-        <v>144.26</v>
-      </c>
-      <c r="G431" s="9">
+      <c r="E431" s="18">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G431" s="18">
         <v>15</v>
       </c>
-      <c r="H431" s="9">
+      <c r="H431" s="18">
         <v>5</v>
       </c>
-      <c r="I431" s="3"/>
       <c r="J431" t="str">
         <f>IF(C431&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -18946,7 +18941,7 @@
         <v>Si</v>
       </c>
       <c r="K441" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L441" t="str">
         <f>IF(C441&gt;DATE(2020,3,15),IF(C441&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -18986,7 +18981,7 @@
         <v>Si</v>
       </c>
       <c r="K442" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L442" t="str">
         <f>IF(C442&gt;DATE(2020,3,15),IF(C442&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19026,7 +19021,7 @@
         <v>Si</v>
       </c>
       <c r="K443" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L443" t="str">
         <f>IF(C443&gt;DATE(2020,3,15),IF(C443&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19061,7 +19056,7 @@
         <v>No</v>
       </c>
       <c r="K444" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L444" t="str">
         <f>IF(C444&gt;DATE(2020,3,15),IF(C444&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19096,7 +19091,7 @@
         <v>No</v>
       </c>
       <c r="K445" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L445" t="str">
         <f>IF(C445&gt;DATE(2020,3,15),IF(C445&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19131,7 +19126,7 @@
         <v>No</v>
       </c>
       <c r="K446" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L446" t="str">
         <f>IF(C446&gt;DATE(2020,3,15),IF(C446&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19166,7 +19161,7 @@
         <v>No</v>
       </c>
       <c r="K447" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L447" t="str">
         <f>IF(C447&gt;DATE(2020,3,15),IF(C447&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19201,7 +19196,7 @@
         <v>No</v>
       </c>
       <c r="K448" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L448" t="str">
         <f>IF(C448&gt;DATE(2020,3,15),IF(C448&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19236,7 +19231,7 @@
         <v>No</v>
       </c>
       <c r="K449" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L449" t="str">
         <f>IF(C449&gt;DATE(2020,3,15),IF(C449&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19271,7 +19266,7 @@
         <v>No</v>
       </c>
       <c r="K450" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L450" t="str">
         <f>IF(C450&gt;DATE(2020,3,15),IF(C450&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19306,7 +19301,7 @@
         <v>No</v>
       </c>
       <c r="K451" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L451" t="str">
         <f>IF(C451&gt;DATE(2020,3,15),IF(C451&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19336,7 +19331,7 @@
         <v>No</v>
       </c>
       <c r="K452" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L452" t="str">
         <f>IF(C452&gt;DATE(2020,3,15),IF(C452&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19366,7 +19361,7 @@
         <v>No</v>
       </c>
       <c r="K453" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L453" t="str">
         <f>IF(C453&gt;DATE(2020,3,15),IF(C453&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19401,7 +19396,7 @@
         <v>No</v>
       </c>
       <c r="K454" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L454" t="str">
         <f>IF(C454&gt;DATE(2020,3,15),IF(C454&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19436,7 +19431,7 @@
         <v>No</v>
       </c>
       <c r="K455" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L455" t="str">
         <f>IF(C455&gt;DATE(2020,3,15),IF(C455&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19471,7 +19466,7 @@
         <v>No</v>
       </c>
       <c r="K456" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L456" t="str">
         <f>IF(C456&gt;DATE(2020,3,15),IF(C456&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19479,28 +19474,27 @@
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
+      <c r="A457" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="18">
         <v>18</v>
       </c>
       <c r="C457" s="3">
         <v>43908</v>
       </c>
-      <c r="D457" s="9">
+      <c r="D457" s="19">
         <v>1</v>
       </c>
-      <c r="E457">
+      <c r="E457" s="18">
         <v>1.18</v>
       </c>
-      <c r="G457" s="9">
-        <v>0</v>
-      </c>
-      <c r="H457" s="9">
-        <v>0</v>
-      </c>
-      <c r="I457" s="3"/>
+      <c r="G457" s="18">
+        <v>0</v>
+      </c>
+      <c r="H457" s="18">
+        <v>0</v>
+      </c>
       <c r="J457" t="str">
         <f>IF(C457&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -19540,7 +19534,7 @@
         <v>No</v>
       </c>
       <c r="K458" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L458" t="str">
         <f>IF(C458&gt;DATE(2020,3,15),IF(C458&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19577,7 +19571,7 @@
         <v>No</v>
       </c>
       <c r="K459" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L459" t="str">
         <f>IF(C459&gt;DATE(2020,3,15),IF(C459&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19614,7 +19608,7 @@
         <v>No</v>
       </c>
       <c r="K460" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L460" t="str">
         <f>IF(C460&gt;DATE(2020,3,15),IF(C460&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19654,7 +19648,7 @@
         <v>No</v>
       </c>
       <c r="K461" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L461" t="str">
         <f>IF(C461&gt;DATE(2020,3,15),IF(C461&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19694,7 +19688,7 @@
         <v>Si</v>
       </c>
       <c r="K462" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L462" t="str">
         <f>IF(C462&gt;DATE(2020,3,15),IF(C462&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19734,7 +19728,7 @@
         <v>Si</v>
       </c>
       <c r="K463" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L463" t="str">
         <f>IF(C463&gt;DATE(2020,3,15),IF(C463&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19774,7 +19768,7 @@
         <v>Si</v>
       </c>
       <c r="K464" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L464" t="str">
         <f>IF(C464&gt;DATE(2020,3,15),IF(C464&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19814,7 +19808,7 @@
         <v>Si</v>
       </c>
       <c r="K465" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L465" t="str">
         <f>IF(C465&gt;DATE(2020,3,15),IF(C465&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19854,7 +19848,7 @@
         <v>Si</v>
       </c>
       <c r="K466" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L466" t="str">
         <f>IF(C466&gt;DATE(2020,3,15),IF(C466&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20008,7 +20002,7 @@
         <v>No</v>
       </c>
       <c r="K470" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L470" t="str">
         <f>IF(C470&gt;DATE(2020,3,15),IF(C470&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20042,7 +20036,7 @@
         <v>No</v>
       </c>
       <c r="K471" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L471" t="str">
         <f>IF(C471&gt;DATE(2020,3,15),IF(C471&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20076,7 +20070,7 @@
         <v>No</v>
       </c>
       <c r="K472" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L472" t="str">
         <f>IF(C472&gt;DATE(2020,3,15),IF(C472&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20110,7 +20104,7 @@
         <v>No</v>
       </c>
       <c r="K473" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L473" t="str">
         <f>IF(C473&gt;DATE(2020,3,15),IF(C473&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20144,7 +20138,7 @@
         <v>No</v>
       </c>
       <c r="K474" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L474" t="str">
         <f>IF(C474&gt;DATE(2020,3,15),IF(C474&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20178,7 +20172,7 @@
         <v>No</v>
       </c>
       <c r="K475" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L475" t="str">
         <f>IF(C475&gt;DATE(2020,3,15),IF(C475&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20212,7 +20206,7 @@
         <v>No</v>
       </c>
       <c r="K476" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L476" t="str">
         <f>IF(C476&gt;DATE(2020,3,15),IF(C476&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20246,7 +20240,7 @@
         <v>No</v>
       </c>
       <c r="K477" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L477" t="str">
         <f>IF(C477&gt;DATE(2020,3,15),IF(C477&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20275,7 +20269,7 @@
         <v>No</v>
       </c>
       <c r="K478" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L478" t="str">
         <f>IF(C478&gt;DATE(2020,3,15),IF(C478&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20304,7 +20298,7 @@
         <v>No</v>
       </c>
       <c r="K479" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L479" t="str">
         <f>IF(C479&gt;DATE(2020,3,15),IF(C479&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20338,7 +20332,7 @@
         <v>No</v>
       </c>
       <c r="K480" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L480" t="str">
         <f>IF(C480&gt;DATE(2020,3,15),IF(C480&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20372,7 +20366,7 @@
         <v>No</v>
       </c>
       <c r="K481" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L481" t="str">
         <f>IF(C481&gt;DATE(2020,3,15),IF(C481&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20406,7 +20400,7 @@
         <v>No</v>
       </c>
       <c r="K482" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L482" t="str">
         <f>IF(C482&gt;DATE(2020,3,15),IF(C482&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20414,25 +20408,25 @@
       </c>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="18">
         <v>19</v>
       </c>
       <c r="C483" s="3">
         <v>43908</v>
       </c>
-      <c r="D483" s="9">
+      <c r="D483" s="19">
         <v>23</v>
       </c>
-      <c r="E483">
-        <v>26.59</v>
-      </c>
-      <c r="G483" s="9">
-        <v>0</v>
-      </c>
-      <c r="H483" s="9">
+      <c r="E483" s="19">
+        <v>27</v>
+      </c>
+      <c r="G483" s="18">
+        <v>0</v>
+      </c>
+      <c r="H483" s="18">
         <v>0</v>
       </c>
       <c r="J483" t="str">
@@ -20474,7 +20468,7 @@
         <v>No</v>
       </c>
       <c r="K484" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L484" t="str">
         <f>IF(C484&gt;DATE(2020,3,15),IF(C484&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20511,7 +20505,7 @@
         <v>No</v>
       </c>
       <c r="K485" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L485" t="str">
         <f>IF(C485&gt;DATE(2020,3,15),IF(C485&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20548,7 +20542,7 @@
         <v>No</v>
       </c>
       <c r="K486" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L486" t="str">
         <f>IF(C486&gt;DATE(2020,3,15),IF(C486&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20588,7 +20582,7 @@
         <v>No</v>
       </c>
       <c r="K487" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L487" t="str">
         <f>IF(C487&gt;DATE(2020,3,15),IF(C487&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20628,7 +20622,7 @@
         <v>Si</v>
       </c>
       <c r="K488" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L488" t="str">
         <f>IF(C488&gt;DATE(2020,3,15),IF(C488&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20668,7 +20662,7 @@
         <v>Si</v>
       </c>
       <c r="K489" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L489" t="str">
         <f>IF(C489&gt;DATE(2020,3,15),IF(C489&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20708,7 +20702,7 @@
         <v>Si</v>
       </c>
       <c r="K490" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L490" t="str">
         <f>IF(C490&gt;DATE(2020,3,15),IF(C490&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20748,7 +20742,7 @@
         <v>Si</v>
       </c>
       <c r="K491" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L491" t="str">
         <f>IF(C491&gt;DATE(2020,3,15),IF(C491&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20788,7 +20782,7 @@
         <v>Si</v>
       </c>
       <c r="K492" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L492" t="str">
         <f>IF(C492&gt;DATE(2020,3,15),IF(C492&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20916,10 +20910,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I343" xr:uid="{EEFE7D21-3722-C547-BC90-A911F1DEF0E0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I343">
-      <sortCondition ref="A2:A343"/>
-      <sortCondition ref="C2:C343"/>
+  <autoFilter ref="A1:I476" xr:uid="{EEFE7D21-3722-C547-BC90-A911F1DEF0E0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I476">
+      <sortCondition ref="C1:C476"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L495">
@@ -21977,7 +21970,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I20"/>
+      <selection activeCell="G2" sqref="A2:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21991,10 +21984,11 @@
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -22034,25 +22028,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D2" s="2">
-        <v>5818</v>
+        <v>1008</v>
       </c>
       <c r="E2" s="2">
-        <v>61.03</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2867</v>
+        <v>11.84</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
       </c>
       <c r="G2" s="2">
-        <v>235</v>
-      </c>
-      <c r="H2">
-        <v>248</v>
-      </c>
-      <c r="I2">
-        <v>160</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -22063,25 +22051,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D3" s="2">
-        <v>2272</v>
+        <v>281</v>
       </c>
       <c r="E3" s="2">
-        <v>156.52000000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1176</v>
-      </c>
-      <c r="G3" s="2">
-        <v>165</v>
-      </c>
-      <c r="H3">
-        <v>138</v>
-      </c>
-      <c r="I3">
-        <v>204</v>
+        <v>21.22</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -22092,26 +22074,21 @@
         <v>3</v>
       </c>
       <c r="C4" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D4" s="2">
-        <v>1236</v>
-      </c>
-      <c r="E4" s="2">
-        <v>101.97</v>
-      </c>
-      <c r="F4" s="2">
-        <v>529</v>
+        <v>292</v>
+      </c>
+      <c r="E4">
+        <v>28.06</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>65</v>
-      </c>
-      <c r="H4" s="2">
-        <v>55</v>
-      </c>
-      <c r="I4">
-        <v>90</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="M4" t="s">
         <v>52</v>
       </c>
@@ -22124,25 +22101,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D5" s="2">
-        <v>1069</v>
-      </c>
-      <c r="E5" s="2">
-        <v>85</v>
-      </c>
-      <c r="F5" s="2">
-        <v>399</v>
+        <v>169</v>
+      </c>
+      <c r="E5">
+        <v>14.18</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>85</v>
-      </c>
-      <c r="H5">
-        <v>42</v>
-      </c>
-      <c r="I5">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
         <v>50</v>
@@ -22156,25 +22127,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D6" s="2">
-        <v>1262</v>
+        <v>220</v>
       </c>
       <c r="E6" s="2">
-        <v>51.73</v>
-      </c>
-      <c r="F6">
-        <v>483</v>
+        <v>9.84</v>
+      </c>
+      <c r="F6" s="2">
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>94</v>
-      </c>
-      <c r="H6">
-        <v>55</v>
-      </c>
-      <c r="I6">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
         <v>49</v>
@@ -22188,25 +22153,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D7" s="2">
-        <v>1171</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2">
-        <v>191.54</v>
-      </c>
-      <c r="F7">
-        <v>522</v>
+        <v>12.56</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>37</v>
-      </c>
-      <c r="I7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
         <v>51</v>
@@ -22220,25 +22179,19 @@
         <v>8</v>
       </c>
       <c r="C8" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D8" s="2">
-        <v>6424</v>
+        <v>801</v>
       </c>
       <c r="E8" s="2">
-        <v>288.12</v>
+        <v>38.76</v>
       </c>
       <c r="F8" s="2">
-        <v>3225</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
-        <v>344</v>
-      </c>
-      <c r="H8">
-        <v>708</v>
-      </c>
-      <c r="I8">
-        <v>296</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -22249,26 +22202,21 @@
         <v>7</v>
       </c>
       <c r="C9" s="16">
-        <v>43920</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6211</v>
+        <v>43908</v>
+      </c>
+      <c r="D9">
+        <v>868</v>
       </c>
       <c r="E9" s="2">
-        <v>240.88</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2601</v>
+        <v>35.72</v>
+      </c>
+      <c r="F9">
+        <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>325</v>
-      </c>
-      <c r="H9">
-        <v>516</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1028</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -22278,26 +22226,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D10" s="2">
-        <v>18773</v>
+        <v>2702</v>
       </c>
       <c r="E10" s="2">
-        <v>226.43</v>
+        <v>34.89</v>
       </c>
       <c r="F10" s="2">
-        <v>12974</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2">
-        <v>1652</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1672</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4966</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -22308,26 +22252,21 @@
         <v>18</v>
       </c>
       <c r="C11" s="16">
-        <v>43920</v>
-      </c>
-      <c r="D11">
-        <v>34</v>
+        <v>43908</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>38.93</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
+        <v>1.18</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -22338,26 +22277,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D12" s="2">
-        <v>5508</v>
+        <v>921</v>
       </c>
       <c r="E12" s="2">
-        <v>99.27</v>
+        <v>18.03</v>
       </c>
       <c r="F12" s="2">
-        <v>2189</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2">
-        <v>356</v>
-      </c>
-      <c r="H12" s="2">
-        <v>339</v>
-      </c>
-      <c r="I12" s="2">
-        <v>200</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -22367,25 +22302,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D13" s="2">
-        <v>1628</v>
+        <v>241</v>
       </c>
       <c r="E13" s="2">
-        <v>138.15</v>
-      </c>
-      <c r="F13">
-        <v>371</v>
-      </c>
-      <c r="G13">
-        <v>51</v>
-      </c>
-      <c r="H13">
-        <v>133</v>
-      </c>
-      <c r="I13">
-        <v>91</v>
+        <v>22.01</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -22396,26 +22325,21 @@
         <v>12</v>
       </c>
       <c r="C14" s="16">
-        <v>43920</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4039</v>
+        <v>43908</v>
+      </c>
+      <c r="D14">
+        <v>453</v>
       </c>
       <c r="E14" s="2">
-        <v>138.80000000000001</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1250</v>
-      </c>
-      <c r="G14" s="2">
-        <v>149</v>
-      </c>
-      <c r="H14" s="2">
-        <v>84</v>
-      </c>
-      <c r="I14">
-        <v>187</v>
-      </c>
+        <v>16.739999999999998</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -22425,26 +22349,22 @@
         <v>13</v>
       </c>
       <c r="C15" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D15" s="2">
-        <v>27509</v>
+        <v>6777</v>
       </c>
       <c r="E15" s="2">
-        <v>339.74</v>
-      </c>
-      <c r="F15" s="2">
-        <v>15140</v>
+        <v>100.35</v>
+      </c>
+      <c r="F15">
+        <v>590</v>
       </c>
       <c r="G15" s="2">
-        <v>1514</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3603</v>
-      </c>
-      <c r="I15" s="2">
-        <v>9330</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -22455,24 +22375,18 @@
         <v>19</v>
       </c>
       <c r="C16" s="16">
-        <v>43920</v>
-      </c>
-      <c r="D16">
-        <v>54</v>
-      </c>
-      <c r="E16">
-        <v>42.78</v>
-      </c>
-      <c r="F16" s="2">
-        <v>27</v>
+        <v>43908</v>
+      </c>
+      <c r="D16" s="2">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2">
+        <v>26.59</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" s="2"/>
@@ -22485,26 +22399,22 @@
         <v>14</v>
       </c>
       <c r="C17" s="16">
-        <v>43920</v>
-      </c>
-      <c r="D17">
-        <v>974</v>
-      </c>
-      <c r="E17">
-        <v>58.71</v>
+        <v>43908</v>
+      </c>
+      <c r="D17" s="2">
+        <v>167</v>
+      </c>
+      <c r="E17" s="2">
+        <v>11.18</v>
       </c>
       <c r="F17" s="2">
-        <v>283</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>59</v>
-      </c>
-      <c r="H17" s="2">
-        <v>34</v>
-      </c>
-      <c r="I17" s="2">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -22514,25 +22424,19 @@
         <v>15</v>
       </c>
       <c r="C18" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D18" s="2">
-        <v>2305</v>
+        <v>482</v>
       </c>
       <c r="E18" s="2">
-        <v>304.49</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1035</v>
+        <v>73.22</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>99</v>
-      </c>
-      <c r="H18">
-        <v>113</v>
-      </c>
-      <c r="I18">
-        <v>192</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -22543,26 +22447,21 @@
         <v>16</v>
       </c>
       <c r="C19" s="16">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D19" s="2">
-        <v>6320</v>
+        <v>1190</v>
       </c>
       <c r="E19" s="2">
-        <v>251.61</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3594</v>
+        <v>53.13</v>
+      </c>
+      <c r="F19">
+        <v>44</v>
       </c>
       <c r="G19" s="2">
-        <v>307</v>
-      </c>
-      <c r="H19">
-        <v>325</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1796</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
@@ -22572,25 +22471,19 @@
         <v>17</v>
       </c>
       <c r="C20" s="16">
-        <v>43920</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1810</v>
-      </c>
-      <c r="E20" s="2">
-        <v>459.28</v>
-      </c>
-      <c r="F20" s="2">
-        <v>575</v>
+        <v>43908</v>
+      </c>
+      <c r="D20">
+        <v>468</v>
+      </c>
+      <c r="E20">
+        <v>144.26</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>51</v>
-      </c>
-      <c r="H20">
-        <v>85</v>
-      </c>
-      <c r="I20">
-        <v>496</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -22608,170 +22501,106 @@
       <c r="B23" s="1"/>
       <c r="E23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="L23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="2">
-        <v>5818</v>
-      </c>
-      <c r="N23" s="2">
-        <v>61.03</v>
-      </c>
-      <c r="O23" s="2">
-        <v>2867</v>
-      </c>
-      <c r="P23" s="2">
-        <v>235</v>
-      </c>
-      <c r="Q23">
-        <v>248</v>
-      </c>
-      <c r="R23">
-        <v>160</v>
-      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E24" s="2"/>
-      <c r="L24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M24" s="2">
-        <v>2272</v>
-      </c>
-      <c r="N24" s="2">
-        <v>156.52000000000001</v>
-      </c>
-      <c r="O24" s="2">
-        <v>1176</v>
-      </c>
-      <c r="P24" s="2">
-        <v>165</v>
-      </c>
-      <c r="Q24">
-        <v>138</v>
-      </c>
-      <c r="R24">
-        <v>204</v>
-      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1236</v>
+      <c r="M25" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="N25" s="2">
-        <v>101.97</v>
+        <v>1008</v>
       </c>
       <c r="O25" s="2">
-        <v>529</v>
+        <v>11.84</v>
       </c>
       <c r="P25">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="2">
-        <v>55</v>
-      </c>
-      <c r="R25">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E26" s="2"/>
-      <c r="L26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1069</v>
+      <c r="M26" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="N26" s="2">
-        <v>85</v>
+        <v>281</v>
       </c>
       <c r="O26" s="2">
-        <v>399</v>
+        <v>21.22</v>
       </c>
       <c r="P26">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="Q26">
-        <v>42</v>
-      </c>
-      <c r="R26">
-        <v>111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L27" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1262</v>
+      <c r="M27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="N27" s="2">
-        <v>51.73</v>
+        <v>292</v>
       </c>
       <c r="O27">
-        <v>483</v>
+        <v>28.06</v>
       </c>
       <c r="P27">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="Q27">
-        <v>55</v>
-      </c>
-      <c r="R27">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="L28" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1171</v>
+      <c r="M28" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="N28" s="2">
-        <v>191.54</v>
+        <v>169</v>
       </c>
       <c r="O28">
-        <v>522</v>
+        <v>14.18</v>
       </c>
       <c r="P28">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="Q28">
-        <v>37</v>
-      </c>
-      <c r="R28">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="L29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="2">
-        <v>6424</v>
+      <c r="M29" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="N29" s="2">
-        <v>288.12</v>
+        <v>220</v>
       </c>
       <c r="O29" s="2">
-        <v>3225</v>
+        <v>9.84</v>
       </c>
       <c r="P29" s="2">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="Q29">
-        <v>708</v>
-      </c>
-      <c r="R29">
-        <v>296</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -22782,27 +22611,22 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="2">
-        <v>6211</v>
+      <c r="M30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="N30" s="2">
-        <v>240.88</v>
+        <v>83</v>
       </c>
       <c r="O30" s="2">
-        <v>2601</v>
+        <v>12.56</v>
       </c>
       <c r="P30" s="2">
-        <v>325</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>516</v>
-      </c>
-      <c r="R30" s="2">
-        <v>1028</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
@@ -22811,106 +22635,84 @@
       <c r="H31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" t="s">
-        <v>61</v>
-      </c>
-      <c r="M31" s="2">
-        <v>18773</v>
+      <c r="M31" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="N31" s="2">
-        <v>226.43</v>
+        <v>801</v>
       </c>
       <c r="O31" s="2">
-        <v>12974</v>
+        <v>38.76</v>
       </c>
       <c r="P31" s="2">
-        <v>1652</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="2">
-        <v>1672</v>
-      </c>
-      <c r="R31" s="2">
-        <v>4966</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="L32" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>34</v>
+      <c r="M32" t="s">
+        <v>59</v>
       </c>
       <c r="N32">
-        <v>38.93</v>
+        <v>868</v>
       </c>
       <c r="O32" s="2">
-        <v>3</v>
+        <v>35.72</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="Q32" s="2">
-        <v>1</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="E33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="L33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="2">
-        <v>5508</v>
+      <c r="M33" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N33" s="2">
-        <v>99.27</v>
+        <v>2702</v>
       </c>
       <c r="O33" s="2">
-        <v>2189</v>
+        <v>34.89</v>
       </c>
       <c r="P33" s="2">
-        <v>356</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="2">
-        <v>339</v>
-      </c>
-      <c r="R33" s="2">
-        <v>200</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="R33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="L34" t="s">
-        <v>3</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1628</v>
+      <c r="M34" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="N34" s="2">
-        <v>138.15</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>371</v>
+        <v>1.18</v>
       </c>
       <c r="P34">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>133</v>
-      </c>
-      <c r="R34">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
@@ -22920,26 +22722,20 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="2">
-        <v>4039</v>
+      <c r="M35" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="N35" s="2">
-        <v>138.80000000000001</v>
+        <v>921</v>
       </c>
       <c r="O35" s="2">
-        <v>1250</v>
+        <v>18.03</v>
       </c>
       <c r="P35" s="2">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="Q35" s="2">
-        <v>84</v>
-      </c>
-      <c r="R35">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
@@ -22950,52 +22746,41 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M36" s="2">
-        <v>27509</v>
+      <c r="M36" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="N36" s="2">
-        <v>339.74</v>
+        <v>241</v>
       </c>
       <c r="O36" s="2">
-        <v>15140</v>
+        <v>22.01</v>
       </c>
       <c r="P36" s="2">
-        <v>1514</v>
+        <v>3</v>
       </c>
       <c r="Q36" s="2">
-        <v>3603</v>
-      </c>
-      <c r="R36" s="2">
-        <v>9330</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="L37" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37">
-        <v>54</v>
+      <c r="M37" t="s">
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>42.78</v>
+        <v>453</v>
       </c>
       <c r="O37" s="2">
-        <v>27</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="P37">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
@@ -23003,27 +22788,22 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="L38" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38">
-        <v>974</v>
-      </c>
-      <c r="N38">
-        <v>58.71</v>
+      <c r="M38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N38" s="2">
+        <v>6777</v>
       </c>
       <c r="O38" s="2">
-        <v>283</v>
+        <v>100.35</v>
       </c>
       <c r="P38">
-        <v>59</v>
+        <v>590</v>
       </c>
       <c r="Q38" s="2">
-        <v>34</v>
-      </c>
-      <c r="R38" s="2">
-        <v>20</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -23032,53 +22812,42 @@
       <c r="E39" s="2"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="L39" t="s">
-        <v>8</v>
-      </c>
-      <c r="M39" s="2">
-        <v>2305</v>
+      <c r="M39" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="N39" s="2">
-        <v>304.49</v>
+        <v>23</v>
       </c>
       <c r="O39" s="2">
-        <v>1035</v>
+        <v>26.59</v>
       </c>
       <c r="P39">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>113</v>
-      </c>
-      <c r="R39">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="E40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="L40" t="s">
-        <v>62</v>
-      </c>
-      <c r="M40" s="2">
-        <v>6320</v>
+      <c r="M40" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="N40" s="2">
-        <v>251.61</v>
+        <v>167</v>
       </c>
       <c r="O40" s="2">
-        <v>3594</v>
+        <v>11.18</v>
       </c>
       <c r="P40" s="2">
-        <v>307</v>
+        <v>6</v>
       </c>
       <c r="Q40">
-        <v>325</v>
-      </c>
-      <c r="R40" s="2">
-        <v>1796</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
@@ -23088,32 +22857,39 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" t="s">
-        <v>19</v>
-      </c>
-      <c r="M41" s="2">
-        <v>1810</v>
+      <c r="M41" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="N41" s="2">
-        <v>459.28</v>
+        <v>482</v>
       </c>
       <c r="O41" s="2">
-        <v>575</v>
+        <v>73.22</v>
       </c>
       <c r="P41">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q41">
-        <v>85</v>
-      </c>
-      <c r="R41">
-        <v>496</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="Q42" s="2"/>
+      <c r="M42" t="s">
+        <v>61</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1190</v>
+      </c>
+      <c r="O42" s="2">
+        <v>53.13</v>
+      </c>
+      <c r="P42">
+        <v>44</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
@@ -23121,6 +22897,21 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
+      <c r="M43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>468</v>
+      </c>
+      <c r="O43">
+        <v>144.26</v>
+      </c>
+      <c r="P43">
+        <v>15</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O44" s="2"/>

--- a/data/Covid-19_data.xlsx
+++ b/data/Covid-19_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9415E2F-ECAB-C44C-A5F1-3152BB13CFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB733346-C0E6-9E42-968C-2F531968592E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{239DC1C1-CD2F-1E41-ACCC-2923A4E1825B}"/>
   </bookViews>
@@ -18,16 +18,16 @@
     <sheet name="Importador" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_Covid!$A$1:$I$476</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_Covid!$A$1:$I$343</definedName>
     <definedName name="tabula_Actualizacion_36_COVID_19" localSheetId="0">Data_Covid!$A$191:$H$209</definedName>
     <definedName name="tabula_Actualizacion_37_COVID_19" localSheetId="0">Data_Covid!$A$210:$H$228</definedName>
     <definedName name="tabula_Actualizacion_38_COVID_19" localSheetId="0">Data_Covid!$A$229:$G$247</definedName>
-    <definedName name="tabula_Actualizacion_39_COVID_19" localSheetId="0">Data_Covid!$A$248:$G$248</definedName>
-    <definedName name="tabula_Actualizacion_40_COVID_19" localSheetId="0">Data_Covid!$A$249:$H$266</definedName>
-    <definedName name="tabula_Actualizacion_49_COVID_19" localSheetId="2">Importador!$M$25:$Q$43</definedName>
-    <definedName name="tabula_Actualizacion_51_COVID_19" localSheetId="0">Data_Covid!$A$267:$H$286</definedName>
+    <definedName name="tabula_Actualizacion_39_COVID_19" localSheetId="0">Data_Covid!$A$248:$G$266</definedName>
+    <definedName name="tabula_Actualizacion_40_COVID_19" localSheetId="0">Data_Covid!$A$267:$H$285</definedName>
+    <definedName name="tabula_Actualizacion_51_COVID_19" localSheetId="0">Data_Covid!$A$286:$H$305</definedName>
     <definedName name="tabula_Actualizacion_54_COVID_19" localSheetId="2">Importador!$A$1:$I$21</definedName>
     <definedName name="tabula_Actualizacion_55_COVID_19" localSheetId="2">Importador!$A$25:$G$49</definedName>
+    <definedName name="tabula_Actualizacion_61_COVID_19" localSheetId="2">Importador!$L$23:$R$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,18 +101,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{26ABD4B3-6A20-3648-AE5F-2AD58D291F17}" name="tabula-Actualizacion_49_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_49_COVID-19.csv" decimal="," thousands="." comma="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="7" xr16:uid="{71219151-F78B-BF43-B203-0C97CB7948C4}" name="tabula-Actualizacion_51_COVID-191" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+  <connection id="6" xr16:uid="{71219151-F78B-BF43-B203-0C97CB7948C4}" name="tabula-Actualizacion_51_COVID-191" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_51_COVID-19.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -125,7 +114,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" xr16:uid="{D4CDB2D8-FB89-5F46-9B42-A119CD287A81}" name="tabula-Actualizacion_54_COVID-19" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+  <connection id="7" xr16:uid="{D4CDB2D8-FB89-5F46-9B42-A119CD287A81}" name="tabula-Actualizacion_54_COVID-19" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_54_COVID-19.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -138,10 +127,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" xr16:uid="{4F988ACB-876B-8B42-8D81-3A573859BE92}" name="tabula-Actualizacion_55_COVID-19" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+  <connection id="8" xr16:uid="{4F988ACB-876B-8B42-8D81-3A573859BE92}" name="tabula-Actualizacion_55_COVID-19" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_55_COVID-19.csv" decimal="," thousands="." comma="1">
       <textFields count="8">
         <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" xr16:uid="{CC71D802-208A-C043-A00F-FEDF7F8E8655}" name="tabula-Actualizacion_61_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_61_COVID-19.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="7">
         <textField/>
         <textField/>
         <textField/>
@@ -156,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="64">
   <si>
     <t>CCAA</t>
   </si>
@@ -335,6 +337,9 @@
     <t>Arag√≥n</t>
   </si>
   <si>
+    <t>Castilla La Mancha</t>
+  </si>
+  <si>
     <t>Castilla y Le√≥n</t>
   </si>
   <si>
@@ -351,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,20 +393,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -496,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -527,9 +518,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,8 +908,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>74162</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1159933" cy="0"/>
     <xdr:pic>
@@ -1648,8 +1636,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>74162</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1159933" cy="0"/>
     <xdr:pic>
@@ -2493,39 +2481,39 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_51_COVID-19" connectionId="6" xr16:uid="{7C33F37E-B5DB-FC43-B1F3-4C6616C92B19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_38_COVID-19" connectionId="3" xr16:uid="{95E03C17-AA2B-FD45-8B76-7C96A74FA4E5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_37_COVID-19" connectionId="2" xr16:uid="{5CFB9376-3EAD-CA4E-AB81-C1BCF8D4FA26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_39_COVID-19" connectionId="4" xr16:uid="{8635814F-0D08-FC46-A729-F6EBAF32D7F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_40_COVID-19" connectionId="5" xr16:uid="{CC7EF425-5489-914D-8A92-0ACAE9CA3B3B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_51_COVID-19" connectionId="7" xr16:uid="{7C33F37E-B5DB-FC43-B1F3-4C6616C92B19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_36_COVID-19" connectionId="1" xr16:uid="{903EF60C-4201-D145-9FCB-F17FD78E1C76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_38_COVID-19" connectionId="3" xr16:uid="{95E03C17-AA2B-FD45-8B76-7C96A74FA4E5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_37_COVID-19" connectionId="2" xr16:uid="{5CFB9376-3EAD-CA4E-AB81-C1BCF8D4FA26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_49_COVID-19" connectionId="6" xr16:uid="{59BF418D-27F8-B240-8C7F-1C3E22902B97}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19" connectionId="9" xr16:uid="{5FF6A3BA-506D-DD42-BA20-C4C5829E3E10}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="8" xr16:uid="{3CB8AD48-40F5-D349-ACB3-ECA65A993340}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="7" xr16:uid="{3CB8AD48-40F5-D349-ACB3-ECA65A993340}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="9" xr16:uid="{02F6A1DC-5207-2947-942B-2AF76DEC0006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="8" xr16:uid="{02F6A1DC-5207-2947-942B-2AF76DEC0006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2828,8 +2816,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2874,7 +2862,7 @@
         <v>56</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3323,27 +3311,28 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>43908</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="9">
         <v>1008</v>
       </c>
-      <c r="E15" s="19">
-        <v>12</v>
-      </c>
-      <c r="G15" s="18">
-        <v>25</v>
-      </c>
-      <c r="H15" s="19">
-        <v>23</v>
-      </c>
+      <c r="E15">
+        <v>11.84</v>
+      </c>
+      <c r="G15" s="9">
+        <v>37</v>
+      </c>
+      <c r="H15" s="9">
+        <v>42</v>
+      </c>
+      <c r="I15" s="13"/>
       <c r="J15" t="str">
         <f>IF(C15&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -3780,7 +3769,7 @@
         <v>Si</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L26" t="str">
         <f>IF(C26&gt;DATE(2020,3,15),IF(C26&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -3820,7 +3809,7 @@
         <v>Si</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" t="str">
         <f>IF(C27&gt;DATE(2020,3,15),IF(C27&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -4273,27 +4262,28 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" s="3">
         <v>43908</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="9">
         <v>281</v>
       </c>
-      <c r="E41" s="19">
-        <v>21</v>
-      </c>
-      <c r="G41" s="18">
-        <v>14</v>
-      </c>
-      <c r="H41" s="18">
-        <v>15</v>
-      </c>
+      <c r="E41">
+        <v>21.22</v>
+      </c>
+      <c r="G41" s="9">
+        <v>54</v>
+      </c>
+      <c r="H41" s="9">
+        <v>29</v>
+      </c>
+      <c r="I41" s="3"/>
       <c r="J41" t="str">
         <f>IF(C41&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -4730,7 +4720,7 @@
         <v>Si</v>
       </c>
       <c r="K52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L52" t="str">
         <f>IF(C52&gt;DATE(2020,3,15),IF(C52&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -4770,7 +4760,7 @@
         <v>Si</v>
       </c>
       <c r="K53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L53" t="str">
         <f>IF(C53&gt;DATE(2020,3,15),IF(C53&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -5223,27 +5213,28 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="18" t="s">
+      <c r="A67" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" s="3">
         <v>43908</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="9">
         <v>292</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67">
         <v>28.06</v>
       </c>
-      <c r="G67" s="18">
-        <v>6</v>
-      </c>
-      <c r="H67" s="18">
-        <v>1</v>
-      </c>
+      <c r="G67" s="9">
+        <v>33</v>
+      </c>
+      <c r="H67" s="9">
+        <v>55</v>
+      </c>
+      <c r="I67" s="3"/>
       <c r="J67" t="str">
         <f>IF(C67&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -5680,7 +5671,7 @@
         <v>Si</v>
       </c>
       <c r="K78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L78" t="str">
         <f>IF(C78&gt;DATE(2020,3,15),IF(C78&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -5720,7 +5711,7 @@
         <v>Si</v>
       </c>
       <c r="K79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L79" t="str">
         <f>IF(C79&gt;DATE(2020,3,15),IF(C79&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -6173,27 +6164,28 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="18" t="s">
+      <c r="A93" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="18">
+      <c r="B93">
         <v>4</v>
       </c>
       <c r="C93" s="3">
         <v>43908</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="9">
         <v>169</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93">
         <v>14.18</v>
       </c>
-      <c r="G93" s="18">
-        <v>7</v>
-      </c>
-      <c r="H93" s="18">
-        <v>2</v>
-      </c>
+      <c r="G93" s="9">
+        <v>25</v>
+      </c>
+      <c r="H93" s="9">
+        <v>23</v>
+      </c>
+      <c r="I93" s="3"/>
       <c r="J93" t="str">
         <f>IF(C93&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -6630,7 +6622,7 @@
         <v>Si</v>
       </c>
       <c r="K104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L104" t="str">
         <f>IF(C104&gt;DATE(2020,3,15),IF(C104&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -6670,7 +6662,7 @@
         <v>Si</v>
       </c>
       <c r="K105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L105" t="str">
         <f>IF(C105&gt;DATE(2020,3,15),IF(C105&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -7123,27 +7115,28 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="18" t="s">
+      <c r="A119" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B119">
         <v>5</v>
       </c>
       <c r="C119" s="3">
         <v>43908</v>
       </c>
-      <c r="D119" s="19">
+      <c r="D119" s="9">
         <v>220</v>
       </c>
-      <c r="E119" s="19">
-        <v>10</v>
-      </c>
-      <c r="G119" s="19">
-        <v>23</v>
-      </c>
-      <c r="H119" s="18">
-        <v>3</v>
-      </c>
+      <c r="E119">
+        <v>9.84</v>
+      </c>
+      <c r="G119" s="9">
+        <v>14</v>
+      </c>
+      <c r="H119" s="9">
+        <v>15</v>
+      </c>
+      <c r="I119" s="3"/>
       <c r="J119" t="str">
         <f>IF(C119&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -7580,7 +7573,7 @@
         <v>Si</v>
       </c>
       <c r="K130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L130" t="str">
         <f>IF(C130&gt;DATE(2020,3,15),IF(C130&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -7620,7 +7613,7 @@
         <v>Si</v>
       </c>
       <c r="K131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L131" t="str">
         <f>IF(C131&gt;DATE(2020,3,15),IF(C131&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -8073,27 +8066,28 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="18" t="s">
+      <c r="A145" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="18">
+      <c r="B145">
         <v>6</v>
       </c>
       <c r="C145" s="3">
         <v>43908</v>
       </c>
-      <c r="D145" s="19">
+      <c r="D145" s="9">
         <v>83</v>
       </c>
-      <c r="E145" s="19">
-        <v>13</v>
-      </c>
-      <c r="G145" s="19">
-        <v>4</v>
-      </c>
-      <c r="H145" s="18">
+      <c r="E145">
+        <v>12.56</v>
+      </c>
+      <c r="G145" s="9">
+        <v>6</v>
+      </c>
+      <c r="H145" s="9">
         <v>1</v>
       </c>
+      <c r="I145" s="3"/>
       <c r="J145" t="str">
         <f>IF(C145&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -8490,7 +8484,7 @@
         <v>Si</v>
       </c>
       <c r="K155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L155" t="str">
         <f>IF(C155&gt;DATE(2020,3,15),IF(C155&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -8530,7 +8524,7 @@
         <v>Si</v>
       </c>
       <c r="K156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L156" t="str">
         <f>IF(C156&gt;DATE(2020,3,15),IF(C156&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -8570,7 +8564,7 @@
         <v>Si</v>
       </c>
       <c r="K157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L157" t="str">
         <f>IF(C157&gt;DATE(2020,3,15),IF(C157&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -9023,27 +9017,28 @@
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A171" s="18" t="s">
+      <c r="A171" t="s">
         <v>17</v>
       </c>
-      <c r="B171" s="18">
+      <c r="B171">
         <v>7</v>
       </c>
       <c r="C171" s="3">
         <v>43908</v>
       </c>
-      <c r="D171" s="18">
+      <c r="D171" s="9">
         <v>868</v>
       </c>
-      <c r="E171" s="19">
-        <v>36</v>
-      </c>
-      <c r="G171" s="18">
-        <v>54</v>
-      </c>
-      <c r="H171" s="19">
-        <v>29</v>
-      </c>
+      <c r="E171">
+        <v>35.72</v>
+      </c>
+      <c r="G171" s="9">
+        <v>23</v>
+      </c>
+      <c r="H171" s="9">
+        <v>3</v>
+      </c>
+      <c r="I171" s="3"/>
       <c r="J171" t="str">
         <f>IF(C171&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -9440,7 +9435,7 @@
         <v>Si</v>
       </c>
       <c r="K181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L181" t="str">
         <f>IF(C181&gt;DATE(2020,3,15),IF(C181&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -9480,7 +9475,7 @@
         <v>Si</v>
       </c>
       <c r="K182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L182" t="str">
         <f>IF(C182&gt;DATE(2020,3,15),IF(C182&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -9520,7 +9515,7 @@
         <v>Si</v>
       </c>
       <c r="K183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L183" t="str">
         <f>IF(C183&gt;DATE(2020,3,15),IF(C183&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -9973,27 +9968,28 @@
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A197" s="18" t="s">
+      <c r="A197" t="s">
         <v>16</v>
       </c>
-      <c r="B197" s="18">
+      <c r="B197">
         <v>8</v>
       </c>
       <c r="C197" s="3">
         <v>43908</v>
       </c>
-      <c r="D197" s="19">
+      <c r="D197" s="9">
         <v>801</v>
       </c>
-      <c r="E197" s="19">
-        <v>39</v>
-      </c>
-      <c r="G197" s="19">
-        <v>37</v>
-      </c>
-      <c r="H197" s="19">
-        <v>42</v>
-      </c>
+      <c r="E197">
+        <v>38.76</v>
+      </c>
+      <c r="G197" s="9">
+        <v>7</v>
+      </c>
+      <c r="H197" s="9">
+        <v>2</v>
+      </c>
+      <c r="I197" s="3"/>
       <c r="J197" t="str">
         <f>IF(C197&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -10390,7 +10386,7 @@
         <v>Si</v>
       </c>
       <c r="K207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L207" t="str">
         <f>IF(C207&gt;DATE(2020,3,15),IF(C207&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -10430,7 +10426,7 @@
         <v>Si</v>
       </c>
       <c r="K208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L208" t="str">
         <f>IF(C208&gt;DATE(2020,3,15),IF(C208&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -10470,7 +10466,7 @@
         <v>Si</v>
       </c>
       <c r="K209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L209" t="str">
         <f>IF(C209&gt;DATE(2020,3,15),IF(C209&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -10924,27 +10920,28 @@
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A223" s="18" t="s">
+      <c r="A223" t="s">
         <v>18</v>
       </c>
-      <c r="B223" s="18">
+      <c r="B223">
         <v>9</v>
       </c>
       <c r="C223" s="3">
         <v>43908</v>
       </c>
-      <c r="D223" s="19">
+      <c r="D223" s="9">
         <v>2702</v>
       </c>
-      <c r="E223" s="19">
-        <v>35</v>
-      </c>
-      <c r="G223" s="19">
-        <v>33</v>
-      </c>
-      <c r="H223" s="19">
-        <v>55</v>
-      </c>
+      <c r="E223">
+        <v>34.89</v>
+      </c>
+      <c r="G223" s="9">
+        <v>4</v>
+      </c>
+      <c r="H223" s="9">
+        <v>1</v>
+      </c>
+      <c r="I223" s="3"/>
       <c r="J223" t="str">
         <f>IF(C223&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -11341,7 +11338,7 @@
         <v>Si</v>
       </c>
       <c r="K233" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L233" t="str">
         <f>IF(C233&gt;DATE(2020,3,15),IF(C233&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -11381,7 +11378,7 @@
         <v>Si</v>
       </c>
       <c r="K234" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L234" t="str">
         <f>IF(C234&gt;DATE(2020,3,15),IF(C234&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -11421,7 +11418,7 @@
         <v>Si</v>
       </c>
       <c r="K235" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L235" t="str">
         <f>IF(C235&gt;DATE(2020,3,15),IF(C235&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -11874,27 +11871,28 @@
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A249" s="20" t="s">
+      <c r="A249" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B249" s="18">
+      <c r="B249">
         <v>10</v>
       </c>
       <c r="C249" s="3">
         <v>43908</v>
       </c>
-      <c r="D249" s="19">
+      <c r="D249" s="9">
         <v>921</v>
       </c>
-      <c r="E249" s="19">
-        <v>18</v>
-      </c>
-      <c r="G249" s="19">
+      <c r="E249">
+        <v>18.03</v>
+      </c>
+      <c r="G249" s="9">
         <v>52</v>
       </c>
-      <c r="H249" s="19">
+      <c r="H249" s="9">
         <v>24</v>
       </c>
+      <c r="I249" s="3"/>
       <c r="J249" t="str">
         <f>IF(C249&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -12291,7 +12289,7 @@
         <v>Si</v>
       </c>
       <c r="K259" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L259" t="str">
         <f>IF(C259&gt;DATE(2020,3,15),IF(C259&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -12331,7 +12329,7 @@
         <v>Si</v>
       </c>
       <c r="K260" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L260" t="str">
         <f>IF(C260&gt;DATE(2020,3,15),IF(C260&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -12371,7 +12369,7 @@
         <v>Si</v>
       </c>
       <c r="K261" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L261" t="str">
         <f>IF(C261&gt;DATE(2020,3,15),IF(C261&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -12824,27 +12822,28 @@
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A275" s="18" t="s">
+      <c r="A275" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="18">
+      <c r="B275">
         <v>11</v>
       </c>
       <c r="C275" s="3">
         <v>43908</v>
       </c>
-      <c r="D275" s="19">
+      <c r="D275" s="9">
         <v>241</v>
       </c>
-      <c r="E275" s="19">
-        <v>22</v>
-      </c>
-      <c r="G275" s="19">
+      <c r="E275">
+        <v>22.01</v>
+      </c>
+      <c r="G275" s="9">
         <v>3</v>
       </c>
-      <c r="H275" s="19">
+      <c r="H275" s="9">
         <v>8</v>
       </c>
+      <c r="I275" s="3"/>
       <c r="J275" t="str">
         <f>IF(C275&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -13241,7 +13240,7 @@
         <v>Si</v>
       </c>
       <c r="K285" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L285" t="str">
         <f>IF(C285&gt;DATE(2020,3,15),IF(C285&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -13281,7 +13280,7 @@
         <v>Si</v>
       </c>
       <c r="K286" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L286" t="str">
         <f>IF(C286&gt;DATE(2020,3,15),IF(C286&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -13321,7 +13320,7 @@
         <v>Si</v>
       </c>
       <c r="K287" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L287" t="str">
         <f>IF(C287&gt;DATE(2020,3,15),IF(C287&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -13774,27 +13773,28 @@
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A301" s="20" t="s">
+      <c r="A301" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B301" s="18">
+      <c r="B301">
         <v>12</v>
       </c>
       <c r="C301" s="3">
         <v>43908</v>
       </c>
-      <c r="D301" s="18">
+      <c r="D301" s="9">
         <v>453</v>
       </c>
-      <c r="E301" s="19">
-        <v>17</v>
-      </c>
-      <c r="G301" s="18">
+      <c r="E301">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="G301" s="9">
         <v>15</v>
       </c>
-      <c r="H301" s="18">
+      <c r="H301" s="9">
         <v>4</v>
       </c>
+      <c r="I301" s="3"/>
       <c r="J301" t="str">
         <f>IF(C301&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -14191,7 +14191,7 @@
         <v>Si</v>
       </c>
       <c r="K311" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L311" t="str">
         <f>IF(C311&gt;DATE(2020,3,15),IF(C311&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -14231,7 +14231,7 @@
         <v>Si</v>
       </c>
       <c r="K312" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L312" t="str">
         <f>IF(C312&gt;DATE(2020,3,15),IF(C312&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -14271,7 +14271,7 @@
         <v>Si</v>
       </c>
       <c r="K313" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L313" t="str">
         <f>IF(C313&gt;DATE(2020,3,15),IF(C313&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -14724,27 +14724,28 @@
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A327" s="18" t="s">
+      <c r="A327" t="s">
         <v>5</v>
       </c>
-      <c r="B327" s="18">
+      <c r="B327">
         <v>13</v>
       </c>
       <c r="C327" s="3">
         <v>43908</v>
       </c>
-      <c r="D327" s="19">
+      <c r="D327" s="9">
         <v>6777</v>
       </c>
-      <c r="E327" s="19">
-        <v>100</v>
-      </c>
-      <c r="G327" s="18">
+      <c r="E327">
+        <v>100.35</v>
+      </c>
+      <c r="G327" s="9">
         <v>590</v>
       </c>
-      <c r="H327" s="19">
+      <c r="H327" s="9">
         <v>498</v>
       </c>
+      <c r="I327" s="3"/>
       <c r="J327" t="str">
         <f>IF(C327&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -15141,7 +15142,7 @@
         <v>Si</v>
       </c>
       <c r="K337" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L337" t="str">
         <f>IF(C337&gt;DATE(2020,3,15),IF(C337&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -15181,7 +15182,7 @@
         <v>Si</v>
       </c>
       <c r="K338" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L338" t="str">
         <f>IF(C338&gt;DATE(2020,3,15),IF(C338&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -15221,7 +15222,7 @@
         <v>Si</v>
       </c>
       <c r="K339" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L339" t="str">
         <f>IF(C339&gt;DATE(2020,3,15),IF(C339&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -15674,27 +15675,28 @@
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A353" s="18" t="s">
+      <c r="A353" t="s">
         <v>7</v>
       </c>
-      <c r="B353" s="18">
+      <c r="B353">
         <v>14</v>
       </c>
       <c r="C353" s="3">
         <v>43908</v>
       </c>
-      <c r="D353" s="19">
+      <c r="D353" s="9">
         <v>167</v>
       </c>
-      <c r="E353" s="19">
-        <v>11</v>
-      </c>
-      <c r="G353" s="19">
+      <c r="E353">
+        <v>11.18</v>
+      </c>
+      <c r="G353" s="9">
         <v>6</v>
       </c>
-      <c r="H353" s="18">
-        <v>0</v>
-      </c>
+      <c r="H353" s="9">
+        <v>0</v>
+      </c>
+      <c r="I353" s="3"/>
       <c r="J353" t="str">
         <f>IF(C353&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -16091,7 +16093,7 @@
         <v>Si</v>
       </c>
       <c r="K363" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L363" t="str">
         <f>IF(C363&gt;DATE(2020,3,15),IF(C363&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -16131,7 +16133,7 @@
         <v>Si</v>
       </c>
       <c r="K364" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L364" t="str">
         <f>IF(C364&gt;DATE(2020,3,15),IF(C364&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -16171,7 +16173,7 @@
         <v>Si</v>
       </c>
       <c r="K365" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L365" t="str">
         <f>IF(C365&gt;DATE(2020,3,15),IF(C365&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -16624,27 +16626,28 @@
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A379" s="20" t="s">
+      <c r="A379" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B379" s="18">
+      <c r="B379">
         <v>15</v>
       </c>
       <c r="C379" s="3">
         <v>43908</v>
       </c>
-      <c r="D379" s="19">
+      <c r="D379" s="9">
         <v>482</v>
       </c>
-      <c r="E379" s="19">
-        <v>73</v>
-      </c>
-      <c r="G379" s="18">
+      <c r="E379">
+        <v>73.22</v>
+      </c>
+      <c r="G379" s="9">
         <v>11</v>
       </c>
-      <c r="H379" s="18">
+      <c r="H379" s="9">
         <v>4</v>
       </c>
+      <c r="I379" s="3"/>
       <c r="J379" t="str">
         <f>IF(C379&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -17041,7 +17044,7 @@
         <v>Si</v>
       </c>
       <c r="K389" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L389" t="str">
         <f>IF(C389&gt;DATE(2020,3,15),IF(C389&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -17081,7 +17084,7 @@
         <v>Si</v>
       </c>
       <c r="K390" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L390" t="str">
         <f>IF(C390&gt;DATE(2020,3,15),IF(C390&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -17121,7 +17124,7 @@
         <v>Si</v>
       </c>
       <c r="K391" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L391" t="str">
         <f>IF(C391&gt;DATE(2020,3,15),IF(C391&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -17574,27 +17577,28 @@
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A405" s="18" t="s">
+      <c r="A405" t="s">
         <v>9</v>
       </c>
-      <c r="B405" s="18">
+      <c r="B405">
         <v>16</v>
       </c>
       <c r="C405" s="3">
         <v>43908</v>
       </c>
-      <c r="D405" s="19">
+      <c r="D405" s="9">
         <v>1190</v>
       </c>
-      <c r="E405" s="19">
+      <c r="E405">
+        <v>53.13</v>
+      </c>
+      <c r="G405" s="9">
+        <v>44</v>
+      </c>
+      <c r="H405" s="9">
         <v>53</v>
       </c>
-      <c r="G405" s="18">
-        <v>44</v>
-      </c>
-      <c r="H405" s="19">
-        <v>53</v>
-      </c>
+      <c r="I405" s="3"/>
       <c r="J405" t="str">
         <f>IF(C405&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -17991,7 +17995,7 @@
         <v>Si</v>
       </c>
       <c r="K415" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L415" t="str">
         <f>IF(C415&gt;DATE(2020,3,15),IF(C415&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -18031,7 +18035,7 @@
         <v>Si</v>
       </c>
       <c r="K416" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L416" t="str">
         <f>IF(C416&gt;DATE(2020,3,15),IF(C416&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -18071,7 +18075,7 @@
         <v>Si</v>
       </c>
       <c r="K417" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L417" t="str">
         <f>IF(C417&gt;DATE(2020,3,15),IF(C417&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -18524,27 +18528,28 @@
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A431" s="18" t="s">
+      <c r="A431" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B431" s="18">
+      <c r="B431">
         <v>17</v>
       </c>
       <c r="C431" s="3">
         <v>43908</v>
       </c>
-      <c r="D431" s="18">
+      <c r="D431" s="9">
         <v>468</v>
       </c>
-      <c r="E431" s="18">
-        <v>144.30000000000001</v>
-      </c>
-      <c r="G431" s="18">
+      <c r="E431">
+        <v>144.26</v>
+      </c>
+      <c r="G431" s="9">
         <v>15</v>
       </c>
-      <c r="H431" s="18">
+      <c r="H431" s="9">
         <v>5</v>
       </c>
+      <c r="I431" s="3"/>
       <c r="J431" t="str">
         <f>IF(C431&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -18941,7 +18946,7 @@
         <v>Si</v>
       </c>
       <c r="K441" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L441" t="str">
         <f>IF(C441&gt;DATE(2020,3,15),IF(C441&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -18981,7 +18986,7 @@
         <v>Si</v>
       </c>
       <c r="K442" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L442" t="str">
         <f>IF(C442&gt;DATE(2020,3,15),IF(C442&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19021,7 +19026,7 @@
         <v>Si</v>
       </c>
       <c r="K443" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L443" t="str">
         <f>IF(C443&gt;DATE(2020,3,15),IF(C443&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19056,7 +19061,7 @@
         <v>No</v>
       </c>
       <c r="K444" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L444" t="str">
         <f>IF(C444&gt;DATE(2020,3,15),IF(C444&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19091,7 +19096,7 @@
         <v>No</v>
       </c>
       <c r="K445" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L445" t="str">
         <f>IF(C445&gt;DATE(2020,3,15),IF(C445&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19126,7 +19131,7 @@
         <v>No</v>
       </c>
       <c r="K446" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L446" t="str">
         <f>IF(C446&gt;DATE(2020,3,15),IF(C446&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19161,7 +19166,7 @@
         <v>No</v>
       </c>
       <c r="K447" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L447" t="str">
         <f>IF(C447&gt;DATE(2020,3,15),IF(C447&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19196,7 +19201,7 @@
         <v>No</v>
       </c>
       <c r="K448" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L448" t="str">
         <f>IF(C448&gt;DATE(2020,3,15),IF(C448&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19231,7 +19236,7 @@
         <v>No</v>
       </c>
       <c r="K449" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L449" t="str">
         <f>IF(C449&gt;DATE(2020,3,15),IF(C449&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19266,7 +19271,7 @@
         <v>No</v>
       </c>
       <c r="K450" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L450" t="str">
         <f>IF(C450&gt;DATE(2020,3,15),IF(C450&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19301,7 +19306,7 @@
         <v>No</v>
       </c>
       <c r="K451" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L451" t="str">
         <f>IF(C451&gt;DATE(2020,3,15),IF(C451&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19331,7 +19336,7 @@
         <v>No</v>
       </c>
       <c r="K452" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L452" t="str">
         <f>IF(C452&gt;DATE(2020,3,15),IF(C452&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19361,7 +19366,7 @@
         <v>No</v>
       </c>
       <c r="K453" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L453" t="str">
         <f>IF(C453&gt;DATE(2020,3,15),IF(C453&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19396,7 +19401,7 @@
         <v>No</v>
       </c>
       <c r="K454" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L454" t="str">
         <f>IF(C454&gt;DATE(2020,3,15),IF(C454&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19431,7 +19436,7 @@
         <v>No</v>
       </c>
       <c r="K455" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L455" t="str">
         <f>IF(C455&gt;DATE(2020,3,15),IF(C455&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19466,7 +19471,7 @@
         <v>No</v>
       </c>
       <c r="K456" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L456" t="str">
         <f>IF(C456&gt;DATE(2020,3,15),IF(C456&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19474,27 +19479,28 @@
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A457" s="18" t="s">
+      <c r="A457" t="s">
         <v>1</v>
       </c>
-      <c r="B457" s="18">
+      <c r="B457">
         <v>18</v>
       </c>
       <c r="C457" s="3">
         <v>43908</v>
       </c>
-      <c r="D457" s="19">
+      <c r="D457" s="9">
         <v>1</v>
       </c>
-      <c r="E457" s="18">
+      <c r="E457">
         <v>1.18</v>
       </c>
-      <c r="G457" s="18">
-        <v>0</v>
-      </c>
-      <c r="H457" s="18">
-        <v>0</v>
-      </c>
+      <c r="G457" s="9">
+        <v>0</v>
+      </c>
+      <c r="H457" s="9">
+        <v>0</v>
+      </c>
+      <c r="I457" s="3"/>
       <c r="J457" t="str">
         <f>IF(C457&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
@@ -19534,7 +19540,7 @@
         <v>No</v>
       </c>
       <c r="K458" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L458" t="str">
         <f>IF(C458&gt;DATE(2020,3,15),IF(C458&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19571,7 +19577,7 @@
         <v>No</v>
       </c>
       <c r="K459" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L459" t="str">
         <f>IF(C459&gt;DATE(2020,3,15),IF(C459&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19608,7 +19614,7 @@
         <v>No</v>
       </c>
       <c r="K460" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L460" t="str">
         <f>IF(C460&gt;DATE(2020,3,15),IF(C460&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19648,7 +19654,7 @@
         <v>No</v>
       </c>
       <c r="K461" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L461" t="str">
         <f>IF(C461&gt;DATE(2020,3,15),IF(C461&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19688,7 +19694,7 @@
         <v>Si</v>
       </c>
       <c r="K462" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L462" t="str">
         <f>IF(C462&gt;DATE(2020,3,15),IF(C462&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19728,7 +19734,7 @@
         <v>Si</v>
       </c>
       <c r="K463" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L463" t="str">
         <f>IF(C463&gt;DATE(2020,3,15),IF(C463&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19768,7 +19774,7 @@
         <v>Si</v>
       </c>
       <c r="K464" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L464" t="str">
         <f>IF(C464&gt;DATE(2020,3,15),IF(C464&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19808,7 +19814,7 @@
         <v>Si</v>
       </c>
       <c r="K465" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L465" t="str">
         <f>IF(C465&gt;DATE(2020,3,15),IF(C465&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -19848,7 +19854,7 @@
         <v>Si</v>
       </c>
       <c r="K466" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L466" t="str">
         <f>IF(C466&gt;DATE(2020,3,15),IF(C466&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20002,7 +20008,7 @@
         <v>No</v>
       </c>
       <c r="K470" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L470" t="str">
         <f>IF(C470&gt;DATE(2020,3,15),IF(C470&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20036,7 +20042,7 @@
         <v>No</v>
       </c>
       <c r="K471" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L471" t="str">
         <f>IF(C471&gt;DATE(2020,3,15),IF(C471&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20070,7 +20076,7 @@
         <v>No</v>
       </c>
       <c r="K472" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L472" t="str">
         <f>IF(C472&gt;DATE(2020,3,15),IF(C472&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20104,7 +20110,7 @@
         <v>No</v>
       </c>
       <c r="K473" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L473" t="str">
         <f>IF(C473&gt;DATE(2020,3,15),IF(C473&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20138,7 +20144,7 @@
         <v>No</v>
       </c>
       <c r="K474" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L474" t="str">
         <f>IF(C474&gt;DATE(2020,3,15),IF(C474&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20172,7 +20178,7 @@
         <v>No</v>
       </c>
       <c r="K475" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L475" t="str">
         <f>IF(C475&gt;DATE(2020,3,15),IF(C475&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20206,7 +20212,7 @@
         <v>No</v>
       </c>
       <c r="K476" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L476" t="str">
         <f>IF(C476&gt;DATE(2020,3,15),IF(C476&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20240,7 +20246,7 @@
         <v>No</v>
       </c>
       <c r="K477" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L477" t="str">
         <f>IF(C477&gt;DATE(2020,3,15),IF(C477&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20269,7 +20275,7 @@
         <v>No</v>
       </c>
       <c r="K478" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L478" t="str">
         <f>IF(C478&gt;DATE(2020,3,15),IF(C478&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20298,7 +20304,7 @@
         <v>No</v>
       </c>
       <c r="K479" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L479" t="str">
         <f>IF(C479&gt;DATE(2020,3,15),IF(C479&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20332,7 +20338,7 @@
         <v>No</v>
       </c>
       <c r="K480" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L480" t="str">
         <f>IF(C480&gt;DATE(2020,3,15),IF(C480&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20366,7 +20372,7 @@
         <v>No</v>
       </c>
       <c r="K481" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L481" t="str">
         <f>IF(C481&gt;DATE(2020,3,15),IF(C481&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20400,7 +20406,7 @@
         <v>No</v>
       </c>
       <c r="K482" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L482" t="str">
         <f>IF(C482&gt;DATE(2020,3,15),IF(C482&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20408,25 +20414,25 @@
       </c>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A483" s="20" t="s">
+      <c r="A483" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B483" s="18">
+      <c r="B483">
         <v>19</v>
       </c>
       <c r="C483" s="3">
         <v>43908</v>
       </c>
-      <c r="D483" s="19">
+      <c r="D483" s="9">
         <v>23</v>
       </c>
-      <c r="E483" s="19">
-        <v>27</v>
-      </c>
-      <c r="G483" s="18">
-        <v>0</v>
-      </c>
-      <c r="H483" s="18">
+      <c r="E483">
+        <v>26.59</v>
+      </c>
+      <c r="G483" s="9">
+        <v>0</v>
+      </c>
+      <c r="H483" s="9">
         <v>0</v>
       </c>
       <c r="J483" t="str">
@@ -20468,7 +20474,7 @@
         <v>No</v>
       </c>
       <c r="K484" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L484" t="str">
         <f>IF(C484&gt;DATE(2020,3,15),IF(C484&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20505,7 +20511,7 @@
         <v>No</v>
       </c>
       <c r="K485" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L485" t="str">
         <f>IF(C485&gt;DATE(2020,3,15),IF(C485&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20542,7 +20548,7 @@
         <v>No</v>
       </c>
       <c r="K486" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L486" t="str">
         <f>IF(C486&gt;DATE(2020,3,15),IF(C486&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20582,7 +20588,7 @@
         <v>No</v>
       </c>
       <c r="K487" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L487" t="str">
         <f>IF(C487&gt;DATE(2020,3,15),IF(C487&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20622,7 +20628,7 @@
         <v>Si</v>
       </c>
       <c r="K488" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L488" t="str">
         <f>IF(C488&gt;DATE(2020,3,15),IF(C488&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20662,7 +20668,7 @@
         <v>Si</v>
       </c>
       <c r="K489" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L489" t="str">
         <f>IF(C489&gt;DATE(2020,3,15),IF(C489&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20702,7 +20708,7 @@
         <v>Si</v>
       </c>
       <c r="K490" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L490" t="str">
         <f>IF(C490&gt;DATE(2020,3,15),IF(C490&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20742,7 +20748,7 @@
         <v>Si</v>
       </c>
       <c r="K491" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L491" t="str">
         <f>IF(C491&gt;DATE(2020,3,15),IF(C491&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20782,7 +20788,7 @@
         <v>Si</v>
       </c>
       <c r="K492" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L492" t="str">
         <f>IF(C492&gt;DATE(2020,3,15),IF(C492&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
@@ -20910,9 +20916,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I476" xr:uid="{EEFE7D21-3722-C547-BC90-A911F1DEF0E0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I476">
-      <sortCondition ref="C1:C476"/>
+  <autoFilter ref="A1:I343" xr:uid="{EEFE7D21-3722-C547-BC90-A911F1DEF0E0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I343">
+      <sortCondition ref="A2:A343"/>
+      <sortCondition ref="C2:C343"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L495">
@@ -21970,7 +21977,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G20"/>
+      <selection activeCell="A2" sqref="A2:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21984,11 +21991,10 @@
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -22028,19 +22034,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D2" s="2">
-        <v>1008</v>
+        <v>5818</v>
       </c>
       <c r="E2" s="2">
-        <v>11.84</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
+        <v>61.03</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2867</v>
       </c>
       <c r="G2" s="2">
-        <v>23</v>
+        <v>235</v>
+      </c>
+      <c r="H2">
+        <v>248</v>
+      </c>
+      <c r="I2">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -22051,19 +22063,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D3" s="2">
-        <v>281</v>
+        <v>2272</v>
       </c>
       <c r="E3" s="2">
-        <v>21.22</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
+        <v>156.52000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1176</v>
+      </c>
+      <c r="G3" s="2">
+        <v>165</v>
+      </c>
+      <c r="H3">
+        <v>138</v>
+      </c>
+      <c r="I3">
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -22074,21 +22092,26 @@
         <v>3</v>
       </c>
       <c r="C4" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D4" s="2">
-        <v>292</v>
-      </c>
-      <c r="E4">
-        <v>28.06</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
+        <v>1236</v>
+      </c>
+      <c r="E4" s="2">
+        <v>101.97</v>
+      </c>
+      <c r="F4" s="2">
+        <v>529</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="H4" s="2">
+        <v>55</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
+      </c>
       <c r="M4" t="s">
         <v>52</v>
       </c>
@@ -22101,19 +22124,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D5" s="2">
-        <v>169</v>
-      </c>
-      <c r="E5">
-        <v>14.18</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
+        <v>1069</v>
+      </c>
+      <c r="E5" s="2">
+        <v>85</v>
+      </c>
+      <c r="F5" s="2">
+        <v>399</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="H5">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>111</v>
       </c>
       <c r="M5" t="s">
         <v>50</v>
@@ -22127,19 +22156,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D6" s="2">
-        <v>220</v>
+        <v>1262</v>
       </c>
       <c r="E6" s="2">
-        <v>9.84</v>
-      </c>
-      <c r="F6" s="2">
-        <v>23</v>
+        <v>51.73</v>
+      </c>
+      <c r="F6">
+        <v>483</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>94</v>
+      </c>
+      <c r="H6">
+        <v>55</v>
+      </c>
+      <c r="I6">
+        <v>57</v>
       </c>
       <c r="M6" t="s">
         <v>49</v>
@@ -22153,19 +22188,25 @@
         <v>6</v>
       </c>
       <c r="C7" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D7" s="2">
-        <v>83</v>
+        <v>1171</v>
       </c>
       <c r="E7" s="2">
-        <v>12.56</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4</v>
+        <v>191.54</v>
+      </c>
+      <c r="F7">
+        <v>522</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
       </c>
       <c r="M7" t="s">
         <v>51</v>
@@ -22179,19 +22220,25 @@
         <v>8</v>
       </c>
       <c r="C8" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D8" s="2">
-        <v>801</v>
+        <v>6424</v>
       </c>
       <c r="E8" s="2">
-        <v>38.76</v>
+        <v>288.12</v>
       </c>
       <c r="F8" s="2">
-        <v>37</v>
+        <v>3225</v>
       </c>
       <c r="G8" s="2">
-        <v>42</v>
+        <v>344</v>
+      </c>
+      <c r="H8">
+        <v>708</v>
+      </c>
+      <c r="I8">
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -22202,21 +22249,26 @@
         <v>7</v>
       </c>
       <c r="C9" s="16">
-        <v>43908</v>
-      </c>
-      <c r="D9">
-        <v>868</v>
+        <v>43920</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6211</v>
       </c>
       <c r="E9" s="2">
-        <v>35.72</v>
-      </c>
-      <c r="F9">
-        <v>54</v>
+        <v>240.88</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2601</v>
       </c>
       <c r="G9" s="2">
-        <v>29</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="H9">
+        <v>516</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1028</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -22226,22 +22278,26 @@
         <v>9</v>
       </c>
       <c r="C10" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D10" s="2">
-        <v>2702</v>
+        <v>18773</v>
       </c>
       <c r="E10" s="2">
-        <v>34.89</v>
+        <v>226.43</v>
       </c>
       <c r="F10" s="2">
-        <v>33</v>
+        <v>12974</v>
       </c>
       <c r="G10" s="2">
-        <v>55</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+        <v>1652</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1672</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4966</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -22252,21 +22308,26 @@
         <v>18</v>
       </c>
       <c r="C11" s="16">
-        <v>43908</v>
-      </c>
-      <c r="D11" s="2">
+        <v>43920</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>38.93</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>1.18</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2"/>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -22277,22 +22338,26 @@
         <v>10</v>
       </c>
       <c r="C12" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D12" s="2">
-        <v>921</v>
+        <v>5508</v>
       </c>
       <c r="E12" s="2">
-        <v>18.03</v>
+        <v>99.27</v>
       </c>
       <c r="F12" s="2">
-        <v>52</v>
+        <v>2189</v>
       </c>
       <c r="G12" s="2">
-        <v>24</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="H12" s="2">
+        <v>339</v>
+      </c>
+      <c r="I12" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -22302,19 +22367,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D13" s="2">
-        <v>241</v>
+        <v>1628</v>
       </c>
       <c r="E13" s="2">
-        <v>22.01</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>8</v>
+        <v>138.15</v>
+      </c>
+      <c r="F13">
+        <v>371</v>
+      </c>
+      <c r="G13">
+        <v>51</v>
+      </c>
+      <c r="H13">
+        <v>133</v>
+      </c>
+      <c r="I13">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -22325,21 +22396,26 @@
         <v>12</v>
       </c>
       <c r="C14" s="16">
-        <v>43908</v>
-      </c>
-      <c r="D14">
-        <v>453</v>
+        <v>43920</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4039</v>
       </c>
       <c r="E14" s="2">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>138.80000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1250</v>
+      </c>
+      <c r="G14" s="2">
+        <v>149</v>
+      </c>
+      <c r="H14" s="2">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>187</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -22349,22 +22425,26 @@
         <v>13</v>
       </c>
       <c r="C15" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D15" s="2">
-        <v>6777</v>
+        <v>27509</v>
       </c>
       <c r="E15" s="2">
-        <v>100.35</v>
-      </c>
-      <c r="F15">
-        <v>590</v>
+        <v>339.74</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15140</v>
       </c>
       <c r="G15" s="2">
-        <v>498</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>1514</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3603</v>
+      </c>
+      <c r="I15" s="2">
+        <v>9330</v>
+      </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -22375,18 +22455,24 @@
         <v>19</v>
       </c>
       <c r="C16" s="16">
-        <v>43908</v>
-      </c>
-      <c r="D16" s="2">
-        <v>23</v>
-      </c>
-      <c r="E16" s="2">
-        <v>26.59</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+        <v>43920</v>
+      </c>
+      <c r="D16">
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>42.78</v>
+      </c>
+      <c r="F16" s="2">
+        <v>27</v>
       </c>
       <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" s="2"/>
@@ -22399,22 +22485,26 @@
         <v>14</v>
       </c>
       <c r="C17" s="16">
-        <v>43908</v>
-      </c>
-      <c r="D17" s="2">
-        <v>167</v>
-      </c>
-      <c r="E17" s="2">
-        <v>11.18</v>
+        <v>43920</v>
+      </c>
+      <c r="D17">
+        <v>974</v>
+      </c>
+      <c r="E17">
+        <v>58.71</v>
       </c>
       <c r="F17" s="2">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="H17" s="2">
+        <v>34</v>
+      </c>
+      <c r="I17" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -22424,19 +22514,25 @@
         <v>15</v>
       </c>
       <c r="C18" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D18" s="2">
-        <v>482</v>
+        <v>2305</v>
       </c>
       <c r="E18" s="2">
-        <v>73.22</v>
-      </c>
-      <c r="F18">
-        <v>11</v>
+        <v>304.49</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1035</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>99</v>
+      </c>
+      <c r="H18">
+        <v>113</v>
+      </c>
+      <c r="I18">
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -22447,21 +22543,26 @@
         <v>16</v>
       </c>
       <c r="C19" s="16">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D19" s="2">
-        <v>1190</v>
+        <v>6320</v>
       </c>
       <c r="E19" s="2">
-        <v>53.13</v>
-      </c>
-      <c r="F19">
-        <v>44</v>
+        <v>251.61</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3594</v>
       </c>
       <c r="G19" s="2">
-        <v>53</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="H19">
+        <v>325</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1796</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
@@ -22471,19 +22572,25 @@
         <v>17</v>
       </c>
       <c r="C20" s="16">
-        <v>43908</v>
-      </c>
-      <c r="D20">
-        <v>468</v>
-      </c>
-      <c r="E20">
-        <v>144.26</v>
-      </c>
-      <c r="F20">
-        <v>15</v>
+        <v>43920</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1810</v>
+      </c>
+      <c r="E20" s="2">
+        <v>459.28</v>
+      </c>
+      <c r="F20" s="2">
+        <v>575</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="H20">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -22501,106 +22608,170 @@
       <c r="B23" s="1"/>
       <c r="E23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="L23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="2">
+        <v>5818</v>
+      </c>
+      <c r="N23" s="2">
+        <v>61.03</v>
+      </c>
+      <c r="O23" s="2">
+        <v>2867</v>
+      </c>
+      <c r="P23" s="2">
+        <v>235</v>
+      </c>
+      <c r="Q23">
+        <v>248</v>
+      </c>
+      <c r="R23">
+        <v>160</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="L24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2272</v>
+      </c>
+      <c r="N24" s="2">
+        <v>156.52000000000001</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1176</v>
+      </c>
+      <c r="P24" s="2">
+        <v>165</v>
+      </c>
+      <c r="Q24">
+        <v>138</v>
+      </c>
+      <c r="R24">
+        <v>204</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M25" s="2" t="s">
-        <v>57</v>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1236</v>
       </c>
       <c r="N25" s="2">
-        <v>1008</v>
+        <v>101.97</v>
       </c>
       <c r="O25" s="2">
-        <v>11.84</v>
+        <v>529</v>
       </c>
       <c r="P25">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="2">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="R25">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E26" s="2"/>
-      <c r="M26" s="2" t="s">
-        <v>58</v>
+      <c r="L26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1069</v>
       </c>
       <c r="N26" s="2">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="O26" s="2">
-        <v>21.22</v>
+        <v>399</v>
       </c>
       <c r="P26">
+        <v>85</v>
+      </c>
+      <c r="Q26">
+        <v>42</v>
+      </c>
+      <c r="R26">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
         <v>14</v>
       </c>
-      <c r="Q26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M27" s="2" t="s">
-        <v>12</v>
+      <c r="M27" s="2">
+        <v>1262</v>
       </c>
       <c r="N27" s="2">
-        <v>292</v>
+        <v>51.73</v>
       </c>
       <c r="O27">
-        <v>28.06</v>
+        <v>483</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="R27">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="M28" s="2" t="s">
-        <v>13</v>
+      <c r="L28" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1171</v>
       </c>
       <c r="N28" s="2">
-        <v>169</v>
+        <v>191.54</v>
       </c>
       <c r="O28">
-        <v>14.18</v>
+        <v>522</v>
       </c>
       <c r="P28">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="R28">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="M29" s="2" t="s">
-        <v>14</v>
+      <c r="L29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="2">
+        <v>6424</v>
       </c>
       <c r="N29" s="2">
-        <v>220</v>
+        <v>288.12</v>
       </c>
       <c r="O29" s="2">
-        <v>9.84</v>
+        <v>3225</v>
       </c>
       <c r="P29" s="2">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>708</v>
+      </c>
+      <c r="R29">
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -22611,22 +22782,27 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="M30" s="2" t="s">
-        <v>15</v>
+      <c r="L30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="2">
+        <v>6211</v>
       </c>
       <c r="N30" s="2">
-        <v>83</v>
+        <v>240.88</v>
       </c>
       <c r="O30" s="2">
-        <v>12.56</v>
+        <v>2601</v>
       </c>
       <c r="P30" s="2">
-        <v>4</v>
+        <v>325</v>
       </c>
       <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1028</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
@@ -22635,84 +22811,106 @@
       <c r="H31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="M31" s="2" t="s">
-        <v>16</v>
+      <c r="L31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="2">
+        <v>18773</v>
       </c>
       <c r="N31" s="2">
-        <v>801</v>
+        <v>226.43</v>
       </c>
       <c r="O31" s="2">
-        <v>38.76</v>
+        <v>12974</v>
       </c>
       <c r="P31" s="2">
-        <v>37</v>
+        <v>1652</v>
       </c>
       <c r="Q31" s="2">
-        <v>42</v>
-      </c>
-      <c r="R31" s="2"/>
+        <v>1672</v>
+      </c>
+      <c r="R31" s="2">
+        <v>4966</v>
+      </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="M32" t="s">
-        <v>59</v>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>34</v>
       </c>
       <c r="N32">
-        <v>868</v>
+        <v>38.93</v>
       </c>
       <c r="O32" s="2">
-        <v>35.72</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="2">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="E33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="M33" s="2" t="s">
-        <v>60</v>
+      <c r="L33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="2">
+        <v>5508</v>
       </c>
       <c r="N33" s="2">
-        <v>2702</v>
+        <v>99.27</v>
       </c>
       <c r="O33" s="2">
-        <v>34.89</v>
+        <v>2189</v>
       </c>
       <c r="P33" s="2">
-        <v>33</v>
+        <v>356</v>
       </c>
       <c r="Q33" s="2">
-        <v>55</v>
-      </c>
-      <c r="R33" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="R33" s="2">
+        <v>200</v>
+      </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="M34" s="2" t="s">
-        <v>1</v>
+      <c r="L34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1628</v>
       </c>
       <c r="N34" s="2">
-        <v>1</v>
+        <v>138.15</v>
       </c>
       <c r="O34">
-        <v>1.18</v>
+        <v>371</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="R34">
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
@@ -22722,20 +22920,26 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="M35" s="2" t="s">
-        <v>2</v>
+      <c r="L35" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4039</v>
       </c>
       <c r="N35" s="2">
-        <v>921</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="O35" s="2">
-        <v>18.03</v>
+        <v>1250</v>
       </c>
       <c r="P35" s="2">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="Q35" s="2">
-        <v>24</v>
+        <v>84</v>
+      </c>
+      <c r="R35">
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
@@ -22746,41 +22950,52 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="M36" s="2" t="s">
-        <v>3</v>
+      <c r="L36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="2">
+        <v>27509</v>
       </c>
       <c r="N36" s="2">
-        <v>241</v>
+        <v>339.74</v>
       </c>
       <c r="O36" s="2">
-        <v>22.01</v>
+        <v>15140</v>
       </c>
       <c r="P36" s="2">
-        <v>3</v>
+        <v>1514</v>
       </c>
       <c r="Q36" s="2">
-        <v>8</v>
-      </c>
-      <c r="R36" s="2"/>
+        <v>3603</v>
+      </c>
+      <c r="R36" s="2">
+        <v>9330</v>
+      </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="M37" t="s">
-        <v>4</v>
+      <c r="L37" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>54</v>
       </c>
       <c r="N37">
-        <v>453</v>
+        <v>42.78</v>
       </c>
       <c r="O37" s="2">
-        <v>16.739999999999998</v>
+        <v>27</v>
       </c>
       <c r="P37">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q37">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
@@ -22788,22 +23003,27 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="M38" t="s">
-        <v>5</v>
-      </c>
-      <c r="N38" s="2">
-        <v>6777</v>
+      <c r="L38" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>974</v>
+      </c>
+      <c r="N38">
+        <v>58.71</v>
       </c>
       <c r="O38" s="2">
-        <v>100.35</v>
+        <v>283</v>
       </c>
       <c r="P38">
-        <v>590</v>
+        <v>59</v>
       </c>
       <c r="Q38" s="2">
-        <v>498</v>
-      </c>
-      <c r="R38" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="R38" s="2">
+        <v>20</v>
+      </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -22812,42 +23032,53 @@
       <c r="E39" s="2"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="M39" s="2" t="s">
-        <v>6</v>
+      <c r="L39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M39" s="2">
+        <v>2305</v>
       </c>
       <c r="N39" s="2">
-        <v>23</v>
+        <v>304.49</v>
       </c>
       <c r="O39" s="2">
-        <v>26.59</v>
+        <v>1035</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="R39">
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="E40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="M40" s="2" t="s">
-        <v>7</v>
+      <c r="L40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M40" s="2">
+        <v>6320</v>
       </c>
       <c r="N40" s="2">
-        <v>167</v>
+        <v>251.61</v>
       </c>
       <c r="O40" s="2">
-        <v>11.18</v>
+        <v>3594</v>
       </c>
       <c r="P40" s="2">
-        <v>6</v>
+        <v>307</v>
       </c>
       <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="R40" s="2">
+        <v>1796</v>
+      </c>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
@@ -22857,39 +23088,32 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="M41" s="2" t="s">
-        <v>8</v>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1810</v>
       </c>
       <c r="N41" s="2">
-        <v>482</v>
+        <v>459.28</v>
       </c>
       <c r="O41" s="2">
-        <v>73.22</v>
+        <v>575</v>
       </c>
       <c r="P41">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="Q41">
-        <v>4</v>
+        <v>85</v>
+      </c>
+      <c r="R41">
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
-      <c r="M42" t="s">
-        <v>61</v>
-      </c>
-      <c r="N42" s="2">
-        <v>1190</v>
-      </c>
-      <c r="O42" s="2">
-        <v>53.13</v>
-      </c>
-      <c r="P42">
-        <v>44</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>53</v>
-      </c>
+      <c r="O42" s="2"/>
+      <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
@@ -22897,21 +23121,6 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="M43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N43">
-        <v>468</v>
-      </c>
-      <c r="O43">
-        <v>144.26</v>
-      </c>
-      <c r="P43">
-        <v>15</v>
-      </c>
-      <c r="Q43">
-        <v>5</v>
-      </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O44" s="2"/>

--- a/data/Covid-19_data.xlsx
+++ b/data/Covid-19_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB733346-C0E6-9E42-968C-2F531968592E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D3035-6462-F841-92B7-5A22D91B56B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{239DC1C1-CD2F-1E41-ACCC-2923A4E1825B}"/>
   </bookViews>
@@ -27,7 +27,6 @@
     <definedName name="tabula_Actualizacion_51_COVID_19" localSheetId="0">Data_Covid!$A$286:$H$305</definedName>
     <definedName name="tabula_Actualizacion_54_COVID_19" localSheetId="2">Importador!$A$1:$I$21</definedName>
     <definedName name="tabula_Actualizacion_55_COVID_19" localSheetId="2">Importador!$A$25:$G$49</definedName>
-    <definedName name="tabula_Actualizacion_61_COVID_19" localSheetId="2">Importador!$L$23:$R$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,24 +140,11 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" xr16:uid="{CC71D802-208A-C043-A00F-FEDF7F8E8655}" name="tabula-Actualizacion_61_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_61_COVID-19.csv" decimal="," thousands="." tab="0" comma="1">
-      <textFields count="7">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="58">
   <si>
     <t>CCAA</t>
   </si>
@@ -329,24 +315,6 @@
   </si>
   <si>
     <t>to_study</t>
-  </si>
-  <si>
-    <t>Andaluc√≠a</t>
-  </si>
-  <si>
-    <t>Arag√≥n</t>
-  </si>
-  <si>
-    <t>Castilla La Mancha</t>
-  </si>
-  <si>
-    <t>Castilla y Le√≥n</t>
-  </si>
-  <si>
-    <t>Catalu√±a</t>
-  </si>
-  <si>
-    <t>Pa√≠s Vasco</t>
   </si>
   <si>
     <t>confin_str</t>
@@ -2481,7 +2449,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_51_COVID-19" connectionId="6" xr16:uid="{7C33F37E-B5DB-FC43-B1F3-4C6616C92B19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_36_COVID-19" connectionId="1" xr16:uid="{903EF60C-4201-D145-9FCB-F17FD78E1C76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2501,18 +2469,14 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_36_COVID-19" connectionId="1" xr16:uid="{903EF60C-4201-D145-9FCB-F17FD78E1C76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_51_COVID-19" connectionId="6" xr16:uid="{7C33F37E-B5DB-FC43-B1F3-4C6616C92B19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19" connectionId="9" xr16:uid="{5FF6A3BA-506D-DD42-BA20-C4C5829E3E10}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="7" xr16:uid="{3CB8AD48-40F5-D349-ACB3-ECA65A993340}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="7" xr16:uid="{3CB8AD48-40F5-D349-ACB3-ECA65A993340}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="8" xr16:uid="{02F6A1DC-5207-2947-942B-2AF76DEC0006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -2816,8 +2780,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A466" zoomScale="108" workbookViewId="0">
+      <selection activeCell="G480" sqref="G480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2862,7 +2826,7 @@
         <v>56</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2889,14 +2853,14 @@
       </c>
       <c r="I2" s="13"/>
       <c r="J2" t="str">
-        <f>IF(C2&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" ref="J2:J65" si="0">IF(C2&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
       </c>
       <c r="K2" t="s">
         <v>55</v>
       </c>
       <c r="L2" t="str">
-        <f>IF(C2&gt;DATE(2020,3,15),IF(C2&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" ref="L2:L65" si="1">IF(C2&gt;DATE(2020,3,15),IF(C2&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2924,14 +2888,14 @@
       </c>
       <c r="I3" s="13"/>
       <c r="J3" t="str">
-        <f>IF(C3&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K3" t="s">
         <v>55</v>
       </c>
       <c r="L3" t="str">
-        <f>IF(C3&gt;DATE(2020,3,15),IF(C3&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -2959,14 +2923,14 @@
       </c>
       <c r="I4" s="13"/>
       <c r="J4" t="str">
-        <f>IF(C4&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K4" t="s">
         <v>55</v>
       </c>
       <c r="L4" t="str">
-        <f>IF(C4&gt;DATE(2020,3,15),IF(C4&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -2994,14 +2958,14 @@
       </c>
       <c r="I5" s="13"/>
       <c r="J5" t="str">
-        <f>IF(C5&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K5" t="s">
         <v>55</v>
       </c>
       <c r="L5" t="str">
-        <f>IF(C5&gt;DATE(2020,3,15),IF(C5&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3029,14 +2993,14 @@
       </c>
       <c r="I6" s="13"/>
       <c r="J6" t="str">
-        <f>IF(C6&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K6" t="s">
         <v>55</v>
       </c>
       <c r="L6" t="str">
-        <f>IF(C6&gt;DATE(2020,3,15),IF(C6&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3064,14 +3028,14 @@
       </c>
       <c r="I7" s="13"/>
       <c r="J7" t="str">
-        <f>IF(C7&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K7" t="s">
         <v>55</v>
       </c>
       <c r="L7" t="str">
-        <f>IF(C7&gt;DATE(2020,3,15),IF(C7&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3099,14 +3063,14 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" t="str">
-        <f>IF(C8&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K8" t="s">
         <v>55</v>
       </c>
       <c r="L8" t="str">
-        <f>IF(C8&gt;DATE(2020,3,15),IF(C8&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3134,14 +3098,14 @@
       </c>
       <c r="I9" s="13"/>
       <c r="J9" t="str">
-        <f>IF(C9&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K9" t="s">
         <v>55</v>
       </c>
       <c r="L9" t="str">
-        <f>IF(C9&gt;DATE(2020,3,15),IF(C9&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3164,14 +3128,14 @@
       </c>
       <c r="I10" s="13"/>
       <c r="J10" t="str">
-        <f>IF(C10&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K10" t="s">
         <v>55</v>
       </c>
       <c r="L10" t="str">
-        <f>IF(C10&gt;DATE(2020,3,15),IF(C10&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3194,14 +3158,14 @@
       </c>
       <c r="I11" s="13"/>
       <c r="J11" t="str">
-        <f>IF(C11&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K11" t="s">
         <v>55</v>
       </c>
       <c r="L11" t="str">
-        <f>IF(C11&gt;DATE(2020,3,15),IF(C11&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3229,14 +3193,14 @@
       </c>
       <c r="I12" s="13"/>
       <c r="J12" t="str">
-        <f>IF(C12&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K12" t="s">
         <v>55</v>
       </c>
       <c r="L12" t="str">
-        <f>IF(C12&gt;DATE(2020,3,15),IF(C12&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3264,14 +3228,14 @@
       </c>
       <c r="I13" s="13"/>
       <c r="J13" t="str">
-        <f>IF(C13&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K13" t="s">
         <v>55</v>
       </c>
       <c r="L13" t="str">
-        <f>IF(C13&gt;DATE(2020,3,15),IF(C13&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -3299,14 +3263,14 @@
       </c>
       <c r="I14" s="13"/>
       <c r="J14" t="str">
-        <f>IF(C14&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K14" t="s">
         <v>55</v>
       </c>
       <c r="L14" t="str">
-        <f>IF(C14&gt;DATE(2020,3,15),IF(C14&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -3327,21 +3291,21 @@
         <v>11.84</v>
       </c>
       <c r="G15" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H15" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" t="str">
-        <f>IF(C15&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K15" t="s">
         <v>55</v>
       </c>
       <c r="L15" t="str">
-        <f>IF(C15&gt;DATE(2020,3,15),IF(C15&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -3369,14 +3333,14 @@
       </c>
       <c r="I16" s="13"/>
       <c r="J16" t="str">
-        <f>IF(C16&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K16" t="s">
         <v>55</v>
       </c>
       <c r="L16" t="str">
-        <f>IF(C16&gt;DATE(2020,3,15),IF(C16&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -3407,14 +3371,14 @@
       </c>
       <c r="I17" s="13"/>
       <c r="J17" t="str">
-        <f>IF(C17&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K17" t="s">
         <v>55</v>
       </c>
       <c r="L17" t="str">
-        <f>IF(C17&gt;DATE(2020,3,15),IF(C17&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -3445,14 +3409,14 @@
       </c>
       <c r="I18" s="13"/>
       <c r="J18" t="str">
-        <f>IF(C18&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K18" t="s">
         <v>55</v>
       </c>
       <c r="L18" t="str">
-        <f>IF(C18&gt;DATE(2020,3,15),IF(C18&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -3485,14 +3449,14 @@
         <v>50</v>
       </c>
       <c r="J19" t="str">
-        <f>IF(C19&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K19" t="s">
         <v>55</v>
       </c>
       <c r="L19" t="str">
-        <f>IF(C19&gt;DATE(2020,3,15),IF(C19&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -3525,14 +3489,14 @@
         <v>66</v>
       </c>
       <c r="J20" t="str">
-        <f>IF(C20&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K20" t="s">
         <v>55</v>
       </c>
       <c r="L20" t="str">
-        <f>IF(C20&gt;DATE(2020,3,15),IF(C20&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -3565,14 +3529,14 @@
         <v>71</v>
       </c>
       <c r="J21" t="str">
-        <f>IF(C21&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K21" t="s">
         <v>55</v>
       </c>
       <c r="L21" t="str">
-        <f>IF(C21&gt;DATE(2020,3,15),IF(C21&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -3605,14 +3569,14 @@
         <v>77</v>
       </c>
       <c r="J22" t="str">
-        <f>IF(C22&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K22" t="s">
         <v>55</v>
       </c>
       <c r="L22" t="str">
-        <f>IF(C22&gt;DATE(2020,3,15),IF(C22&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -3645,14 +3609,14 @@
         <v>92</v>
       </c>
       <c r="J23" t="str">
-        <f>IF(C23&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K23" t="s">
         <v>55</v>
       </c>
       <c r="L23" t="str">
-        <f>IF(C23&gt;DATE(2020,3,15),IF(C23&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -3685,14 +3649,14 @@
         <v>139</v>
       </c>
       <c r="J24" t="str">
-        <f>IF(C24&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K24" t="s">
         <v>55</v>
       </c>
       <c r="L24" t="str">
-        <f>IF(C24&gt;DATE(2020,3,15),IF(C24&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -3725,14 +3689,14 @@
         <v>148</v>
       </c>
       <c r="J25" t="str">
-        <f>IF(C25&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K25" t="s">
         <v>55</v>
       </c>
       <c r="L25" t="str">
-        <f>IF(C25&gt;DATE(2020,3,15),IF(C25&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -3765,14 +3729,14 @@
         <v>155</v>
       </c>
       <c r="J26" t="str">
-        <f>IF(C26&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K26" t="s">
         <v>55</v>
       </c>
       <c r="L26" t="str">
-        <f>IF(C26&gt;DATE(2020,3,15),IF(C26&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -3805,14 +3769,14 @@
         <v>160</v>
       </c>
       <c r="J27" t="str">
-        <f>IF(C27&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K27" t="s">
         <v>55</v>
       </c>
       <c r="L27" t="str">
-        <f>IF(C27&gt;DATE(2020,3,15),IF(C27&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -3840,14 +3804,14 @@
       </c>
       <c r="I28" s="3"/>
       <c r="J28" t="str">
-        <f>IF(C28&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K28" t="s">
         <v>55</v>
       </c>
       <c r="L28" t="str">
-        <f>IF(C28&gt;DATE(2020,3,15),IF(C28&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3875,14 +3839,14 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" t="str">
-        <f>IF(C29&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K29" t="s">
         <v>55</v>
       </c>
       <c r="L29" t="str">
-        <f>IF(C29&gt;DATE(2020,3,15),IF(C29&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3910,14 +3874,14 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" t="str">
-        <f>IF(C30&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K30" t="s">
         <v>55</v>
       </c>
       <c r="L30" t="str">
-        <f>IF(C30&gt;DATE(2020,3,15),IF(C30&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3945,14 +3909,14 @@
       </c>
       <c r="I31" s="3"/>
       <c r="J31" t="str">
-        <f>IF(C31&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K31" t="s">
         <v>55</v>
       </c>
       <c r="L31" t="str">
-        <f>IF(C31&gt;DATE(2020,3,15),IF(C31&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -3980,14 +3944,14 @@
       </c>
       <c r="I32" s="3"/>
       <c r="J32" t="str">
-        <f>IF(C32&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K32" t="s">
         <v>55</v>
       </c>
       <c r="L32" t="str">
-        <f>IF(C32&gt;DATE(2020,3,15),IF(C32&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4015,14 +3979,14 @@
       </c>
       <c r="I33" s="3"/>
       <c r="J33" t="str">
-        <f>IF(C33&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K33" t="s">
         <v>55</v>
       </c>
       <c r="L33" t="str">
-        <f>IF(C33&gt;DATE(2020,3,15),IF(C33&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4050,14 +4014,14 @@
       </c>
       <c r="I34" s="3"/>
       <c r="J34" t="str">
-        <f>IF(C34&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K34" t="s">
         <v>55</v>
       </c>
       <c r="L34" t="str">
-        <f>IF(C34&gt;DATE(2020,3,15),IF(C34&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4085,14 +4049,14 @@
       </c>
       <c r="I35" s="3"/>
       <c r="J35" t="str">
-        <f>IF(C35&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K35" t="s">
         <v>55</v>
       </c>
       <c r="L35" t="str">
-        <f>IF(C35&gt;DATE(2020,3,15),IF(C35&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4115,14 +4079,14 @@
       </c>
       <c r="I36" s="3"/>
       <c r="J36" t="str">
-        <f>IF(C36&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K36" t="s">
         <v>55</v>
       </c>
       <c r="L36" t="str">
-        <f>IF(C36&gt;DATE(2020,3,15),IF(C36&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4145,14 +4109,14 @@
       </c>
       <c r="I37" s="3"/>
       <c r="J37" t="str">
-        <f>IF(C37&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K37" t="s">
         <v>55</v>
       </c>
       <c r="L37" t="str">
-        <f>IF(C37&gt;DATE(2020,3,15),IF(C37&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4180,14 +4144,14 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" t="str">
-        <f>IF(C38&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K38" t="s">
         <v>55</v>
       </c>
       <c r="L38" t="str">
-        <f>IF(C38&gt;DATE(2020,3,15),IF(C38&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4215,14 +4179,14 @@
       </c>
       <c r="I39" s="3"/>
       <c r="J39" t="str">
-        <f>IF(C39&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K39" t="s">
         <v>55</v>
       </c>
       <c r="L39" t="str">
-        <f>IF(C39&gt;DATE(2020,3,15),IF(C39&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -4250,14 +4214,14 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" t="str">
-        <f>IF(C40&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K40" t="s">
         <v>55</v>
       </c>
       <c r="L40" t="str">
-        <f>IF(C40&gt;DATE(2020,3,15),IF(C40&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -4278,21 +4242,21 @@
         <v>21.22</v>
       </c>
       <c r="G41" s="9">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H41" s="9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" t="str">
-        <f>IF(C41&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K41" t="s">
         <v>55</v>
       </c>
       <c r="L41" t="str">
-        <f>IF(C41&gt;DATE(2020,3,15),IF(C41&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -4320,14 +4284,14 @@
       </c>
       <c r="I42" s="3"/>
       <c r="J42" t="str">
-        <f>IF(C42&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K42" t="s">
         <v>55</v>
       </c>
       <c r="L42" t="str">
-        <f>IF(C42&gt;DATE(2020,3,15),IF(C42&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -4358,14 +4322,14 @@
       </c>
       <c r="I43" s="3"/>
       <c r="J43" t="str">
-        <f>IF(C43&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K43" t="s">
         <v>55</v>
       </c>
       <c r="L43" t="str">
-        <f>IF(C43&gt;DATE(2020,3,15),IF(C43&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -4396,14 +4360,14 @@
       </c>
       <c r="I44" s="3"/>
       <c r="J44" t="str">
-        <f>IF(C44&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K44" t="s">
         <v>55</v>
       </c>
       <c r="L44" t="str">
-        <f>IF(C44&gt;DATE(2020,3,15),IF(C44&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -4436,14 +4400,14 @@
         <v>3</v>
       </c>
       <c r="J45" t="str">
-        <f>IF(C45&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K45" t="s">
         <v>55</v>
       </c>
       <c r="L45" t="str">
-        <f>IF(C45&gt;DATE(2020,3,15),IF(C45&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -4476,14 +4440,14 @@
         <v>3</v>
       </c>
       <c r="J46" t="str">
-        <f>IF(C46&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K46" t="s">
         <v>55</v>
       </c>
       <c r="L46" t="str">
-        <f>IF(C46&gt;DATE(2020,3,15),IF(C46&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -4516,14 +4480,14 @@
         <v>4</v>
       </c>
       <c r="J47" t="str">
-        <f>IF(C47&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K47" t="s">
         <v>55</v>
       </c>
       <c r="L47" t="str">
-        <f>IF(C47&gt;DATE(2020,3,15),IF(C47&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -4556,14 +4520,14 @@
         <v>4</v>
       </c>
       <c r="J48" t="str">
-        <f>IF(C48&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K48" t="s">
         <v>55</v>
       </c>
       <c r="L48" t="str">
-        <f>IF(C48&gt;DATE(2020,3,15),IF(C48&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -4596,14 +4560,14 @@
         <v>8</v>
       </c>
       <c r="J49" t="str">
-        <f>IF(C49&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K49" t="s">
         <v>55</v>
       </c>
       <c r="L49" t="str">
-        <f>IF(C49&gt;DATE(2020,3,15),IF(C49&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -4636,14 +4600,14 @@
         <v>8</v>
       </c>
       <c r="J50" t="str">
-        <f>IF(C50&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K50" t="s">
         <v>55</v>
       </c>
       <c r="L50" t="str">
-        <f>IF(C50&gt;DATE(2020,3,15),IF(C50&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -4676,14 +4640,14 @@
         <v>8</v>
       </c>
       <c r="J51" t="str">
-        <f>IF(C51&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K51" t="s">
         <v>55</v>
       </c>
       <c r="L51" t="str">
-        <f>IF(C51&gt;DATE(2020,3,15),IF(C51&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -4716,14 +4680,14 @@
         <v>174</v>
       </c>
       <c r="J52" t="str">
-        <f>IF(C52&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K52" t="s">
         <v>55</v>
       </c>
       <c r="L52" t="str">
-        <f>IF(C52&gt;DATE(2020,3,15),IF(C52&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -4756,14 +4720,14 @@
         <v>204</v>
       </c>
       <c r="J53" t="str">
-        <f>IF(C53&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
       <c r="K53" t="s">
         <v>55</v>
       </c>
       <c r="L53" t="str">
-        <f>IF(C53&gt;DATE(2020,3,15),IF(C53&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -4791,14 +4755,14 @@
       </c>
       <c r="I54" s="3"/>
       <c r="J54" t="str">
-        <f>IF(C54&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K54" t="s">
         <v>55</v>
       </c>
       <c r="L54" t="str">
-        <f>IF(C54&gt;DATE(2020,3,15),IF(C54&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4826,14 +4790,14 @@
       </c>
       <c r="I55" s="3"/>
       <c r="J55" t="str">
-        <f>IF(C55&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K55" t="s">
         <v>55</v>
       </c>
       <c r="L55" t="str">
-        <f>IF(C55&gt;DATE(2020,3,15),IF(C55&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4861,14 +4825,14 @@
       </c>
       <c r="I56" s="3"/>
       <c r="J56" t="str">
-        <f>IF(C56&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K56" t="s">
         <v>55</v>
       </c>
       <c r="L56" t="str">
-        <f>IF(C56&gt;DATE(2020,3,15),IF(C56&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4896,14 +4860,14 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" t="str">
-        <f>IF(C57&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K57" t="s">
         <v>55</v>
       </c>
       <c r="L57" t="str">
-        <f>IF(C57&gt;DATE(2020,3,15),IF(C57&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4931,14 +4895,14 @@
       </c>
       <c r="I58" s="3"/>
       <c r="J58" t="str">
-        <f>IF(C58&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K58" t="s">
         <v>55</v>
       </c>
       <c r="L58" t="str">
-        <f>IF(C58&gt;DATE(2020,3,15),IF(C58&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -4966,14 +4930,14 @@
       </c>
       <c r="I59" s="3"/>
       <c r="J59" t="str">
-        <f>IF(C59&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K59" t="s">
         <v>55</v>
       </c>
       <c r="L59" t="str">
-        <f>IF(C59&gt;DATE(2020,3,15),IF(C59&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -5001,14 +4965,14 @@
       </c>
       <c r="I60" s="3"/>
       <c r="J60" t="str">
-        <f>IF(C60&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K60" t="s">
         <v>55</v>
       </c>
       <c r="L60" t="str">
-        <f>IF(C60&gt;DATE(2020,3,15),IF(C60&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -5036,14 +5000,14 @@
       </c>
       <c r="I61" s="3"/>
       <c r="J61" t="str">
-        <f>IF(C61&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K61" t="s">
         <v>55</v>
       </c>
       <c r="L61" t="str">
-        <f>IF(C61&gt;DATE(2020,3,15),IF(C61&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -5066,14 +5030,14 @@
       </c>
       <c r="I62" s="3"/>
       <c r="J62" t="str">
-        <f>IF(C62&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K62" t="s">
         <v>55</v>
       </c>
       <c r="L62" t="str">
-        <f>IF(C62&gt;DATE(2020,3,15),IF(C62&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -5096,14 +5060,14 @@
       </c>
       <c r="I63" s="3"/>
       <c r="J63" t="str">
-        <f>IF(C63&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K63" t="s">
         <v>55</v>
       </c>
       <c r="L63" t="str">
-        <f>IF(C63&gt;DATE(2020,3,15),IF(C63&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -5131,14 +5095,14 @@
       </c>
       <c r="I64" s="3"/>
       <c r="J64" t="str">
-        <f>IF(C64&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K64" t="s">
         <v>55</v>
       </c>
       <c r="L64" t="str">
-        <f>IF(C64&gt;DATE(2020,3,15),IF(C64&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
@@ -5166,14 +5130,14 @@
       </c>
       <c r="I65" s="3"/>
       <c r="J65" t="str">
-        <f>IF(C65&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="K65" t="s">
         <v>55</v>
       </c>
       <c r="L65" t="str">
-        <f>IF(C65&gt;DATE(2020,3,15),IF(C65&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="1"/>
         <v>Debil</v>
       </c>
     </row>
@@ -5201,14 +5165,14 @@
       </c>
       <c r="I66" s="3"/>
       <c r="J66" t="str">
-        <f>IF(C66&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" ref="J66:J129" si="2">IF(C66&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
       </c>
       <c r="K66" t="s">
         <v>55</v>
       </c>
       <c r="L66" t="str">
-        <f>IF(C66&gt;DATE(2020,3,15),IF(C66&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" ref="L66:L129" si="3">IF(C66&gt;DATE(2020,3,15),IF(C66&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
         <v>Debil</v>
       </c>
     </row>
@@ -5229,21 +5193,21 @@
         <v>28.06</v>
       </c>
       <c r="G67" s="9">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="H67" s="9">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" t="str">
-        <f>IF(C67&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K67" t="s">
         <v>55</v>
       </c>
       <c r="L67" t="str">
-        <f>IF(C67&gt;DATE(2020,3,15),IF(C67&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -5271,14 +5235,14 @@
       </c>
       <c r="I68" s="3"/>
       <c r="J68" t="str">
-        <f>IF(C68&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K68" t="s">
         <v>55</v>
       </c>
       <c r="L68" t="str">
-        <f>IF(C68&gt;DATE(2020,3,15),IF(C68&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -5309,14 +5273,14 @@
       </c>
       <c r="I69" s="3"/>
       <c r="J69" t="str">
-        <f>IF(C69&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K69" t="s">
         <v>55</v>
       </c>
       <c r="L69" t="str">
-        <f>IF(C69&gt;DATE(2020,3,15),IF(C69&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -5347,14 +5311,14 @@
       </c>
       <c r="I70" s="3"/>
       <c r="J70" t="str">
-        <f>IF(C70&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K70" t="s">
         <v>55</v>
       </c>
       <c r="L70" t="str">
-        <f>IF(C70&gt;DATE(2020,3,15),IF(C70&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -5387,14 +5351,14 @@
         <v>21</v>
       </c>
       <c r="J71" t="str">
-        <f>IF(C71&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K71" t="s">
         <v>55</v>
       </c>
       <c r="L71" t="str">
-        <f>IF(C71&gt;DATE(2020,3,15),IF(C71&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -5427,14 +5391,14 @@
         <v>30</v>
       </c>
       <c r="J72" t="str">
-        <f>IF(C72&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K72" t="s">
         <v>55</v>
       </c>
       <c r="L72" t="str">
-        <f>IF(C72&gt;DATE(2020,3,15),IF(C72&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -5467,14 +5431,14 @@
         <v>35</v>
       </c>
       <c r="J73" t="str">
-        <f>IF(C73&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K73" t="s">
         <v>55</v>
       </c>
       <c r="L73" t="str">
-        <f>IF(C73&gt;DATE(2020,3,15),IF(C73&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -5507,14 +5471,14 @@
         <v>40</v>
       </c>
       <c r="J74" t="str">
-        <f>IF(C74&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K74" t="s">
         <v>55</v>
       </c>
       <c r="L74" t="str">
-        <f>IF(C74&gt;DATE(2020,3,15),IF(C74&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -5547,14 +5511,14 @@
         <v>52</v>
       </c>
       <c r="J75" t="str">
-        <f>IF(C75&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K75" t="s">
         <v>55</v>
       </c>
       <c r="L75" t="str">
-        <f>IF(C75&gt;DATE(2020,3,15),IF(C75&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -5587,14 +5551,14 @@
         <v>65</v>
       </c>
       <c r="J76" t="str">
-        <f>IF(C76&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K76" t="s">
         <v>55</v>
       </c>
       <c r="L76" t="str">
-        <f>IF(C76&gt;DATE(2020,3,15),IF(C76&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -5627,14 +5591,14 @@
         <v>76</v>
       </c>
       <c r="J77" t="str">
-        <f>IF(C77&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K77" t="s">
         <v>55</v>
       </c>
       <c r="L77" t="str">
-        <f>IF(C77&gt;DATE(2020,3,15),IF(C77&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -5667,14 +5631,14 @@
         <v>78</v>
       </c>
       <c r="J78" t="str">
-        <f>IF(C78&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K78" t="s">
         <v>55</v>
       </c>
       <c r="L78" t="str">
-        <f>IF(C78&gt;DATE(2020,3,15),IF(C78&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -5707,14 +5671,14 @@
         <v>90</v>
       </c>
       <c r="J79" t="str">
-        <f>IF(C79&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K79" t="s">
         <v>55</v>
       </c>
       <c r="L79" t="str">
-        <f>IF(C79&gt;DATE(2020,3,15),IF(C79&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -5742,14 +5706,14 @@
       </c>
       <c r="I80" s="3"/>
       <c r="J80" t="str">
-        <f>IF(C80&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K80" t="s">
         <v>55</v>
       </c>
       <c r="L80" t="str">
-        <f>IF(C80&gt;DATE(2020,3,15),IF(C80&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -5777,14 +5741,14 @@
       </c>
       <c r="I81" s="3"/>
       <c r="J81" t="str">
-        <f>IF(C81&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K81" t="s">
         <v>55</v>
       </c>
       <c r="L81" t="str">
-        <f>IF(C81&gt;DATE(2020,3,15),IF(C81&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -5812,14 +5776,14 @@
       </c>
       <c r="I82" s="3"/>
       <c r="J82" t="str">
-        <f>IF(C82&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K82" t="s">
         <v>55</v>
       </c>
       <c r="L82" t="str">
-        <f>IF(C82&gt;DATE(2020,3,15),IF(C82&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -5847,14 +5811,14 @@
       </c>
       <c r="I83" s="3"/>
       <c r="J83" t="str">
-        <f>IF(C83&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K83" t="s">
         <v>55</v>
       </c>
       <c r="L83" t="str">
-        <f>IF(C83&gt;DATE(2020,3,15),IF(C83&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -5882,14 +5846,14 @@
       </c>
       <c r="I84" s="3"/>
       <c r="J84" t="str">
-        <f>IF(C84&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K84" t="s">
         <v>55</v>
       </c>
       <c r="L84" t="str">
-        <f>IF(C84&gt;DATE(2020,3,15),IF(C84&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -5917,14 +5881,14 @@
       </c>
       <c r="I85" s="3"/>
       <c r="J85" t="str">
-        <f>IF(C85&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K85" t="s">
         <v>55</v>
       </c>
       <c r="L85" t="str">
-        <f>IF(C85&gt;DATE(2020,3,15),IF(C85&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -5952,14 +5916,14 @@
       </c>
       <c r="I86" s="3"/>
       <c r="J86" t="str">
-        <f>IF(C86&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K86" t="s">
         <v>55</v>
       </c>
       <c r="L86" t="str">
-        <f>IF(C86&gt;DATE(2020,3,15),IF(C86&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -5987,14 +5951,14 @@
       </c>
       <c r="I87" s="3"/>
       <c r="J87" t="str">
-        <f>IF(C87&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K87" t="s">
         <v>55</v>
       </c>
       <c r="L87" t="str">
-        <f>IF(C87&gt;DATE(2020,3,15),IF(C87&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6017,14 +5981,14 @@
       </c>
       <c r="I88" s="3"/>
       <c r="J88" t="str">
-        <f>IF(C88&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K88" t="s">
         <v>55</v>
       </c>
       <c r="L88" t="str">
-        <f>IF(C88&gt;DATE(2020,3,15),IF(C88&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6047,14 +6011,14 @@
       </c>
       <c r="I89" s="3"/>
       <c r="J89" t="str">
-        <f>IF(C89&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K89" t="s">
         <v>55</v>
       </c>
       <c r="L89" t="str">
-        <f>IF(C89&gt;DATE(2020,3,15),IF(C89&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6082,14 +6046,14 @@
       </c>
       <c r="I90" s="3"/>
       <c r="J90" t="str">
-        <f>IF(C90&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K90" t="s">
         <v>55</v>
       </c>
       <c r="L90" t="str">
-        <f>IF(C90&gt;DATE(2020,3,15),IF(C90&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6117,14 +6081,14 @@
       </c>
       <c r="I91" s="3"/>
       <c r="J91" t="str">
-        <f>IF(C91&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K91" t="s">
         <v>55</v>
       </c>
       <c r="L91" t="str">
-        <f>IF(C91&gt;DATE(2020,3,15),IF(C91&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -6152,14 +6116,14 @@
       </c>
       <c r="I92" s="3"/>
       <c r="J92" t="str">
-        <f>IF(C92&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K92" t="s">
         <v>55</v>
       </c>
       <c r="L92" t="str">
-        <f>IF(C92&gt;DATE(2020,3,15),IF(C92&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -6180,21 +6144,21 @@
         <v>14.18</v>
       </c>
       <c r="G93" s="9">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H93" s="9">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" t="str">
-        <f>IF(C93&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K93" t="s">
         <v>55</v>
       </c>
       <c r="L93" t="str">
-        <f>IF(C93&gt;DATE(2020,3,15),IF(C93&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -6222,14 +6186,14 @@
       </c>
       <c r="I94" s="3"/>
       <c r="J94" t="str">
-        <f>IF(C94&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K94" t="s">
         <v>55</v>
       </c>
       <c r="L94" t="str">
-        <f>IF(C94&gt;DATE(2020,3,15),IF(C94&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -6260,14 +6224,14 @@
       </c>
       <c r="I95" s="3"/>
       <c r="J95" t="str">
-        <f>IF(C95&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K95" t="s">
         <v>55</v>
       </c>
       <c r="L95" t="str">
-        <f>IF(C95&gt;DATE(2020,3,15),IF(C95&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -6298,14 +6262,14 @@
       </c>
       <c r="I96" s="3"/>
       <c r="J96" t="str">
-        <f>IF(C96&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K96" t="s">
         <v>55</v>
       </c>
       <c r="L96" t="str">
-        <f>IF(C96&gt;DATE(2020,3,15),IF(C96&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -6338,14 +6302,14 @@
         <v>18</v>
       </c>
       <c r="J97" t="str">
-        <f>IF(C97&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K97" t="s">
         <v>55</v>
       </c>
       <c r="L97" t="str">
-        <f>IF(C97&gt;DATE(2020,3,15),IF(C97&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -6378,14 +6342,14 @@
         <v>19</v>
       </c>
       <c r="J98" t="str">
-        <f>IF(C98&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K98" t="s">
         <v>55</v>
       </c>
       <c r="L98" t="str">
-        <f>IF(C98&gt;DATE(2020,3,15),IF(C98&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -6418,14 +6382,14 @@
         <v>28</v>
       </c>
       <c r="J99" t="str">
-        <f>IF(C99&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K99" t="s">
         <v>55</v>
       </c>
       <c r="L99" t="str">
-        <f>IF(C99&gt;DATE(2020,3,15),IF(C99&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -6458,14 +6422,14 @@
         <v>39</v>
       </c>
       <c r="J100" t="str">
-        <f>IF(C100&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K100" t="s">
         <v>55</v>
       </c>
       <c r="L100" t="str">
-        <f>IF(C100&gt;DATE(2020,3,15),IF(C100&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -6498,14 +6462,14 @@
         <v>67</v>
       </c>
       <c r="J101" t="str">
-        <f>IF(C101&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K101" t="s">
         <v>55</v>
       </c>
       <c r="L101" t="str">
-        <f>IF(C101&gt;DATE(2020,3,15),IF(C101&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -6538,14 +6502,14 @@
         <v>80</v>
       </c>
       <c r="J102" t="str">
-        <f>IF(C102&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K102" t="s">
         <v>55</v>
       </c>
       <c r="L102" t="str">
-        <f>IF(C102&gt;DATE(2020,3,15),IF(C102&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -6578,14 +6542,14 @@
         <v>82</v>
       </c>
       <c r="J103" t="str">
-        <f>IF(C103&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K103" t="s">
         <v>55</v>
       </c>
       <c r="L103" t="str">
-        <f>IF(C103&gt;DATE(2020,3,15),IF(C103&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -6618,14 +6582,14 @@
         <v>100</v>
       </c>
       <c r="J104" t="str">
-        <f>IF(C104&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K104" t="s">
         <v>55</v>
       </c>
       <c r="L104" t="str">
-        <f>IF(C104&gt;DATE(2020,3,15),IF(C104&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -6658,14 +6622,14 @@
         <v>111</v>
       </c>
       <c r="J105" t="str">
-        <f>IF(C105&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K105" t="s">
         <v>55</v>
       </c>
       <c r="L105" t="str">
-        <f>IF(C105&gt;DATE(2020,3,15),IF(C105&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -6693,14 +6657,14 @@
       </c>
       <c r="I106" s="3"/>
       <c r="J106" t="str">
-        <f>IF(C106&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K106" t="s">
         <v>55</v>
       </c>
       <c r="L106" t="str">
-        <f>IF(C106&gt;DATE(2020,3,15),IF(C106&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6728,14 +6692,14 @@
       </c>
       <c r="I107" s="3"/>
       <c r="J107" t="str">
-        <f>IF(C107&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K107" t="s">
         <v>55</v>
       </c>
       <c r="L107" t="str">
-        <f>IF(C107&gt;DATE(2020,3,15),IF(C107&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6763,14 +6727,14 @@
       </c>
       <c r="I108" s="3"/>
       <c r="J108" t="str">
-        <f>IF(C108&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K108" t="s">
         <v>55</v>
       </c>
       <c r="L108" t="str">
-        <f>IF(C108&gt;DATE(2020,3,15),IF(C108&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6798,14 +6762,14 @@
       </c>
       <c r="I109" s="3"/>
       <c r="J109" t="str">
-        <f>IF(C109&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K109" t="s">
         <v>55</v>
       </c>
       <c r="L109" t="str">
-        <f>IF(C109&gt;DATE(2020,3,15),IF(C109&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6833,14 +6797,14 @@
       </c>
       <c r="I110" s="3"/>
       <c r="J110" t="str">
-        <f>IF(C110&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K110" t="s">
         <v>55</v>
       </c>
       <c r="L110" t="str">
-        <f>IF(C110&gt;DATE(2020,3,15),IF(C110&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6868,14 +6832,14 @@
       </c>
       <c r="I111" s="3"/>
       <c r="J111" t="str">
-        <f>IF(C111&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K111" t="s">
         <v>55</v>
       </c>
       <c r="L111" t="str">
-        <f>IF(C111&gt;DATE(2020,3,15),IF(C111&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6903,14 +6867,14 @@
       </c>
       <c r="I112" s="3"/>
       <c r="J112" t="str">
-        <f>IF(C112&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K112" t="s">
         <v>55</v>
       </c>
       <c r="L112" t="str">
-        <f>IF(C112&gt;DATE(2020,3,15),IF(C112&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6938,14 +6902,14 @@
       </c>
       <c r="I113" s="3"/>
       <c r="J113" t="str">
-        <f>IF(C113&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K113" t="s">
         <v>55</v>
       </c>
       <c r="L113" t="str">
-        <f>IF(C113&gt;DATE(2020,3,15),IF(C113&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6968,14 +6932,14 @@
       </c>
       <c r="I114" s="3"/>
       <c r="J114" t="str">
-        <f>IF(C114&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K114" t="s">
         <v>55</v>
       </c>
       <c r="L114" t="str">
-        <f>IF(C114&gt;DATE(2020,3,15),IF(C114&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -6998,14 +6962,14 @@
       </c>
       <c r="I115" s="3"/>
       <c r="J115" t="str">
-        <f>IF(C115&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K115" t="s">
         <v>55</v>
       </c>
       <c r="L115" t="str">
-        <f>IF(C115&gt;DATE(2020,3,15),IF(C115&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -7033,14 +6997,14 @@
       </c>
       <c r="I116" s="3"/>
       <c r="J116" t="str">
-        <f>IF(C116&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K116" t="s">
         <v>55</v>
       </c>
       <c r="L116" t="str">
-        <f>IF(C116&gt;DATE(2020,3,15),IF(C116&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
     </row>
@@ -7068,14 +7032,14 @@
       </c>
       <c r="I117" s="3"/>
       <c r="J117" t="str">
-        <f>IF(C117&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K117" t="s">
         <v>55</v>
       </c>
       <c r="L117" t="str">
-        <f>IF(C117&gt;DATE(2020,3,15),IF(C117&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -7103,14 +7067,14 @@
       </c>
       <c r="I118" s="3"/>
       <c r="J118" t="str">
-        <f>IF(C118&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K118" t="s">
         <v>55</v>
       </c>
       <c r="L118" t="str">
-        <f>IF(C118&gt;DATE(2020,3,15),IF(C118&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -7131,21 +7095,21 @@
         <v>9.84</v>
       </c>
       <c r="G119" s="9">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H119" s="9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" t="str">
-        <f>IF(C119&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K119" t="s">
         <v>55</v>
       </c>
       <c r="L119" t="str">
-        <f>IF(C119&gt;DATE(2020,3,15),IF(C119&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -7173,14 +7137,14 @@
       </c>
       <c r="I120" s="3"/>
       <c r="J120" t="str">
-        <f>IF(C120&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K120" t="s">
         <v>55</v>
       </c>
       <c r="L120" t="str">
-        <f>IF(C120&gt;DATE(2020,3,15),IF(C120&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -7211,14 +7175,14 @@
       </c>
       <c r="I121" s="3"/>
       <c r="J121" t="str">
-        <f>IF(C121&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K121" t="s">
         <v>55</v>
       </c>
       <c r="L121" t="str">
-        <f>IF(C121&gt;DATE(2020,3,15),IF(C121&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -7249,14 +7213,14 @@
       </c>
       <c r="I122" s="3"/>
       <c r="J122" t="str">
-        <f>IF(C122&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K122" t="s">
         <v>55</v>
       </c>
       <c r="L122" t="str">
-        <f>IF(C122&gt;DATE(2020,3,15),IF(C122&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -7289,14 +7253,14 @@
         <v>7</v>
       </c>
       <c r="J123" t="str">
-        <f>IF(C123&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="K123" t="s">
         <v>55</v>
       </c>
       <c r="L123" t="str">
-        <f>IF(C123&gt;DATE(2020,3,15),IF(C123&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Debil</v>
       </c>
     </row>
@@ -7329,14 +7293,14 @@
         <v>8</v>
       </c>
       <c r="J124" t="str">
-        <f>IF(C124&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K124" t="s">
         <v>55</v>
       </c>
       <c r="L124" t="str">
-        <f>IF(C124&gt;DATE(2020,3,15),IF(C124&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -7369,14 +7333,14 @@
         <v>15</v>
       </c>
       <c r="J125" t="str">
-        <f>IF(C125&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K125" t="s">
         <v>55</v>
       </c>
       <c r="L125" t="str">
-        <f>IF(C125&gt;DATE(2020,3,15),IF(C125&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -7409,14 +7373,14 @@
         <v>18</v>
       </c>
       <c r="J126" t="str">
-        <f>IF(C126&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K126" t="s">
         <v>55</v>
       </c>
       <c r="L126" t="str">
-        <f>IF(C126&gt;DATE(2020,3,15),IF(C126&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -7449,14 +7413,14 @@
         <v>20</v>
       </c>
       <c r="J127" t="str">
-        <f>IF(C127&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K127" t="s">
         <v>55</v>
       </c>
       <c r="L127" t="str">
-        <f>IF(C127&gt;DATE(2020,3,15),IF(C127&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -7489,14 +7453,14 @@
         <v>25</v>
       </c>
       <c r="J128" t="str">
-        <f>IF(C128&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K128" t="s">
         <v>55</v>
       </c>
       <c r="L128" t="str">
-        <f>IF(C128&gt;DATE(2020,3,15),IF(C128&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -7529,14 +7493,14 @@
         <v>30</v>
       </c>
       <c r="J129" t="str">
-        <f>IF(C129&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="2"/>
         <v>Si</v>
       </c>
       <c r="K129" t="s">
         <v>55</v>
       </c>
       <c r="L129" t="str">
-        <f>IF(C129&gt;DATE(2020,3,15),IF(C129&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="3"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -7569,14 +7533,14 @@
         <v>32</v>
       </c>
       <c r="J130" t="str">
-        <f>IF(C130&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" ref="J130:J193" si="4">IF(C130&gt;DATE(2020,3,22),"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="K130" t="s">
         <v>55</v>
       </c>
       <c r="L130" t="str">
-        <f>IF(C130&gt;DATE(2020,3,15),IF(C130&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" ref="L130:L193" si="5">IF(C130&gt;DATE(2020,3,15),IF(C130&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
         <v>Fuerte</v>
       </c>
     </row>
@@ -7609,14 +7573,14 @@
         <v>57</v>
       </c>
       <c r="J131" t="str">
-        <f>IF(C131&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K131" t="s">
         <v>55</v>
       </c>
       <c r="L131" t="str">
-        <f>IF(C131&gt;DATE(2020,3,15),IF(C131&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -7644,14 +7608,14 @@
       </c>
       <c r="I132" s="3"/>
       <c r="J132" t="str">
-        <f>IF(C132&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K132" t="s">
         <v>55</v>
       </c>
       <c r="L132" t="str">
-        <f>IF(C132&gt;DATE(2020,3,15),IF(C132&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -7679,14 +7643,14 @@
       </c>
       <c r="I133" s="3"/>
       <c r="J133" t="str">
-        <f>IF(C133&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K133" t="s">
         <v>55</v>
       </c>
       <c r="L133" t="str">
-        <f>IF(C133&gt;DATE(2020,3,15),IF(C133&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -7714,14 +7678,14 @@
       </c>
       <c r="I134" s="3"/>
       <c r="J134" t="str">
-        <f>IF(C134&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K134" t="s">
         <v>55</v>
       </c>
       <c r="L134" t="str">
-        <f>IF(C134&gt;DATE(2020,3,15),IF(C134&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -7749,14 +7713,14 @@
       </c>
       <c r="I135" s="3"/>
       <c r="J135" t="str">
-        <f>IF(C135&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K135" t="s">
         <v>55</v>
       </c>
       <c r="L135" t="str">
-        <f>IF(C135&gt;DATE(2020,3,15),IF(C135&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -7784,14 +7748,14 @@
       </c>
       <c r="I136" s="3"/>
       <c r="J136" t="str">
-        <f>IF(C136&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K136" t="s">
         <v>55</v>
       </c>
       <c r="L136" t="str">
-        <f>IF(C136&gt;DATE(2020,3,15),IF(C136&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -7819,14 +7783,14 @@
       </c>
       <c r="I137" s="3"/>
       <c r="J137" t="str">
-        <f>IF(C137&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K137" t="s">
         <v>55</v>
       </c>
       <c r="L137" t="str">
-        <f>IF(C137&gt;DATE(2020,3,15),IF(C137&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -7854,14 +7818,14 @@
       </c>
       <c r="I138" s="3"/>
       <c r="J138" t="str">
-        <f>IF(C138&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K138" t="s">
         <v>55</v>
       </c>
       <c r="L138" t="str">
-        <f>IF(C138&gt;DATE(2020,3,15),IF(C138&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -7889,14 +7853,14 @@
       </c>
       <c r="I139" s="3"/>
       <c r="J139" t="str">
-        <f>IF(C139&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K139" t="s">
         <v>55</v>
       </c>
       <c r="L139" t="str">
-        <f>IF(C139&gt;DATE(2020,3,15),IF(C139&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -7919,14 +7883,14 @@
       </c>
       <c r="I140" s="3"/>
       <c r="J140" t="str">
-        <f>IF(C140&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K140" t="s">
         <v>55</v>
       </c>
       <c r="L140" t="str">
-        <f>IF(C140&gt;DATE(2020,3,15),IF(C140&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -7949,14 +7913,14 @@
       </c>
       <c r="I141" s="3"/>
       <c r="J141" t="str">
-        <f>IF(C141&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K141" t="s">
         <v>55</v>
       </c>
       <c r="L141" t="str">
-        <f>IF(C141&gt;DATE(2020,3,15),IF(C141&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -7984,14 +7948,14 @@
       </c>
       <c r="I142" s="3"/>
       <c r="J142" t="str">
-        <f>IF(C142&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K142" t="s">
         <v>55</v>
       </c>
       <c r="L142" t="str">
-        <f>IF(C142&gt;DATE(2020,3,15),IF(C142&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8019,14 +7983,14 @@
       </c>
       <c r="I143" s="3"/>
       <c r="J143" t="str">
-        <f>IF(C143&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K143" t="s">
         <v>55</v>
       </c>
       <c r="L143" t="str">
-        <f>IF(C143&gt;DATE(2020,3,15),IF(C143&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -8054,14 +8018,14 @@
       </c>
       <c r="I144" s="3"/>
       <c r="J144" t="str">
-        <f>IF(C144&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K144" t="s">
         <v>55</v>
       </c>
       <c r="L144" t="str">
-        <f>IF(C144&gt;DATE(2020,3,15),IF(C144&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -8082,21 +8046,21 @@
         <v>12.56</v>
       </c>
       <c r="G145" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H145" s="9">
         <v>1</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" t="str">
-        <f>IF(C145&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K145" t="s">
         <v>55</v>
       </c>
       <c r="L145" t="str">
-        <f>IF(C145&gt;DATE(2020,3,15),IF(C145&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -8124,14 +8088,14 @@
       </c>
       <c r="I146" s="3"/>
       <c r="J146" t="str">
-        <f>IF(C146&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K146" t="s">
         <v>55</v>
       </c>
       <c r="L146" t="str">
-        <f>IF(C146&gt;DATE(2020,3,15),IF(C146&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -8162,14 +8126,14 @@
       </c>
       <c r="I147" s="3"/>
       <c r="J147" t="str">
-        <f>IF(C147&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K147" t="s">
         <v>55</v>
       </c>
       <c r="L147" t="str">
-        <f>IF(C147&gt;DATE(2020,3,15),IF(C147&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -8200,14 +8164,14 @@
       </c>
       <c r="I148" s="3"/>
       <c r="J148" t="str">
-        <f>IF(C148&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K148" t="s">
         <v>55</v>
       </c>
       <c r="L148" t="str">
-        <f>IF(C148&gt;DATE(2020,3,15),IF(C148&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -8240,14 +8204,14 @@
         <v>11</v>
       </c>
       <c r="J149" t="str">
-        <f>IF(C149&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K149" t="s">
         <v>55</v>
       </c>
       <c r="L149" t="str">
-        <f>IF(C149&gt;DATE(2020,3,15),IF(C149&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -8280,14 +8244,14 @@
         <v>12</v>
       </c>
       <c r="J150" t="str">
-        <f>IF(C150&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K150" t="s">
         <v>55</v>
       </c>
       <c r="L150" t="str">
-        <f>IF(C150&gt;DATE(2020,3,15),IF(C150&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -8320,14 +8284,14 @@
         <v>12</v>
       </c>
       <c r="J151" t="str">
-        <f>IF(C151&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K151" t="s">
         <v>55</v>
       </c>
       <c r="L151" t="str">
-        <f>IF(C151&gt;DATE(2020,3,15),IF(C151&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -8360,14 +8324,14 @@
         <v>14</v>
       </c>
       <c r="J152" t="str">
-        <f>IF(C152&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K152" t="s">
         <v>55</v>
       </c>
       <c r="L152" t="str">
-        <f>IF(C152&gt;DATE(2020,3,15),IF(C152&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -8400,14 +8364,14 @@
         <v>19</v>
       </c>
       <c r="J153" t="str">
-        <f>IF(C153&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K153" t="s">
         <v>55</v>
       </c>
       <c r="L153" t="str">
-        <f>IF(C153&gt;DATE(2020,3,15),IF(C153&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -8440,14 +8404,14 @@
         <v>21</v>
       </c>
       <c r="J154" t="str">
-        <f>IF(C154&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K154" t="s">
         <v>55</v>
       </c>
       <c r="L154" t="str">
-        <f>IF(C154&gt;DATE(2020,3,15),IF(C154&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -8480,14 +8444,14 @@
         <v>25</v>
       </c>
       <c r="J155" t="str">
-        <f>IF(C155&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K155" t="s">
         <v>55</v>
       </c>
       <c r="L155" t="str">
-        <f>IF(C155&gt;DATE(2020,3,15),IF(C155&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -8520,14 +8484,14 @@
         <v>24</v>
       </c>
       <c r="J156" t="str">
-        <f>IF(C156&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K156" t="s">
         <v>55</v>
       </c>
       <c r="L156" t="str">
-        <f>IF(C156&gt;DATE(2020,3,15),IF(C156&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -8560,14 +8524,14 @@
         <v>35</v>
       </c>
       <c r="J157" t="str">
-        <f>IF(C157&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K157" t="s">
         <v>55</v>
       </c>
       <c r="L157" t="str">
-        <f>IF(C157&gt;DATE(2020,3,15),IF(C157&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -8595,14 +8559,14 @@
       </c>
       <c r="I158" s="3"/>
       <c r="J158" t="str">
-        <f>IF(C158&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K158" t="s">
         <v>55</v>
       </c>
       <c r="L158" t="str">
-        <f>IF(C158&gt;DATE(2020,3,15),IF(C158&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8630,14 +8594,14 @@
       </c>
       <c r="I159" s="3"/>
       <c r="J159" t="str">
-        <f>IF(C159&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K159" t="s">
         <v>55</v>
       </c>
       <c r="L159" t="str">
-        <f>IF(C159&gt;DATE(2020,3,15),IF(C159&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8665,14 +8629,14 @@
       </c>
       <c r="I160" s="3"/>
       <c r="J160" t="str">
-        <f>IF(C160&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K160" t="s">
         <v>55</v>
       </c>
       <c r="L160" t="str">
-        <f>IF(C160&gt;DATE(2020,3,15),IF(C160&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8700,14 +8664,14 @@
       </c>
       <c r="I161" s="3"/>
       <c r="J161" t="str">
-        <f>IF(C161&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K161" t="s">
         <v>55</v>
       </c>
       <c r="L161" t="str">
-        <f>IF(C161&gt;DATE(2020,3,15),IF(C161&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8735,14 +8699,14 @@
       </c>
       <c r="I162" s="3"/>
       <c r="J162" t="str">
-        <f>IF(C162&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K162" t="s">
         <v>55</v>
       </c>
       <c r="L162" t="str">
-        <f>IF(C162&gt;DATE(2020,3,15),IF(C162&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8770,14 +8734,14 @@
       </c>
       <c r="I163" s="3"/>
       <c r="J163" t="str">
-        <f>IF(C163&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K163" t="s">
         <v>55</v>
       </c>
       <c r="L163" t="str">
-        <f>IF(C163&gt;DATE(2020,3,15),IF(C163&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8805,14 +8769,14 @@
       </c>
       <c r="I164" s="3"/>
       <c r="J164" t="str">
-        <f>IF(C164&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K164" t="s">
         <v>55</v>
       </c>
       <c r="L164" t="str">
-        <f>IF(C164&gt;DATE(2020,3,15),IF(C164&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8840,14 +8804,14 @@
       </c>
       <c r="I165" s="3"/>
       <c r="J165" t="str">
-        <f>IF(C165&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K165" t="s">
         <v>55</v>
       </c>
       <c r="L165" t="str">
-        <f>IF(C165&gt;DATE(2020,3,15),IF(C165&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8870,14 +8834,14 @@
       </c>
       <c r="I166" s="3"/>
       <c r="J166" t="str">
-        <f>IF(C166&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K166" t="s">
         <v>55</v>
       </c>
       <c r="L166" t="str">
-        <f>IF(C166&gt;DATE(2020,3,15),IF(C166&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8900,14 +8864,14 @@
       </c>
       <c r="I167" s="3"/>
       <c r="J167" t="str">
-        <f>IF(C167&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K167" t="s">
         <v>55</v>
       </c>
       <c r="L167" t="str">
-        <f>IF(C167&gt;DATE(2020,3,15),IF(C167&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8935,14 +8899,14 @@
       </c>
       <c r="I168" s="3"/>
       <c r="J168" t="str">
-        <f>IF(C168&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K168" t="s">
         <v>55</v>
       </c>
       <c r="L168" t="str">
-        <f>IF(C168&gt;DATE(2020,3,15),IF(C168&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8970,14 +8934,14 @@
       </c>
       <c r="I169" s="3"/>
       <c r="J169" t="str">
-        <f>IF(C169&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K169" t="s">
         <v>55</v>
       </c>
       <c r="L169" t="str">
-        <f>IF(C169&gt;DATE(2020,3,15),IF(C169&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -9005,14 +8969,14 @@
       </c>
       <c r="I170" s="3"/>
       <c r="J170" t="str">
-        <f>IF(C170&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K170" t="s">
         <v>55</v>
       </c>
       <c r="L170" t="str">
-        <f>IF(C170&gt;DATE(2020,3,15),IF(C170&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -9033,21 +8997,21 @@
         <v>35.72</v>
       </c>
       <c r="G171" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H171" s="9">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" t="str">
-        <f>IF(C171&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K171" t="s">
         <v>55</v>
       </c>
       <c r="L171" t="str">
-        <f>IF(C171&gt;DATE(2020,3,15),IF(C171&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -9075,14 +9039,14 @@
       </c>
       <c r="I172" s="3"/>
       <c r="J172" t="str">
-        <f>IF(C172&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K172" t="s">
         <v>55</v>
       </c>
       <c r="L172" t="str">
-        <f>IF(C172&gt;DATE(2020,3,15),IF(C172&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -9113,14 +9077,14 @@
       </c>
       <c r="I173" s="3"/>
       <c r="J173" t="str">
-        <f>IF(C173&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K173" t="s">
         <v>55</v>
       </c>
       <c r="L173" t="str">
-        <f>IF(C173&gt;DATE(2020,3,15),IF(C173&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -9151,14 +9115,14 @@
       </c>
       <c r="I174" s="3"/>
       <c r="J174" t="str">
-        <f>IF(C174&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K174" t="s">
         <v>55</v>
       </c>
       <c r="L174" t="str">
-        <f>IF(C174&gt;DATE(2020,3,15),IF(C174&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -9191,14 +9155,14 @@
         <v>117</v>
       </c>
       <c r="J175" t="str">
-        <f>IF(C175&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K175" t="s">
         <v>55</v>
       </c>
       <c r="L175" t="str">
-        <f>IF(C175&gt;DATE(2020,3,15),IF(C175&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Debil</v>
       </c>
     </row>
@@ -9231,14 +9195,14 @@
         <v>140</v>
       </c>
       <c r="J176" t="str">
-        <f>IF(C176&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K176" t="s">
         <v>55</v>
       </c>
       <c r="L176" t="str">
-        <f>IF(C176&gt;DATE(2020,3,15),IF(C176&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -9271,14 +9235,14 @@
         <v>213</v>
       </c>
       <c r="J177" t="str">
-        <f>IF(C177&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K177" t="s">
         <v>55</v>
       </c>
       <c r="L177" t="str">
-        <f>IF(C177&gt;DATE(2020,3,15),IF(C177&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -9311,14 +9275,14 @@
         <v>308</v>
       </c>
       <c r="J178" t="str">
-        <f>IF(C178&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K178" t="s">
         <v>55</v>
       </c>
       <c r="L178" t="str">
-        <f>IF(C178&gt;DATE(2020,3,15),IF(C178&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -9351,14 +9315,14 @@
         <v>423</v>
       </c>
       <c r="J179" t="str">
-        <f>IF(C179&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K179" t="s">
         <v>55</v>
       </c>
       <c r="L179" t="str">
-        <f>IF(C179&gt;DATE(2020,3,15),IF(C179&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -9391,14 +9355,14 @@
         <v>585</v>
       </c>
       <c r="J180" t="str">
-        <f>IF(C180&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K180" t="s">
         <v>55</v>
       </c>
       <c r="L180" t="str">
-        <f>IF(C180&gt;DATE(2020,3,15),IF(C180&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -9431,14 +9395,14 @@
         <v>752</v>
       </c>
       <c r="J181" t="str">
-        <f>IF(C181&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K181" t="s">
         <v>55</v>
       </c>
       <c r="L181" t="str">
-        <f>IF(C181&gt;DATE(2020,3,15),IF(C181&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -9471,14 +9435,14 @@
         <v>871</v>
       </c>
       <c r="J182" t="str">
-        <f>IF(C182&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K182" t="s">
         <v>55</v>
       </c>
       <c r="L182" t="str">
-        <f>IF(C182&gt;DATE(2020,3,15),IF(C182&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -9511,14 +9475,14 @@
         <v>1028</v>
       </c>
       <c r="J183" t="str">
-        <f>IF(C183&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>Si</v>
       </c>
       <c r="K183" t="s">
         <v>55</v>
       </c>
       <c r="L183" t="str">
-        <f>IF(C183&gt;DATE(2020,3,15),IF(C183&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -9546,14 +9510,14 @@
       </c>
       <c r="I184" s="3"/>
       <c r="J184" t="str">
-        <f>IF(C184&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K184" t="s">
         <v>55</v>
       </c>
       <c r="L184" t="str">
-        <f>IF(C184&gt;DATE(2020,3,15),IF(C184&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -9581,14 +9545,14 @@
       </c>
       <c r="I185" s="3"/>
       <c r="J185" t="str">
-        <f>IF(C185&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K185" t="s">
         <v>55</v>
       </c>
       <c r="L185" t="str">
-        <f>IF(C185&gt;DATE(2020,3,15),IF(C185&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -9616,14 +9580,14 @@
       </c>
       <c r="I186" s="3"/>
       <c r="J186" t="str">
-        <f>IF(C186&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K186" t="s">
         <v>55</v>
       </c>
       <c r="L186" t="str">
-        <f>IF(C186&gt;DATE(2020,3,15),IF(C186&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -9651,14 +9615,14 @@
       </c>
       <c r="I187" s="3"/>
       <c r="J187" t="str">
-        <f>IF(C187&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K187" t="s">
         <v>55</v>
       </c>
       <c r="L187" t="str">
-        <f>IF(C187&gt;DATE(2020,3,15),IF(C187&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -9686,14 +9650,14 @@
       </c>
       <c r="I188" s="3"/>
       <c r="J188" t="str">
-        <f>IF(C188&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K188" t="s">
         <v>55</v>
       </c>
       <c r="L188" t="str">
-        <f>IF(C188&gt;DATE(2020,3,15),IF(C188&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -9721,14 +9685,14 @@
       </c>
       <c r="I189" s="3"/>
       <c r="J189" t="str">
-        <f>IF(C189&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K189" t="s">
         <v>55</v>
       </c>
       <c r="L189" t="str">
-        <f>IF(C189&gt;DATE(2020,3,15),IF(C189&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -9756,14 +9720,14 @@
       </c>
       <c r="I190" s="3"/>
       <c r="J190" t="str">
-        <f>IF(C190&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K190" t="s">
         <v>55</v>
       </c>
       <c r="L190" t="str">
-        <f>IF(C190&gt;DATE(2020,3,15),IF(C190&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -9791,14 +9755,14 @@
       </c>
       <c r="I191" s="3"/>
       <c r="J191" t="str">
-        <f>IF(C191&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K191" t="s">
         <v>55</v>
       </c>
       <c r="L191" t="str">
-        <f>IF(C191&gt;DATE(2020,3,15),IF(C191&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -9821,14 +9785,14 @@
       </c>
       <c r="I192" s="3"/>
       <c r="J192" t="str">
-        <f>IF(C192&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K192" t="s">
         <v>55</v>
       </c>
       <c r="L192" t="str">
-        <f>IF(C192&gt;DATE(2020,3,15),IF(C192&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -9851,14 +9815,14 @@
       </c>
       <c r="I193" s="3"/>
       <c r="J193" t="str">
-        <f>IF(C193&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K193" t="s">
         <v>55</v>
       </c>
       <c r="L193" t="str">
-        <f>IF(C193&gt;DATE(2020,3,15),IF(C193&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -9886,14 +9850,14 @@
       </c>
       <c r="I194" s="3"/>
       <c r="J194" t="str">
-        <f>IF(C194&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" ref="J194:J257" si="6">IF(C194&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
       </c>
       <c r="K194" t="s">
         <v>55</v>
       </c>
       <c r="L194" t="str">
-        <f>IF(C194&gt;DATE(2020,3,15),IF(C194&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" ref="L194:L257" si="7">IF(C194&gt;DATE(2020,3,15),IF(C194&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
         <v>No</v>
       </c>
     </row>
@@ -9921,14 +9885,14 @@
       </c>
       <c r="I195" s="3"/>
       <c r="J195" t="str">
-        <f>IF(C195&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K195" t="s">
         <v>55</v>
       </c>
       <c r="L195" t="str">
-        <f>IF(C195&gt;DATE(2020,3,15),IF(C195&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -9956,14 +9920,14 @@
       </c>
       <c r="I196" s="3"/>
       <c r="J196" t="str">
-        <f>IF(C196&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K196" t="s">
         <v>55</v>
       </c>
       <c r="L196" t="str">
-        <f>IF(C196&gt;DATE(2020,3,15),IF(C196&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -9984,21 +9948,21 @@
         <v>38.76</v>
       </c>
       <c r="G197" s="9">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="H197" s="9">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" t="str">
-        <f>IF(C197&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K197" t="s">
         <v>55</v>
       </c>
       <c r="L197" t="str">
-        <f>IF(C197&gt;DATE(2020,3,15),IF(C197&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -10026,14 +9990,14 @@
       </c>
       <c r="I198" s="3"/>
       <c r="J198" t="str">
-        <f>IF(C198&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K198" t="s">
         <v>55</v>
       </c>
       <c r="L198" t="str">
-        <f>IF(C198&gt;DATE(2020,3,15),IF(C198&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -10064,14 +10028,14 @@
       </c>
       <c r="I199" s="3"/>
       <c r="J199" t="str">
-        <f>IF(C199&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K199" t="s">
         <v>55</v>
       </c>
       <c r="L199" t="str">
-        <f>IF(C199&gt;DATE(2020,3,15),IF(C199&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -10102,14 +10066,14 @@
       </c>
       <c r="I200" s="3"/>
       <c r="J200" t="str">
-        <f>IF(C200&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K200" t="s">
         <v>55</v>
       </c>
       <c r="L200" t="str">
-        <f>IF(C200&gt;DATE(2020,3,15),IF(C200&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -10142,14 +10106,14 @@
         <v>51</v>
       </c>
       <c r="J201" t="str">
-        <f>IF(C201&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K201" t="s">
         <v>55</v>
       </c>
       <c r="L201" t="str">
-        <f>IF(C201&gt;DATE(2020,3,15),IF(C201&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -10182,14 +10146,14 @@
         <v>53</v>
       </c>
       <c r="J202" t="str">
-        <f>IF(C202&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K202" t="s">
         <v>55</v>
       </c>
       <c r="L202" t="str">
-        <f>IF(C202&gt;DATE(2020,3,15),IF(C202&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -10222,14 +10186,14 @@
         <v>71</v>
       </c>
       <c r="J203" t="str">
-        <f>IF(C203&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K203" t="s">
         <v>55</v>
       </c>
       <c r="L203" t="str">
-        <f>IF(C203&gt;DATE(2020,3,15),IF(C203&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -10262,14 +10226,14 @@
         <v>95</v>
       </c>
       <c r="J204" t="str">
-        <f>IF(C204&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K204" t="s">
         <v>55</v>
       </c>
       <c r="L204" t="str">
-        <f>IF(C204&gt;DATE(2020,3,15),IF(C204&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -10302,14 +10266,14 @@
         <v>153</v>
       </c>
       <c r="J205" t="str">
-        <f>IF(C205&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K205" t="s">
         <v>55</v>
       </c>
       <c r="L205" t="str">
-        <f>IF(C205&gt;DATE(2020,3,15),IF(C205&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -10342,14 +10306,14 @@
         <v>197</v>
       </c>
       <c r="J206" t="str">
-        <f>IF(C206&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K206" t="s">
         <v>55</v>
       </c>
       <c r="L206" t="str">
-        <f>IF(C206&gt;DATE(2020,3,15),IF(C206&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -10382,14 +10346,14 @@
         <v>236</v>
       </c>
       <c r="J207" t="str">
-        <f>IF(C207&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K207" t="s">
         <v>55</v>
       </c>
       <c r="L207" t="str">
-        <f>IF(C207&gt;DATE(2020,3,15),IF(C207&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -10422,14 +10386,14 @@
         <v>252</v>
       </c>
       <c r="J208" t="str">
-        <f>IF(C208&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K208" t="s">
         <v>55</v>
       </c>
       <c r="L208" t="str">
-        <f>IF(C208&gt;DATE(2020,3,15),IF(C208&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -10462,14 +10426,14 @@
         <v>296</v>
       </c>
       <c r="J209" t="str">
-        <f>IF(C209&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K209" t="s">
         <v>55</v>
       </c>
       <c r="L209" t="str">
-        <f>IF(C209&gt;DATE(2020,3,15),IF(C209&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -10497,14 +10461,14 @@
       </c>
       <c r="I210" s="3"/>
       <c r="J210" t="str">
-        <f>IF(C210&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K210" t="s">
         <v>55</v>
       </c>
       <c r="L210" t="str">
-        <f>IF(C210&gt;DATE(2020,3,15),IF(C210&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -10532,14 +10496,14 @@
       </c>
       <c r="I211" s="3"/>
       <c r="J211" t="str">
-        <f>IF(C211&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K211" t="s">
         <v>55</v>
       </c>
       <c r="L211" t="str">
-        <f>IF(C211&gt;DATE(2020,3,15),IF(C211&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -10567,14 +10531,14 @@
       </c>
       <c r="I212" s="3"/>
       <c r="J212" t="str">
-        <f>IF(C212&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K212" t="s">
         <v>55</v>
       </c>
       <c r="L212" t="str">
-        <f>IF(C212&gt;DATE(2020,3,15),IF(C212&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -10602,14 +10566,14 @@
       </c>
       <c r="I213" s="3"/>
       <c r="J213" t="str">
-        <f>IF(C213&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K213" t="s">
         <v>55</v>
       </c>
       <c r="L213" t="str">
-        <f>IF(C213&gt;DATE(2020,3,15),IF(C213&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -10637,14 +10601,14 @@
       </c>
       <c r="I214" s="3"/>
       <c r="J214" t="str">
-        <f>IF(C214&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K214" t="s">
         <v>55</v>
       </c>
       <c r="L214" t="str">
-        <f>IF(C214&gt;DATE(2020,3,15),IF(C214&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -10672,14 +10636,14 @@
       </c>
       <c r="I215" s="3"/>
       <c r="J215" t="str">
-        <f>IF(C215&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K215" t="s">
         <v>55</v>
       </c>
       <c r="L215" t="str">
-        <f>IF(C215&gt;DATE(2020,3,15),IF(C215&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -10707,14 +10671,14 @@
       </c>
       <c r="I216" s="3"/>
       <c r="J216" t="str">
-        <f>IF(C216&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K216" t="s">
         <v>55</v>
       </c>
       <c r="L216" t="str">
-        <f>IF(C216&gt;DATE(2020,3,15),IF(C216&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -10742,14 +10706,14 @@
       </c>
       <c r="I217" s="3"/>
       <c r="J217" t="str">
-        <f>IF(C217&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K217" t="s">
         <v>55</v>
       </c>
       <c r="L217" t="str">
-        <f>IF(C217&gt;DATE(2020,3,15),IF(C217&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -10772,14 +10736,14 @@
       </c>
       <c r="I218" s="3"/>
       <c r="J218" t="str">
-        <f>IF(C218&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K218" t="s">
         <v>55</v>
       </c>
       <c r="L218" t="str">
-        <f>IF(C218&gt;DATE(2020,3,15),IF(C218&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -10802,14 +10766,14 @@
       </c>
       <c r="I219" s="3"/>
       <c r="J219" t="str">
-        <f>IF(C219&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K219" t="s">
         <v>55</v>
       </c>
       <c r="L219" t="str">
-        <f>IF(C219&gt;DATE(2020,3,15),IF(C219&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -10838,14 +10802,14 @@
       </c>
       <c r="I220" s="3"/>
       <c r="J220" t="str">
-        <f>IF(C220&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K220" t="s">
         <v>55</v>
       </c>
       <c r="L220" t="str">
-        <f>IF(C220&gt;DATE(2020,3,15),IF(C220&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -10873,14 +10837,14 @@
       </c>
       <c r="I221" s="3"/>
       <c r="J221" t="str">
-        <f>IF(C221&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K221" t="s">
         <v>55</v>
       </c>
       <c r="L221" t="str">
-        <f>IF(C221&gt;DATE(2020,3,15),IF(C221&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -10908,14 +10872,14 @@
       </c>
       <c r="I222" s="3"/>
       <c r="J222" t="str">
-        <f>IF(C222&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K222" t="s">
         <v>55</v>
       </c>
       <c r="L222" t="str">
-        <f>IF(C222&gt;DATE(2020,3,15),IF(C222&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -10936,21 +10900,21 @@
         <v>34.89</v>
       </c>
       <c r="G223" s="9">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H223" s="9">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" t="str">
-        <f>IF(C223&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K223" t="s">
         <v>55</v>
       </c>
       <c r="L223" t="str">
-        <f>IF(C223&gt;DATE(2020,3,15),IF(C223&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -10978,14 +10942,14 @@
       </c>
       <c r="I224" s="3"/>
       <c r="J224" t="str">
-        <f>IF(C224&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K224" t="s">
         <v>55</v>
       </c>
       <c r="L224" t="str">
-        <f>IF(C224&gt;DATE(2020,3,15),IF(C224&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -11016,14 +10980,14 @@
       </c>
       <c r="I225" s="3"/>
       <c r="J225" t="str">
-        <f>IF(C225&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K225" t="s">
         <v>55</v>
       </c>
       <c r="L225" t="str">
-        <f>IF(C225&gt;DATE(2020,3,15),IF(C225&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -11054,14 +11018,14 @@
       </c>
       <c r="I226" s="3"/>
       <c r="J226" t="str">
-        <f>IF(C226&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K226" t="s">
         <v>55</v>
       </c>
       <c r="L226" t="str">
-        <f>IF(C226&gt;DATE(2020,3,15),IF(C226&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -11094,14 +11058,14 @@
         <v>644</v>
       </c>
       <c r="J227" t="str">
-        <f>IF(C227&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K227" t="s">
         <v>55</v>
       </c>
       <c r="L227" t="str">
-        <f>IF(C227&gt;DATE(2020,3,15),IF(C227&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -11134,14 +11098,14 @@
         <v>728</v>
       </c>
       <c r="J228" t="str">
-        <f>IF(C228&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K228" t="s">
         <v>55</v>
       </c>
       <c r="L228" t="str">
-        <f>IF(C228&gt;DATE(2020,3,15),IF(C228&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -11174,14 +11138,14 @@
         <v>1274</v>
       </c>
       <c r="J229" t="str">
-        <f>IF(C229&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K229" t="s">
         <v>55</v>
       </c>
       <c r="L229" t="str">
-        <f>IF(C229&gt;DATE(2020,3,15),IF(C229&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -11214,14 +11178,14 @@
         <v>1697</v>
       </c>
       <c r="J230" t="str">
-        <f>IF(C230&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K230" t="s">
         <v>55</v>
       </c>
       <c r="L230" t="str">
-        <f>IF(C230&gt;DATE(2020,3,15),IF(C230&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -11254,14 +11218,14 @@
         <v>2348</v>
       </c>
       <c r="J231" t="str">
-        <f>IF(C231&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K231" t="s">
         <v>55</v>
       </c>
       <c r="L231" t="str">
-        <f>IF(C231&gt;DATE(2020,3,15),IF(C231&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -11294,14 +11258,14 @@
         <v>3106</v>
       </c>
       <c r="J232" t="str">
-        <f>IF(C232&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K232" t="s">
         <v>55</v>
       </c>
       <c r="L232" t="str">
-        <f>IF(C232&gt;DATE(2020,3,15),IF(C232&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -11334,14 +11298,14 @@
         <v>3455</v>
       </c>
       <c r="J233" t="str">
-        <f>IF(C233&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K233" t="s">
         <v>55</v>
       </c>
       <c r="L233" t="str">
-        <f>IF(C233&gt;DATE(2020,3,15),IF(C233&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -11374,14 +11338,14 @@
         <v>4125</v>
       </c>
       <c r="J234" t="str">
-        <f>IF(C234&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K234" t="s">
         <v>55</v>
       </c>
       <c r="L234" t="str">
-        <f>IF(C234&gt;DATE(2020,3,15),IF(C234&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -11414,14 +11378,14 @@
         <v>4966</v>
       </c>
       <c r="J235" t="str">
-        <f>IF(C235&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K235" t="s">
         <v>55</v>
       </c>
       <c r="L235" t="str">
-        <f>IF(C235&gt;DATE(2020,3,15),IF(C235&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -11449,14 +11413,14 @@
       </c>
       <c r="I236" s="3"/>
       <c r="J236" t="str">
-        <f>IF(C236&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K236" t="s">
         <v>55</v>
       </c>
       <c r="L236" t="str">
-        <f>IF(C236&gt;DATE(2020,3,15),IF(C236&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -11484,14 +11448,14 @@
       </c>
       <c r="I237" s="3"/>
       <c r="J237" t="str">
-        <f>IF(C237&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K237" t="s">
         <v>55</v>
       </c>
       <c r="L237" t="str">
-        <f>IF(C237&gt;DATE(2020,3,15),IF(C237&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -11519,14 +11483,14 @@
       </c>
       <c r="I238" s="3"/>
       <c r="J238" t="str">
-        <f>IF(C238&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K238" t="s">
         <v>55</v>
       </c>
       <c r="L238" t="str">
-        <f>IF(C238&gt;DATE(2020,3,15),IF(C238&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -11554,14 +11518,14 @@
       </c>
       <c r="I239" s="3"/>
       <c r="J239" t="str">
-        <f>IF(C239&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K239" t="s">
         <v>55</v>
       </c>
       <c r="L239" t="str">
-        <f>IF(C239&gt;DATE(2020,3,15),IF(C239&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -11589,14 +11553,14 @@
       </c>
       <c r="I240" s="3"/>
       <c r="J240" t="str">
-        <f>IF(C240&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K240" t="s">
         <v>55</v>
       </c>
       <c r="L240" t="str">
-        <f>IF(C240&gt;DATE(2020,3,15),IF(C240&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -11624,14 +11588,14 @@
       </c>
       <c r="I241" s="3"/>
       <c r="J241" t="str">
-        <f>IF(C241&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K241" t="s">
         <v>55</v>
       </c>
       <c r="L241" t="str">
-        <f>IF(C241&gt;DATE(2020,3,15),IF(C241&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -11659,14 +11623,14 @@
       </c>
       <c r="I242" s="3"/>
       <c r="J242" t="str">
-        <f>IF(C242&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K242" t="s">
         <v>55</v>
       </c>
       <c r="L242" t="str">
-        <f>IF(C242&gt;DATE(2020,3,15),IF(C242&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -11694,14 +11658,14 @@
       </c>
       <c r="I243" s="3"/>
       <c r="J243" t="str">
-        <f>IF(C243&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K243" t="s">
         <v>55</v>
       </c>
       <c r="L243" t="str">
-        <f>IF(C243&gt;DATE(2020,3,15),IF(C243&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -11724,14 +11688,14 @@
       </c>
       <c r="I244" s="3"/>
       <c r="J244" t="str">
-        <f>IF(C244&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K244" t="s">
         <v>55</v>
       </c>
       <c r="L244" t="str">
-        <f>IF(C244&gt;DATE(2020,3,15),IF(C244&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -11754,14 +11718,14 @@
       </c>
       <c r="I245" s="3"/>
       <c r="J245" t="str">
-        <f>IF(C245&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K245" t="s">
         <v>55</v>
       </c>
       <c r="L245" t="str">
-        <f>IF(C245&gt;DATE(2020,3,15),IF(C245&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -11789,14 +11753,14 @@
       </c>
       <c r="I246" s="3"/>
       <c r="J246" t="str">
-        <f>IF(C246&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K246" t="s">
         <v>55</v>
       </c>
       <c r="L246" t="str">
-        <f>IF(C246&gt;DATE(2020,3,15),IF(C246&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
     </row>
@@ -11824,14 +11788,14 @@
       </c>
       <c r="I247" s="3"/>
       <c r="J247" t="str">
-        <f>IF(C247&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K247" t="s">
         <v>55</v>
       </c>
       <c r="L247" t="str">
-        <f>IF(C247&gt;DATE(2020,3,15),IF(C247&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -11859,14 +11823,14 @@
       </c>
       <c r="I248" s="3"/>
       <c r="J248" t="str">
-        <f>IF(C248&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K248" t="s">
         <v>55</v>
       </c>
       <c r="L248" t="str">
-        <f>IF(C248&gt;DATE(2020,3,15),IF(C248&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -11894,14 +11858,14 @@
       </c>
       <c r="I249" s="3"/>
       <c r="J249" t="str">
-        <f>IF(C249&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K249" t="s">
         <v>55</v>
       </c>
       <c r="L249" t="str">
-        <f>IF(C249&gt;DATE(2020,3,15),IF(C249&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -11929,14 +11893,14 @@
       </c>
       <c r="I250" s="3"/>
       <c r="J250" t="str">
-        <f>IF(C250&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K250" t="s">
         <v>55</v>
       </c>
       <c r="L250" t="str">
-        <f>IF(C250&gt;DATE(2020,3,15),IF(C250&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -11967,14 +11931,14 @@
       </c>
       <c r="I251" s="3"/>
       <c r="J251" t="str">
-        <f>IF(C251&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K251" t="s">
         <v>55</v>
       </c>
       <c r="L251" t="str">
-        <f>IF(C251&gt;DATE(2020,3,15),IF(C251&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -12005,14 +11969,14 @@
       </c>
       <c r="I252" s="3"/>
       <c r="J252" t="str">
-        <f>IF(C252&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K252" t="s">
         <v>55</v>
       </c>
       <c r="L252" t="str">
-        <f>IF(C252&gt;DATE(2020,3,15),IF(C252&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -12045,14 +12009,14 @@
         <v>36</v>
       </c>
       <c r="J253" t="str">
-        <f>IF(C253&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="K253" t="s">
         <v>55</v>
       </c>
       <c r="L253" t="str">
-        <f>IF(C253&gt;DATE(2020,3,15),IF(C253&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Debil</v>
       </c>
     </row>
@@ -12085,14 +12049,14 @@
         <v>37</v>
       </c>
       <c r="J254" t="str">
-        <f>IF(C254&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K254" t="s">
         <v>55</v>
       </c>
       <c r="L254" t="str">
-        <f>IF(C254&gt;DATE(2020,3,15),IF(C254&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -12125,14 +12089,14 @@
         <v>44</v>
       </c>
       <c r="J255" t="str">
-        <f>IF(C255&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K255" t="s">
         <v>55</v>
       </c>
       <c r="L255" t="str">
-        <f>IF(C255&gt;DATE(2020,3,15),IF(C255&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -12165,14 +12129,14 @@
         <v>57</v>
       </c>
       <c r="J256" t="str">
-        <f>IF(C256&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K256" t="s">
         <v>55</v>
       </c>
       <c r="L256" t="str">
-        <f>IF(C256&gt;DATE(2020,3,15),IF(C256&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -12205,14 +12169,14 @@
         <v>73</v>
       </c>
       <c r="J257" t="str">
-        <f>IF(C257&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="6"/>
         <v>Si</v>
       </c>
       <c r="K257" t="s">
         <v>55</v>
       </c>
       <c r="L257" t="str">
-        <f>IF(C257&gt;DATE(2020,3,15),IF(C257&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="7"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -12245,14 +12209,14 @@
         <v>92</v>
       </c>
       <c r="J258" t="str">
-        <f>IF(C258&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" ref="J258:J321" si="8">IF(C258&gt;DATE(2020,3,22),"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="K258" t="s">
         <v>55</v>
       </c>
       <c r="L258" t="str">
-        <f>IF(C258&gt;DATE(2020,3,15),IF(C258&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" ref="L258:L321" si="9">IF(C258&gt;DATE(2020,3,15),IF(C258&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
         <v>Fuerte</v>
       </c>
     </row>
@@ -12285,14 +12249,14 @@
         <v>161</v>
       </c>
       <c r="J259" t="str">
-        <f>IF(C259&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K259" t="s">
         <v>55</v>
       </c>
       <c r="L259" t="str">
-        <f>IF(C259&gt;DATE(2020,3,15),IF(C259&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -12325,14 +12289,14 @@
         <v>185</v>
       </c>
       <c r="J260" t="str">
-        <f>IF(C260&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K260" t="s">
         <v>55</v>
       </c>
       <c r="L260" t="str">
-        <f>IF(C260&gt;DATE(2020,3,15),IF(C260&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -12365,14 +12329,14 @@
         <v>200</v>
       </c>
       <c r="J261" t="str">
-        <f>IF(C261&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K261" t="s">
         <v>55</v>
       </c>
       <c r="L261" t="str">
-        <f>IF(C261&gt;DATE(2020,3,15),IF(C261&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -12400,14 +12364,14 @@
       </c>
       <c r="I262" s="3"/>
       <c r="J262" t="str">
-        <f>IF(C262&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K262" t="s">
         <v>55</v>
       </c>
       <c r="L262" t="str">
-        <f>IF(C262&gt;DATE(2020,3,15),IF(C262&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -12435,14 +12399,14 @@
       </c>
       <c r="I263" s="3"/>
       <c r="J263" t="str">
-        <f>IF(C263&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K263" t="s">
         <v>55</v>
       </c>
       <c r="L263" t="str">
-        <f>IF(C263&gt;DATE(2020,3,15),IF(C263&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -12470,14 +12434,14 @@
       </c>
       <c r="I264" s="3"/>
       <c r="J264" t="str">
-        <f>IF(C264&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K264" t="s">
         <v>55</v>
       </c>
       <c r="L264" t="str">
-        <f>IF(C264&gt;DATE(2020,3,15),IF(C264&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -12505,14 +12469,14 @@
       </c>
       <c r="I265" s="3"/>
       <c r="J265" t="str">
-        <f>IF(C265&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K265" t="s">
         <v>55</v>
       </c>
       <c r="L265" t="str">
-        <f>IF(C265&gt;DATE(2020,3,15),IF(C265&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -12540,14 +12504,14 @@
       </c>
       <c r="I266" s="3"/>
       <c r="J266" t="str">
-        <f>IF(C266&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K266" t="s">
         <v>55</v>
       </c>
       <c r="L266" t="str">
-        <f>IF(C266&gt;DATE(2020,3,15),IF(C266&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -12575,14 +12539,14 @@
       </c>
       <c r="I267" s="3"/>
       <c r="J267" t="str">
-        <f>IF(C267&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K267" t="s">
         <v>55</v>
       </c>
       <c r="L267" t="str">
-        <f>IF(C267&gt;DATE(2020,3,15),IF(C267&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -12610,14 +12574,14 @@
       </c>
       <c r="I268" s="3"/>
       <c r="J268" t="str">
-        <f>IF(C268&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K268" t="s">
         <v>55</v>
       </c>
       <c r="L268" t="str">
-        <f>IF(C268&gt;DATE(2020,3,15),IF(C268&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -12645,14 +12609,14 @@
       </c>
       <c r="I269" s="3"/>
       <c r="J269" t="str">
-        <f>IF(C269&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K269" t="s">
         <v>55</v>
       </c>
       <c r="L269" t="str">
-        <f>IF(C269&gt;DATE(2020,3,15),IF(C269&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -12675,14 +12639,14 @@
       </c>
       <c r="I270" s="3"/>
       <c r="J270" t="str">
-        <f>IF(C270&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K270" t="s">
         <v>55</v>
       </c>
       <c r="L270" t="str">
-        <f>IF(C270&gt;DATE(2020,3,15),IF(C270&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -12705,14 +12669,14 @@
       </c>
       <c r="I271" s="3"/>
       <c r="J271" t="str">
-        <f>IF(C271&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K271" t="s">
         <v>55</v>
       </c>
       <c r="L271" t="str">
-        <f>IF(C271&gt;DATE(2020,3,15),IF(C271&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -12740,14 +12704,14 @@
       </c>
       <c r="I272" s="3"/>
       <c r="J272" t="str">
-        <f>IF(C272&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K272" t="s">
         <v>55</v>
       </c>
       <c r="L272" t="str">
-        <f>IF(C272&gt;DATE(2020,3,15),IF(C272&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -12775,14 +12739,14 @@
       </c>
       <c r="I273" s="3"/>
       <c r="J273" t="str">
-        <f>IF(C273&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K273" t="s">
         <v>55</v>
       </c>
       <c r="L273" t="str">
-        <f>IF(C273&gt;DATE(2020,3,15),IF(C273&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -12810,14 +12774,14 @@
       </c>
       <c r="I274" s="3"/>
       <c r="J274" t="str">
-        <f>IF(C274&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K274" t="s">
         <v>55</v>
       </c>
       <c r="L274" t="str">
-        <f>IF(C274&gt;DATE(2020,3,15),IF(C274&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -12845,14 +12809,14 @@
       </c>
       <c r="I275" s="3"/>
       <c r="J275" t="str">
-        <f>IF(C275&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K275" t="s">
         <v>55</v>
       </c>
       <c r="L275" t="str">
-        <f>IF(C275&gt;DATE(2020,3,15),IF(C275&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -12880,14 +12844,14 @@
       </c>
       <c r="I276" s="3"/>
       <c r="J276" t="str">
-        <f>IF(C276&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K276" t="s">
         <v>55</v>
       </c>
       <c r="L276" t="str">
-        <f>IF(C276&gt;DATE(2020,3,15),IF(C276&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -12918,14 +12882,14 @@
       </c>
       <c r="I277" s="3"/>
       <c r="J277" t="str">
-        <f>IF(C277&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K277" t="s">
         <v>55</v>
       </c>
       <c r="L277" t="str">
-        <f>IF(C277&gt;DATE(2020,3,15),IF(C277&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -12956,14 +12920,14 @@
       </c>
       <c r="I278" s="3"/>
       <c r="J278" t="str">
-        <f>IF(C278&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K278" t="s">
         <v>55</v>
       </c>
       <c r="L278" t="str">
-        <f>IF(C278&gt;DATE(2020,3,15),IF(C278&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -12996,14 +12960,14 @@
         <v>6</v>
       </c>
       <c r="J279" t="str">
-        <f>IF(C279&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K279" t="s">
         <v>55</v>
       </c>
       <c r="L279" t="str">
-        <f>IF(C279&gt;DATE(2020,3,15),IF(C279&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -13036,14 +13000,14 @@
         <v>8</v>
       </c>
       <c r="J280" t="str">
-        <f>IF(C280&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K280" t="s">
         <v>55</v>
       </c>
       <c r="L280" t="str">
-        <f>IF(C280&gt;DATE(2020,3,15),IF(C280&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -13076,14 +13040,14 @@
         <v>8</v>
       </c>
       <c r="J281" t="str">
-        <f>IF(C281&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K281" t="s">
         <v>55</v>
       </c>
       <c r="L281" t="str">
-        <f>IF(C281&gt;DATE(2020,3,15),IF(C281&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -13116,14 +13080,14 @@
         <v>24</v>
       </c>
       <c r="J282" t="str">
-        <f>IF(C282&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K282" t="s">
         <v>55</v>
       </c>
       <c r="L282" t="str">
-        <f>IF(C282&gt;DATE(2020,3,15),IF(C282&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -13156,14 +13120,14 @@
         <v>33</v>
       </c>
       <c r="J283" t="str">
-        <f>IF(C283&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K283" t="s">
         <v>55</v>
       </c>
       <c r="L283" t="str">
-        <f>IF(C283&gt;DATE(2020,3,15),IF(C283&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -13196,14 +13160,14 @@
         <v>49</v>
       </c>
       <c r="J284" t="str">
-        <f>IF(C284&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K284" t="s">
         <v>55</v>
       </c>
       <c r="L284" t="str">
-        <f>IF(C284&gt;DATE(2020,3,15),IF(C284&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -13236,14 +13200,14 @@
         <v>51</v>
       </c>
       <c r="J285" t="str">
-        <f>IF(C285&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K285" t="s">
         <v>55</v>
       </c>
       <c r="L285" t="str">
-        <f>IF(C285&gt;DATE(2020,3,15),IF(C285&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -13276,14 +13240,14 @@
         <v>60</v>
       </c>
       <c r="J286" t="str">
-        <f>IF(C286&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K286" t="s">
         <v>55</v>
       </c>
       <c r="L286" t="str">
-        <f>IF(C286&gt;DATE(2020,3,15),IF(C286&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -13316,14 +13280,14 @@
         <v>91</v>
       </c>
       <c r="J287" t="str">
-        <f>IF(C287&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K287" t="s">
         <v>55</v>
       </c>
       <c r="L287" t="str">
-        <f>IF(C287&gt;DATE(2020,3,15),IF(C287&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -13351,14 +13315,14 @@
       </c>
       <c r="I288" s="3"/>
       <c r="J288" t="str">
-        <f>IF(C288&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K288" t="s">
         <v>55</v>
       </c>
       <c r="L288" t="str">
-        <f>IF(C288&gt;DATE(2020,3,15),IF(C288&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -13386,14 +13350,14 @@
       </c>
       <c r="I289" s="3"/>
       <c r="J289" t="str">
-        <f>IF(C289&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K289" t="s">
         <v>55</v>
       </c>
       <c r="L289" t="str">
-        <f>IF(C289&gt;DATE(2020,3,15),IF(C289&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -13421,14 +13385,14 @@
       </c>
       <c r="I290" s="3"/>
       <c r="J290" t="str">
-        <f>IF(C290&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K290" t="s">
         <v>55</v>
       </c>
       <c r="L290" t="str">
-        <f>IF(C290&gt;DATE(2020,3,15),IF(C290&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -13456,14 +13420,14 @@
       </c>
       <c r="I291" s="3"/>
       <c r="J291" t="str">
-        <f>IF(C291&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K291" t="s">
         <v>55</v>
       </c>
       <c r="L291" t="str">
-        <f>IF(C291&gt;DATE(2020,3,15),IF(C291&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -13491,14 +13455,14 @@
       </c>
       <c r="I292" s="3"/>
       <c r="J292" t="str">
-        <f>IF(C292&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K292" t="s">
         <v>55</v>
       </c>
       <c r="L292" t="str">
-        <f>IF(C292&gt;DATE(2020,3,15),IF(C292&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -13526,14 +13490,14 @@
       </c>
       <c r="I293" s="3"/>
       <c r="J293" t="str">
-        <f>IF(C293&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K293" t="s">
         <v>55</v>
       </c>
       <c r="L293" t="str">
-        <f>IF(C293&gt;DATE(2020,3,15),IF(C293&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -13561,14 +13525,14 @@
       </c>
       <c r="I294" s="3"/>
       <c r="J294" t="str">
-        <f>IF(C294&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K294" t="s">
         <v>55</v>
       </c>
       <c r="L294" t="str">
-        <f>IF(C294&gt;DATE(2020,3,15),IF(C294&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -13596,14 +13560,14 @@
       </c>
       <c r="I295" s="3"/>
       <c r="J295" t="str">
-        <f>IF(C295&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K295" t="s">
         <v>55</v>
       </c>
       <c r="L295" t="str">
-        <f>IF(C295&gt;DATE(2020,3,15),IF(C295&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -13626,14 +13590,14 @@
       </c>
       <c r="I296" s="3"/>
       <c r="J296" t="str">
-        <f>IF(C296&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K296" t="s">
         <v>55</v>
       </c>
       <c r="L296" t="str">
-        <f>IF(C296&gt;DATE(2020,3,15),IF(C296&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -13656,14 +13620,14 @@
       </c>
       <c r="I297" s="3"/>
       <c r="J297" t="str">
-        <f>IF(C297&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K297" t="s">
         <v>55</v>
       </c>
       <c r="L297" t="str">
-        <f>IF(C297&gt;DATE(2020,3,15),IF(C297&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -13691,14 +13655,14 @@
       </c>
       <c r="I298" s="3"/>
       <c r="J298" t="str">
-        <f>IF(C298&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K298" t="s">
         <v>55</v>
       </c>
       <c r="L298" t="str">
-        <f>IF(C298&gt;DATE(2020,3,15),IF(C298&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -13726,14 +13690,14 @@
       </c>
       <c r="I299" s="3"/>
       <c r="J299" t="str">
-        <f>IF(C299&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K299" t="s">
         <v>55</v>
       </c>
       <c r="L299" t="str">
-        <f>IF(C299&gt;DATE(2020,3,15),IF(C299&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -13761,14 +13725,14 @@
       </c>
       <c r="I300" s="3"/>
       <c r="J300" t="str">
-        <f>IF(C300&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K300" t="s">
         <v>55</v>
       </c>
       <c r="L300" t="str">
-        <f>IF(C300&gt;DATE(2020,3,15),IF(C300&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -13796,14 +13760,14 @@
       </c>
       <c r="I301" s="3"/>
       <c r="J301" t="str">
-        <f>IF(C301&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K301" t="s">
         <v>55</v>
       </c>
       <c r="L301" t="str">
-        <f>IF(C301&gt;DATE(2020,3,15),IF(C301&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -13831,14 +13795,14 @@
       </c>
       <c r="I302" s="3"/>
       <c r="J302" t="str">
-        <f>IF(C302&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K302" t="s">
         <v>55</v>
       </c>
       <c r="L302" t="str">
-        <f>IF(C302&gt;DATE(2020,3,15),IF(C302&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -13869,14 +13833,14 @@
       </c>
       <c r="I303" s="3"/>
       <c r="J303" t="str">
-        <f>IF(C303&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K303" t="s">
         <v>55</v>
       </c>
       <c r="L303" t="str">
-        <f>IF(C303&gt;DATE(2020,3,15),IF(C303&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -13907,14 +13871,14 @@
       </c>
       <c r="I304" s="3"/>
       <c r="J304" t="str">
-        <f>IF(C304&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K304" t="s">
         <v>55</v>
       </c>
       <c r="L304" t="str">
-        <f>IF(C304&gt;DATE(2020,3,15),IF(C304&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -13947,14 +13911,14 @@
         <v>19</v>
       </c>
       <c r="J305" t="str">
-        <f>IF(C305&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K305" t="s">
         <v>55</v>
       </c>
       <c r="L305" t="str">
-        <f>IF(C305&gt;DATE(2020,3,15),IF(C305&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Debil</v>
       </c>
     </row>
@@ -13987,14 +13951,14 @@
         <v>19</v>
       </c>
       <c r="J306" t="str">
-        <f>IF(C306&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K306" t="s">
         <v>55</v>
       </c>
       <c r="L306" t="str">
-        <f>IF(C306&gt;DATE(2020,3,15),IF(C306&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -14027,14 +13991,14 @@
         <v>25</v>
       </c>
       <c r="J307" t="str">
-        <f>IF(C307&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K307" t="s">
         <v>55</v>
       </c>
       <c r="L307" t="str">
-        <f>IF(C307&gt;DATE(2020,3,15),IF(C307&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -14067,14 +14031,14 @@
         <v>47</v>
       </c>
       <c r="J308" t="str">
-        <f>IF(C308&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K308" t="s">
         <v>55</v>
       </c>
       <c r="L308" t="str">
-        <f>IF(C308&gt;DATE(2020,3,15),IF(C308&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -14107,14 +14071,14 @@
         <v>67</v>
       </c>
       <c r="J309" t="str">
-        <f>IF(C309&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K309" t="s">
         <v>55</v>
       </c>
       <c r="L309" t="str">
-        <f>IF(C309&gt;DATE(2020,3,15),IF(C309&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -14147,14 +14111,14 @@
         <v>95</v>
       </c>
       <c r="J310" t="str">
-        <f>IF(C310&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K310" t="s">
         <v>55</v>
       </c>
       <c r="L310" t="str">
-        <f>IF(C310&gt;DATE(2020,3,15),IF(C310&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -14187,14 +14151,14 @@
         <v>153</v>
       </c>
       <c r="J311" t="str">
-        <f>IF(C311&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K311" t="s">
         <v>55</v>
       </c>
       <c r="L311" t="str">
-        <f>IF(C311&gt;DATE(2020,3,15),IF(C311&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -14227,14 +14191,14 @@
         <v>168</v>
       </c>
       <c r="J312" t="str">
-        <f>IF(C312&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K312" t="s">
         <v>55</v>
       </c>
       <c r="L312" t="str">
-        <f>IF(C312&gt;DATE(2020,3,15),IF(C312&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -14267,14 +14231,14 @@
         <v>187</v>
       </c>
       <c r="J313" t="str">
-        <f>IF(C313&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>Si</v>
       </c>
       <c r="K313" t="s">
         <v>55</v>
       </c>
       <c r="L313" t="str">
-        <f>IF(C313&gt;DATE(2020,3,15),IF(C313&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -14302,14 +14266,14 @@
       </c>
       <c r="I314" s="3"/>
       <c r="J314" t="str">
-        <f>IF(C314&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K314" t="s">
         <v>55</v>
       </c>
       <c r="L314" t="str">
-        <f>IF(C314&gt;DATE(2020,3,15),IF(C314&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -14337,14 +14301,14 @@
       </c>
       <c r="I315" s="3"/>
       <c r="J315" t="str">
-        <f>IF(C315&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K315" t="s">
         <v>55</v>
       </c>
       <c r="L315" t="str">
-        <f>IF(C315&gt;DATE(2020,3,15),IF(C315&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -14372,14 +14336,14 @@
       </c>
       <c r="I316" s="3"/>
       <c r="J316" t="str">
-        <f>IF(C316&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K316" t="s">
         <v>55</v>
       </c>
       <c r="L316" t="str">
-        <f>IF(C316&gt;DATE(2020,3,15),IF(C316&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -14407,14 +14371,14 @@
       </c>
       <c r="I317" s="3"/>
       <c r="J317" t="str">
-        <f>IF(C317&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K317" t="s">
         <v>55</v>
       </c>
       <c r="L317" t="str">
-        <f>IF(C317&gt;DATE(2020,3,15),IF(C317&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -14442,14 +14406,14 @@
       </c>
       <c r="I318" s="3"/>
       <c r="J318" t="str">
-        <f>IF(C318&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K318" t="s">
         <v>55</v>
       </c>
       <c r="L318" t="str">
-        <f>IF(C318&gt;DATE(2020,3,15),IF(C318&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -14477,14 +14441,14 @@
       </c>
       <c r="I319" s="3"/>
       <c r="J319" t="str">
-        <f>IF(C319&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K319" t="s">
         <v>55</v>
       </c>
       <c r="L319" t="str">
-        <f>IF(C319&gt;DATE(2020,3,15),IF(C319&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -14512,14 +14476,14 @@
       </c>
       <c r="I320" s="3"/>
       <c r="J320" t="str">
-        <f>IF(C320&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K320" t="s">
         <v>55</v>
       </c>
       <c r="L320" t="str">
-        <f>IF(C320&gt;DATE(2020,3,15),IF(C320&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -14547,14 +14511,14 @@
       </c>
       <c r="I321" s="3"/>
       <c r="J321" t="str">
-        <f>IF(C321&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="K321" t="s">
         <v>55</v>
       </c>
       <c r="L321" t="str">
-        <f>IF(C321&gt;DATE(2020,3,15),IF(C321&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
     </row>
@@ -14577,14 +14541,14 @@
       </c>
       <c r="I322" s="3"/>
       <c r="J322" t="str">
-        <f>IF(C322&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" ref="J322:J385" si="10">IF(C322&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
       </c>
       <c r="K322" t="s">
         <v>55</v>
       </c>
       <c r="L322" t="str">
-        <f>IF(C322&gt;DATE(2020,3,15),IF(C322&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" ref="L322:L385" si="11">IF(C322&gt;DATE(2020,3,15),IF(C322&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
         <v>No</v>
       </c>
     </row>
@@ -14607,14 +14571,14 @@
       </c>
       <c r="I323" s="3"/>
       <c r="J323" t="str">
-        <f>IF(C323&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K323" t="s">
         <v>55</v>
       </c>
       <c r="L323" t="str">
-        <f>IF(C323&gt;DATE(2020,3,15),IF(C323&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -14642,14 +14606,14 @@
       </c>
       <c r="I324" s="3"/>
       <c r="J324" t="str">
-        <f>IF(C324&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K324" t="s">
         <v>55</v>
       </c>
       <c r="L324" t="str">
-        <f>IF(C324&gt;DATE(2020,3,15),IF(C324&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -14677,14 +14641,14 @@
       </c>
       <c r="I325" s="3"/>
       <c r="J325" t="str">
-        <f>IF(C325&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K325" t="s">
         <v>55</v>
       </c>
       <c r="L325" t="str">
-        <f>IF(C325&gt;DATE(2020,3,15),IF(C325&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -14712,14 +14676,14 @@
       </c>
       <c r="I326" s="3"/>
       <c r="J326" t="str">
-        <f>IF(C326&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K326" t="s">
         <v>55</v>
       </c>
       <c r="L326" t="str">
-        <f>IF(C326&gt;DATE(2020,3,15),IF(C326&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -14747,14 +14711,14 @@
       </c>
       <c r="I327" s="3"/>
       <c r="J327" t="str">
-        <f>IF(C327&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K327" t="s">
         <v>55</v>
       </c>
       <c r="L327" t="str">
-        <f>IF(C327&gt;DATE(2020,3,15),IF(C327&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -14782,14 +14746,14 @@
       </c>
       <c r="I328" s="3"/>
       <c r="J328" t="str">
-        <f>IF(C328&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K328" t="s">
         <v>55</v>
       </c>
       <c r="L328" t="str">
-        <f>IF(C328&gt;DATE(2020,3,15),IF(C328&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -14820,14 +14784,14 @@
       </c>
       <c r="I329" s="3"/>
       <c r="J329" t="str">
-        <f>IF(C329&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K329" t="s">
         <v>55</v>
       </c>
       <c r="L329" t="str">
-        <f>IF(C329&gt;DATE(2020,3,15),IF(C329&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -14858,14 +14822,14 @@
       </c>
       <c r="I330" s="3"/>
       <c r="J330" t="str">
-        <f>IF(C330&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K330" t="s">
         <v>55</v>
       </c>
       <c r="L330" t="str">
-        <f>IF(C330&gt;DATE(2020,3,15),IF(C330&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -14898,14 +14862,14 @@
         <v>2063</v>
       </c>
       <c r="J331" t="str">
-        <f>IF(C331&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K331" t="s">
         <v>55</v>
       </c>
       <c r="L331" t="str">
-        <f>IF(C331&gt;DATE(2020,3,15),IF(C331&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -14938,14 +14902,14 @@
         <v>2291</v>
       </c>
       <c r="J332" t="str">
-        <f>IF(C332&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K332" t="s">
         <v>55</v>
       </c>
       <c r="L332" t="str">
-        <f>IF(C332&gt;DATE(2020,3,15),IF(C332&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -14978,14 +14942,14 @@
         <v>3031</v>
       </c>
       <c r="J333" t="str">
-        <f>IF(C333&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K333" t="s">
         <v>55</v>
       </c>
       <c r="L333" t="str">
-        <f>IF(C333&gt;DATE(2020,3,15),IF(C333&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -15018,14 +14982,14 @@
         <v>3882</v>
       </c>
       <c r="J334" t="str">
-        <f>IF(C334&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K334" t="s">
         <v>55</v>
       </c>
       <c r="L334" t="str">
-        <f>IF(C334&gt;DATE(2020,3,15),IF(C334&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -15058,14 +15022,14 @@
         <v>5044</v>
       </c>
       <c r="J335" t="str">
-        <f>IF(C335&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K335" t="s">
         <v>55</v>
       </c>
       <c r="L335" t="str">
-        <f>IF(C335&gt;DATE(2020,3,15),IF(C335&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -15098,14 +15062,14 @@
         <v>6326</v>
       </c>
       <c r="J336" t="str">
-        <f>IF(C336&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K336" t="s">
         <v>55</v>
       </c>
       <c r="L336" t="str">
-        <f>IF(C336&gt;DATE(2020,3,15),IF(C336&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -15138,14 +15102,14 @@
         <v>7491</v>
       </c>
       <c r="J337" t="str">
-        <f>IF(C337&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K337" t="s">
         <v>55</v>
       </c>
       <c r="L337" t="str">
-        <f>IF(C337&gt;DATE(2020,3,15),IF(C337&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -15178,14 +15142,14 @@
         <v>8301</v>
       </c>
       <c r="J338" t="str">
-        <f>IF(C338&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K338" t="s">
         <v>55</v>
       </c>
       <c r="L338" t="str">
-        <f>IF(C338&gt;DATE(2020,3,15),IF(C338&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -15218,14 +15182,14 @@
         <v>9330</v>
       </c>
       <c r="J339" t="str">
-        <f>IF(C339&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K339" t="s">
         <v>55</v>
       </c>
       <c r="L339" t="str">
-        <f>IF(C339&gt;DATE(2020,3,15),IF(C339&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -15253,14 +15217,14 @@
       </c>
       <c r="I340" s="3"/>
       <c r="J340" t="str">
-        <f>IF(C340&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K340" t="s">
         <v>55</v>
       </c>
       <c r="L340" t="str">
-        <f>IF(C340&gt;DATE(2020,3,15),IF(C340&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -15288,14 +15252,14 @@
       </c>
       <c r="I341" s="3"/>
       <c r="J341" t="str">
-        <f>IF(C341&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K341" t="s">
         <v>55</v>
       </c>
       <c r="L341" t="str">
-        <f>IF(C341&gt;DATE(2020,3,15),IF(C341&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -15323,14 +15287,14 @@
       </c>
       <c r="I342" s="3"/>
       <c r="J342" t="str">
-        <f>IF(C342&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K342" t="s">
         <v>55</v>
       </c>
       <c r="L342" t="str">
-        <f>IF(C342&gt;DATE(2020,3,15),IF(C342&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -15358,14 +15322,14 @@
       </c>
       <c r="I343" s="3"/>
       <c r="J343" t="str">
-        <f>IF(C343&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K343" t="s">
         <v>55</v>
       </c>
       <c r="L343" t="str">
-        <f>IF(C343&gt;DATE(2020,3,15),IF(C343&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -15393,14 +15357,14 @@
       </c>
       <c r="I344" s="3"/>
       <c r="J344" t="str">
-        <f>IF(C344&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K344" t="s">
         <v>55</v>
       </c>
       <c r="L344" t="str">
-        <f>IF(C344&gt;DATE(2020,3,15),IF(C344&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -15428,14 +15392,14 @@
       </c>
       <c r="I345" s="3"/>
       <c r="J345" t="str">
-        <f>IF(C345&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K345" t="s">
         <v>55</v>
       </c>
       <c r="L345" t="str">
-        <f>IF(C345&gt;DATE(2020,3,15),IF(C345&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -15463,14 +15427,14 @@
       </c>
       <c r="I346" s="3"/>
       <c r="J346" t="str">
-        <f>IF(C346&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K346" t="s">
         <v>55</v>
       </c>
       <c r="L346" t="str">
-        <f>IF(C346&gt;DATE(2020,3,15),IF(C346&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -15498,14 +15462,14 @@
       </c>
       <c r="I347" s="3"/>
       <c r="J347" t="str">
-        <f>IF(C347&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K347" t="s">
         <v>55</v>
       </c>
       <c r="L347" t="str">
-        <f>IF(C347&gt;DATE(2020,3,15),IF(C347&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -15528,14 +15492,14 @@
       </c>
       <c r="I348" s="3"/>
       <c r="J348" t="str">
-        <f>IF(C348&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K348" t="s">
         <v>55</v>
       </c>
       <c r="L348" t="str">
-        <f>IF(C348&gt;DATE(2020,3,15),IF(C348&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -15558,14 +15522,14 @@
       </c>
       <c r="I349" s="3"/>
       <c r="J349" t="str">
-        <f>IF(C349&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K349" t="s">
         <v>55</v>
       </c>
       <c r="L349" t="str">
-        <f>IF(C349&gt;DATE(2020,3,15),IF(C349&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -15593,14 +15557,14 @@
       </c>
       <c r="I350" s="3"/>
       <c r="J350" t="str">
-        <f>IF(C350&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K350" t="s">
         <v>55</v>
       </c>
       <c r="L350" t="str">
-        <f>IF(C350&gt;DATE(2020,3,15),IF(C350&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -15628,14 +15592,14 @@
       </c>
       <c r="I351" s="3"/>
       <c r="J351" t="str">
-        <f>IF(C351&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K351" t="s">
         <v>55</v>
       </c>
       <c r="L351" t="str">
-        <f>IF(C351&gt;DATE(2020,3,15),IF(C351&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -15663,14 +15627,14 @@
       </c>
       <c r="I352" s="3"/>
       <c r="J352" t="str">
-        <f>IF(C352&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K352" t="s">
         <v>55</v>
       </c>
       <c r="L352" t="str">
-        <f>IF(C352&gt;DATE(2020,3,15),IF(C352&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -15698,14 +15662,14 @@
       </c>
       <c r="I353" s="3"/>
       <c r="J353" t="str">
-        <f>IF(C353&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K353" t="s">
         <v>55</v>
       </c>
       <c r="L353" t="str">
-        <f>IF(C353&gt;DATE(2020,3,15),IF(C353&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -15733,14 +15697,14 @@
       </c>
       <c r="I354" s="3"/>
       <c r="J354" t="str">
-        <f>IF(C354&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K354" t="s">
         <v>55</v>
       </c>
       <c r="L354" t="str">
-        <f>IF(C354&gt;DATE(2020,3,15),IF(C354&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -15771,14 +15735,14 @@
       </c>
       <c r="I355" s="3"/>
       <c r="J355" t="str">
-        <f>IF(C355&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K355" t="s">
         <v>55</v>
       </c>
       <c r="L355" t="str">
-        <f>IF(C355&gt;DATE(2020,3,15),IF(C355&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -15809,14 +15773,14 @@
       </c>
       <c r="I356" s="3"/>
       <c r="J356" t="str">
-        <f>IF(C356&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K356" t="s">
         <v>55</v>
       </c>
       <c r="L356" t="str">
-        <f>IF(C356&gt;DATE(2020,3,15),IF(C356&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -15849,14 +15813,14 @@
         <v>1</v>
       </c>
       <c r="J357" t="str">
-        <f>IF(C357&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K357" t="s">
         <v>55</v>
       </c>
       <c r="L357" t="str">
-        <f>IF(C357&gt;DATE(2020,3,15),IF(C357&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -15889,14 +15853,14 @@
         <v>1</v>
       </c>
       <c r="J358" t="str">
-        <f>IF(C358&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K358" t="s">
         <v>55</v>
       </c>
       <c r="L358" t="str">
-        <f>IF(C358&gt;DATE(2020,3,15),IF(C358&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -15929,14 +15893,14 @@
         <v>4</v>
       </c>
       <c r="J359" t="str">
-        <f>IF(C359&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K359" t="s">
         <v>55</v>
       </c>
       <c r="L359" t="str">
-        <f>IF(C359&gt;DATE(2020,3,15),IF(C359&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -15969,14 +15933,14 @@
         <v>9</v>
       </c>
       <c r="J360" t="str">
-        <f>IF(C360&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K360" t="s">
         <v>55</v>
       </c>
       <c r="L360" t="str">
-        <f>IF(C360&gt;DATE(2020,3,15),IF(C360&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -16009,14 +15973,14 @@
         <v>12</v>
       </c>
       <c r="J361" t="str">
-        <f>IF(C361&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K361" t="s">
         <v>55</v>
       </c>
       <c r="L361" t="str">
-        <f>IF(C361&gt;DATE(2020,3,15),IF(C361&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -16049,14 +16013,14 @@
         <v>12</v>
       </c>
       <c r="J362" t="str">
-        <f>IF(C362&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K362" t="s">
         <v>55</v>
       </c>
       <c r="L362" t="str">
-        <f>IF(C362&gt;DATE(2020,3,15),IF(C362&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -16089,14 +16053,14 @@
         <v>16</v>
       </c>
       <c r="J363" t="str">
-        <f>IF(C363&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K363" t="s">
         <v>55</v>
       </c>
       <c r="L363" t="str">
-        <f>IF(C363&gt;DATE(2020,3,15),IF(C363&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -16129,14 +16093,14 @@
         <v>17</v>
       </c>
       <c r="J364" t="str">
-        <f>IF(C364&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K364" t="s">
         <v>55</v>
       </c>
       <c r="L364" t="str">
-        <f>IF(C364&gt;DATE(2020,3,15),IF(C364&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -16169,14 +16133,14 @@
         <v>20</v>
       </c>
       <c r="J365" t="str">
-        <f>IF(C365&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K365" t="s">
         <v>55</v>
       </c>
       <c r="L365" t="str">
-        <f>IF(C365&gt;DATE(2020,3,15),IF(C365&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -16204,14 +16168,14 @@
       </c>
       <c r="I366" s="3"/>
       <c r="J366" t="str">
-        <f>IF(C366&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K366" t="s">
         <v>55</v>
       </c>
       <c r="L366" t="str">
-        <f>IF(C366&gt;DATE(2020,3,15),IF(C366&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -16239,14 +16203,14 @@
       </c>
       <c r="I367" s="3"/>
       <c r="J367" t="str">
-        <f>IF(C367&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K367" t="s">
         <v>55</v>
       </c>
       <c r="L367" t="str">
-        <f>IF(C367&gt;DATE(2020,3,15),IF(C367&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -16274,14 +16238,14 @@
       </c>
       <c r="I368" s="3"/>
       <c r="J368" t="str">
-        <f>IF(C368&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K368" t="s">
         <v>55</v>
       </c>
       <c r="L368" t="str">
-        <f>IF(C368&gt;DATE(2020,3,15),IF(C368&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -16309,14 +16273,14 @@
       </c>
       <c r="I369" s="3"/>
       <c r="J369" t="str">
-        <f>IF(C369&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K369" t="s">
         <v>55</v>
       </c>
       <c r="L369" t="str">
-        <f>IF(C369&gt;DATE(2020,3,15),IF(C369&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -16344,14 +16308,14 @@
       </c>
       <c r="I370" s="3"/>
       <c r="J370" t="str">
-        <f>IF(C370&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K370" t="s">
         <v>55</v>
       </c>
       <c r="L370" t="str">
-        <f>IF(C370&gt;DATE(2020,3,15),IF(C370&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -16379,14 +16343,14 @@
       </c>
       <c r="I371" s="3"/>
       <c r="J371" t="str">
-        <f>IF(C371&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K371" t="s">
         <v>55</v>
       </c>
       <c r="L371" t="str">
-        <f>IF(C371&gt;DATE(2020,3,15),IF(C371&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -16414,14 +16378,14 @@
       </c>
       <c r="I372" s="3"/>
       <c r="J372" t="str">
-        <f>IF(C372&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K372" t="s">
         <v>55</v>
       </c>
       <c r="L372" t="str">
-        <f>IF(C372&gt;DATE(2020,3,15),IF(C372&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -16449,14 +16413,14 @@
       </c>
       <c r="I373" s="3"/>
       <c r="J373" t="str">
-        <f>IF(C373&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K373" t="s">
         <v>55</v>
       </c>
       <c r="L373" t="str">
-        <f>IF(C373&gt;DATE(2020,3,15),IF(C373&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -16479,14 +16443,14 @@
       </c>
       <c r="I374" s="3"/>
       <c r="J374" t="str">
-        <f>IF(C374&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K374" t="s">
         <v>55</v>
       </c>
       <c r="L374" t="str">
-        <f>IF(C374&gt;DATE(2020,3,15),IF(C374&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -16509,14 +16473,14 @@
       </c>
       <c r="I375" s="3"/>
       <c r="J375" t="str">
-        <f>IF(C375&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K375" t="s">
         <v>55</v>
       </c>
       <c r="L375" t="str">
-        <f>IF(C375&gt;DATE(2020,3,15),IF(C375&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -16544,14 +16508,14 @@
       </c>
       <c r="I376" s="3"/>
       <c r="J376" t="str">
-        <f>IF(C376&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K376" t="s">
         <v>55</v>
       </c>
       <c r="L376" t="str">
-        <f>IF(C376&gt;DATE(2020,3,15),IF(C376&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -16579,14 +16543,14 @@
       </c>
       <c r="I377" s="3"/>
       <c r="J377" t="str">
-        <f>IF(C377&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K377" t="s">
         <v>55</v>
       </c>
       <c r="L377" t="str">
-        <f>IF(C377&gt;DATE(2020,3,15),IF(C377&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -16614,14 +16578,14 @@
       </c>
       <c r="I378" s="3"/>
       <c r="J378" t="str">
-        <f>IF(C378&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K378" t="s">
         <v>55</v>
       </c>
       <c r="L378" t="str">
-        <f>IF(C378&gt;DATE(2020,3,15),IF(C378&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -16649,14 +16613,14 @@
       </c>
       <c r="I379" s="3"/>
       <c r="J379" t="str">
-        <f>IF(C379&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K379" t="s">
         <v>55</v>
       </c>
       <c r="L379" t="str">
-        <f>IF(C379&gt;DATE(2020,3,15),IF(C379&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -16684,14 +16648,14 @@
       </c>
       <c r="I380" s="3"/>
       <c r="J380" t="str">
-        <f>IF(C380&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K380" t="s">
         <v>55</v>
       </c>
       <c r="L380" t="str">
-        <f>IF(C380&gt;DATE(2020,3,15),IF(C380&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -16722,14 +16686,14 @@
       </c>
       <c r="I381" s="3"/>
       <c r="J381" t="str">
-        <f>IF(C381&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K381" t="s">
         <v>55</v>
       </c>
       <c r="L381" t="str">
-        <f>IF(C381&gt;DATE(2020,3,15),IF(C381&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -16760,14 +16724,14 @@
       </c>
       <c r="I382" s="3"/>
       <c r="J382" t="str">
-        <f>IF(C382&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K382" t="s">
         <v>55</v>
       </c>
       <c r="L382" t="str">
-        <f>IF(C382&gt;DATE(2020,3,15),IF(C382&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -16800,14 +16764,14 @@
         <v>7</v>
       </c>
       <c r="J383" t="str">
-        <f>IF(C383&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="K383" t="s">
         <v>55</v>
       </c>
       <c r="L383" t="str">
-        <f>IF(C383&gt;DATE(2020,3,15),IF(C383&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Debil</v>
       </c>
     </row>
@@ -16840,14 +16804,14 @@
         <v>11</v>
       </c>
       <c r="J384" t="str">
-        <f>IF(C384&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K384" t="s">
         <v>55</v>
       </c>
       <c r="L384" t="str">
-        <f>IF(C384&gt;DATE(2020,3,15),IF(C384&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -16880,14 +16844,14 @@
         <v>23</v>
       </c>
       <c r="J385" t="str">
-        <f>IF(C385&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="10"/>
         <v>Si</v>
       </c>
       <c r="K385" t="s">
         <v>55</v>
       </c>
       <c r="L385" t="str">
-        <f>IF(C385&gt;DATE(2020,3,15),IF(C385&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="11"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -16920,14 +16884,14 @@
         <v>35</v>
       </c>
       <c r="J386" t="str">
-        <f>IF(C386&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" ref="J386:J449" si="12">IF(C386&gt;DATE(2020,3,22),"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="K386" t="s">
         <v>55</v>
       </c>
       <c r="L386" t="str">
-        <f>IF(C386&gt;DATE(2020,3,15),IF(C386&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" ref="L386:L449" si="13">IF(C386&gt;DATE(2020,3,15),IF(C386&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
         <v>Fuerte</v>
       </c>
     </row>
@@ -16960,14 +16924,14 @@
         <v>70</v>
       </c>
       <c r="J387" t="str">
-        <f>IF(C387&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K387" t="s">
         <v>55</v>
       </c>
       <c r="L387" t="str">
-        <f>IF(C387&gt;DATE(2020,3,15),IF(C387&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -17000,14 +16964,14 @@
         <v>98</v>
       </c>
       <c r="J388" t="str">
-        <f>IF(C388&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K388" t="s">
         <v>55</v>
       </c>
       <c r="L388" t="str">
-        <f>IF(C388&gt;DATE(2020,3,15),IF(C388&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -17040,14 +17004,14 @@
         <v>125</v>
       </c>
       <c r="J389" t="str">
-        <f>IF(C389&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K389" t="s">
         <v>55</v>
       </c>
       <c r="L389" t="str">
-        <f>IF(C389&gt;DATE(2020,3,15),IF(C389&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -17080,14 +17044,14 @@
         <v>161</v>
       </c>
       <c r="J390" t="str">
-        <f>IF(C390&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K390" t="s">
         <v>55</v>
       </c>
       <c r="L390" t="str">
-        <f>IF(C390&gt;DATE(2020,3,15),IF(C390&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -17120,14 +17084,14 @@
         <v>192</v>
       </c>
       <c r="J391" t="str">
-        <f>IF(C391&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K391" t="s">
         <v>55</v>
       </c>
       <c r="L391" t="str">
-        <f>IF(C391&gt;DATE(2020,3,15),IF(C391&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -17155,14 +17119,14 @@
       </c>
       <c r="I392" s="3"/>
       <c r="J392" t="str">
-        <f>IF(C392&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K392" t="s">
         <v>55</v>
       </c>
       <c r="L392" t="str">
-        <f>IF(C392&gt;DATE(2020,3,15),IF(C392&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -17190,14 +17154,14 @@
       </c>
       <c r="I393" s="3"/>
       <c r="J393" t="str">
-        <f>IF(C393&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K393" t="s">
         <v>55</v>
       </c>
       <c r="L393" t="str">
-        <f>IF(C393&gt;DATE(2020,3,15),IF(C393&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -17225,14 +17189,14 @@
       </c>
       <c r="I394" s="3"/>
       <c r="J394" t="str">
-        <f>IF(C394&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K394" t="s">
         <v>55</v>
       </c>
       <c r="L394" t="str">
-        <f>IF(C394&gt;DATE(2020,3,15),IF(C394&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -17260,14 +17224,14 @@
       </c>
       <c r="I395" s="3"/>
       <c r="J395" t="str">
-        <f>IF(C395&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K395" t="s">
         <v>55</v>
       </c>
       <c r="L395" t="str">
-        <f>IF(C395&gt;DATE(2020,3,15),IF(C395&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -17295,14 +17259,14 @@
       </c>
       <c r="I396" s="3"/>
       <c r="J396" t="str">
-        <f>IF(C396&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K396" t="s">
         <v>55</v>
       </c>
       <c r="L396" t="str">
-        <f>IF(C396&gt;DATE(2020,3,15),IF(C396&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -17330,14 +17294,14 @@
       </c>
       <c r="I397" s="3"/>
       <c r="J397" t="str">
-        <f>IF(C397&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K397" t="s">
         <v>55</v>
       </c>
       <c r="L397" t="str">
-        <f>IF(C397&gt;DATE(2020,3,15),IF(C397&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -17365,14 +17329,14 @@
       </c>
       <c r="I398" s="3"/>
       <c r="J398" t="str">
-        <f>IF(C398&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K398" t="s">
         <v>55</v>
       </c>
       <c r="L398" t="str">
-        <f>IF(C398&gt;DATE(2020,3,15),IF(C398&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -17400,14 +17364,14 @@
       </c>
       <c r="I399" s="3"/>
       <c r="J399" t="str">
-        <f>IF(C399&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K399" t="s">
         <v>55</v>
       </c>
       <c r="L399" t="str">
-        <f>IF(C399&gt;DATE(2020,3,15),IF(C399&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -17430,14 +17394,14 @@
       </c>
       <c r="I400" s="3"/>
       <c r="J400" t="str">
-        <f>IF(C400&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K400" t="s">
         <v>55</v>
       </c>
       <c r="L400" t="str">
-        <f>IF(C400&gt;DATE(2020,3,15),IF(C400&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -17460,14 +17424,14 @@
       </c>
       <c r="I401" s="3"/>
       <c r="J401" t="str">
-        <f>IF(C401&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K401" t="s">
         <v>55</v>
       </c>
       <c r="L401" t="str">
-        <f>IF(C401&gt;DATE(2020,3,15),IF(C401&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -17495,14 +17459,14 @@
       </c>
       <c r="I402" s="3"/>
       <c r="J402" t="str">
-        <f>IF(C402&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K402" t="s">
         <v>55</v>
       </c>
       <c r="L402" t="str">
-        <f>IF(C402&gt;DATE(2020,3,15),IF(C402&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -17530,14 +17494,14 @@
       </c>
       <c r="I403" s="3"/>
       <c r="J403" t="str">
-        <f>IF(C403&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K403" t="s">
         <v>55</v>
       </c>
       <c r="L403" t="str">
-        <f>IF(C403&gt;DATE(2020,3,15),IF(C403&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -17565,14 +17529,14 @@
       </c>
       <c r="I404" s="3"/>
       <c r="J404" t="str">
-        <f>IF(C404&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K404" t="s">
         <v>55</v>
       </c>
       <c r="L404" t="str">
-        <f>IF(C404&gt;DATE(2020,3,15),IF(C404&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -17600,14 +17564,14 @@
       </c>
       <c r="I405" s="3"/>
       <c r="J405" t="str">
-        <f>IF(C405&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K405" t="s">
         <v>55</v>
       </c>
       <c r="L405" t="str">
-        <f>IF(C405&gt;DATE(2020,3,15),IF(C405&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -17635,14 +17599,14 @@
       </c>
       <c r="I406" s="3"/>
       <c r="J406" t="str">
-        <f>IF(C406&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K406" t="s">
         <v>55</v>
       </c>
       <c r="L406" t="str">
-        <f>IF(C406&gt;DATE(2020,3,15),IF(C406&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -17673,14 +17637,14 @@
       </c>
       <c r="I407" s="3"/>
       <c r="J407" t="str">
-        <f>IF(C407&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K407" t="s">
         <v>55</v>
       </c>
       <c r="L407" t="str">
-        <f>IF(C407&gt;DATE(2020,3,15),IF(C407&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -17711,14 +17675,14 @@
       </c>
       <c r="I408" s="3"/>
       <c r="J408" t="str">
-        <f>IF(C408&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K408" t="s">
         <v>55</v>
       </c>
       <c r="L408" t="str">
-        <f>IF(C408&gt;DATE(2020,3,15),IF(C408&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -17751,14 +17715,14 @@
         <v>283</v>
       </c>
       <c r="J409" t="str">
-        <f>IF(C409&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K409" t="s">
         <v>55</v>
       </c>
       <c r="L409" t="str">
-        <f>IF(C409&gt;DATE(2020,3,15),IF(C409&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -17791,14 +17755,14 @@
         <v>344</v>
       </c>
       <c r="J410" t="str">
-        <f>IF(C410&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K410" t="s">
         <v>55</v>
       </c>
       <c r="L410" t="str">
-        <f>IF(C410&gt;DATE(2020,3,15),IF(C410&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -17831,14 +17795,14 @@
         <v>466</v>
       </c>
       <c r="J411" t="str">
-        <f>IF(C411&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K411" t="s">
         <v>55</v>
       </c>
       <c r="L411" t="str">
-        <f>IF(C411&gt;DATE(2020,3,15),IF(C411&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -17871,14 +17835,14 @@
         <v>621</v>
       </c>
       <c r="J412" t="str">
-        <f>IF(C412&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K412" t="s">
         <v>55</v>
       </c>
       <c r="L412" t="str">
-        <f>IF(C412&gt;DATE(2020,3,15),IF(C412&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -17911,14 +17875,14 @@
         <v>814</v>
       </c>
       <c r="J413" t="str">
-        <f>IF(C413&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K413" t="s">
         <v>55</v>
       </c>
       <c r="L413" t="str">
-        <f>IF(C413&gt;DATE(2020,3,15),IF(C413&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -17951,14 +17915,14 @@
         <v>1023</v>
       </c>
       <c r="J414" t="str">
-        <f>IF(C414&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K414" t="s">
         <v>55</v>
       </c>
       <c r="L414" t="str">
-        <f>IF(C414&gt;DATE(2020,3,15),IF(C414&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -17991,14 +17955,14 @@
         <v>1503</v>
       </c>
       <c r="J415" t="str">
-        <f>IF(C415&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K415" t="s">
         <v>55</v>
       </c>
       <c r="L415" t="str">
-        <f>IF(C415&gt;DATE(2020,3,15),IF(C415&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -18031,14 +17995,14 @@
         <v>1646</v>
       </c>
       <c r="J416" t="str">
-        <f>IF(C416&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K416" t="s">
         <v>55</v>
       </c>
       <c r="L416" t="str">
-        <f>IF(C416&gt;DATE(2020,3,15),IF(C416&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -18071,14 +18035,14 @@
         <v>1796</v>
       </c>
       <c r="J417" t="str">
-        <f>IF(C417&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K417" t="s">
         <v>55</v>
       </c>
       <c r="L417" t="str">
-        <f>IF(C417&gt;DATE(2020,3,15),IF(C417&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -18106,14 +18070,14 @@
       </c>
       <c r="I418" s="3"/>
       <c r="J418" t="str">
-        <f>IF(C418&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K418" t="s">
         <v>55</v>
       </c>
       <c r="L418" t="str">
-        <f>IF(C418&gt;DATE(2020,3,15),IF(C418&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -18141,14 +18105,14 @@
       </c>
       <c r="I419" s="3"/>
       <c r="J419" t="str">
-        <f>IF(C419&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K419" t="s">
         <v>55</v>
       </c>
       <c r="L419" t="str">
-        <f>IF(C419&gt;DATE(2020,3,15),IF(C419&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -18176,14 +18140,14 @@
       </c>
       <c r="I420" s="3"/>
       <c r="J420" t="str">
-        <f>IF(C420&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K420" t="s">
         <v>55</v>
       </c>
       <c r="L420" t="str">
-        <f>IF(C420&gt;DATE(2020,3,15),IF(C420&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -18211,14 +18175,14 @@
       </c>
       <c r="I421" s="3"/>
       <c r="J421" t="str">
-        <f>IF(C421&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K421" t="s">
         <v>55</v>
       </c>
       <c r="L421" t="str">
-        <f>IF(C421&gt;DATE(2020,3,15),IF(C421&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -18246,14 +18210,14 @@
       </c>
       <c r="I422" s="3"/>
       <c r="J422" t="str">
-        <f>IF(C422&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K422" t="s">
         <v>55</v>
       </c>
       <c r="L422" t="str">
-        <f>IF(C422&gt;DATE(2020,3,15),IF(C422&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -18281,14 +18245,14 @@
       </c>
       <c r="I423" s="3"/>
       <c r="J423" t="str">
-        <f>IF(C423&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K423" t="s">
         <v>55</v>
       </c>
       <c r="L423" t="str">
-        <f>IF(C423&gt;DATE(2020,3,15),IF(C423&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -18316,14 +18280,14 @@
       </c>
       <c r="I424" s="3"/>
       <c r="J424" t="str">
-        <f>IF(C424&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K424" t="s">
         <v>55</v>
       </c>
       <c r="L424" t="str">
-        <f>IF(C424&gt;DATE(2020,3,15),IF(C424&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -18351,14 +18315,14 @@
       </c>
       <c r="I425" s="3"/>
       <c r="J425" t="str">
-        <f>IF(C425&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K425" t="s">
         <v>55</v>
       </c>
       <c r="L425" t="str">
-        <f>IF(C425&gt;DATE(2020,3,15),IF(C425&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -18381,14 +18345,14 @@
       </c>
       <c r="I426" s="3"/>
       <c r="J426" t="str">
-        <f>IF(C426&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K426" t="s">
         <v>55</v>
       </c>
       <c r="L426" t="str">
-        <f>IF(C426&gt;DATE(2020,3,15),IF(C426&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -18411,14 +18375,14 @@
       </c>
       <c r="I427" s="3"/>
       <c r="J427" t="str">
-        <f>IF(C427&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K427" t="s">
         <v>55</v>
       </c>
       <c r="L427" t="str">
-        <f>IF(C427&gt;DATE(2020,3,15),IF(C427&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -18446,14 +18410,14 @@
       </c>
       <c r="I428" s="3"/>
       <c r="J428" t="str">
-        <f>IF(C428&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K428" t="s">
         <v>55</v>
       </c>
       <c r="L428" t="str">
-        <f>IF(C428&gt;DATE(2020,3,15),IF(C428&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -18481,14 +18445,14 @@
       </c>
       <c r="I429" s="3"/>
       <c r="J429" t="str">
-        <f>IF(C429&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K429" t="s">
         <v>55</v>
       </c>
       <c r="L429" t="str">
-        <f>IF(C429&gt;DATE(2020,3,15),IF(C429&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -18516,14 +18480,14 @@
       </c>
       <c r="I430" s="3"/>
       <c r="J430" t="str">
-        <f>IF(C430&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K430" t="s">
         <v>55</v>
       </c>
       <c r="L430" t="str">
-        <f>IF(C430&gt;DATE(2020,3,15),IF(C430&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -18551,14 +18515,14 @@
       </c>
       <c r="I431" s="3"/>
       <c r="J431" t="str">
-        <f>IF(C431&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K431" t="s">
         <v>55</v>
       </c>
       <c r="L431" t="str">
-        <f>IF(C431&gt;DATE(2020,3,15),IF(C431&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -18586,14 +18550,14 @@
       </c>
       <c r="I432" s="3"/>
       <c r="J432" t="str">
-        <f>IF(C432&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K432" t="s">
         <v>55</v>
       </c>
       <c r="L432" t="str">
-        <f>IF(C432&gt;DATE(2020,3,15),IF(C432&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -18624,14 +18588,14 @@
       </c>
       <c r="I433" s="3"/>
       <c r="J433" t="str">
-        <f>IF(C433&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K433" t="s">
         <v>55</v>
       </c>
       <c r="L433" t="str">
-        <f>IF(C433&gt;DATE(2020,3,15),IF(C433&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -18662,14 +18626,14 @@
       </c>
       <c r="I434" s="3"/>
       <c r="J434" t="str">
-        <f>IF(C434&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K434" t="s">
         <v>55</v>
       </c>
       <c r="L434" t="str">
-        <f>IF(C434&gt;DATE(2020,3,15),IF(C434&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -18702,14 +18666,14 @@
         <v>18</v>
       </c>
       <c r="J435" t="str">
-        <f>IF(C435&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K435" t="s">
         <v>55</v>
       </c>
       <c r="L435" t="str">
-        <f>IF(C435&gt;DATE(2020,3,15),IF(C435&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Debil</v>
       </c>
     </row>
@@ -18742,14 +18706,14 @@
         <v>24</v>
       </c>
       <c r="J436" t="str">
-        <f>IF(C436&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K436" t="s">
         <v>55</v>
       </c>
       <c r="L436" t="str">
-        <f>IF(C436&gt;DATE(2020,3,15),IF(C436&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -18782,14 +18746,14 @@
         <v>43</v>
       </c>
       <c r="J437" t="str">
-        <f>IF(C437&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K437" t="s">
         <v>55</v>
       </c>
       <c r="L437" t="str">
-        <f>IF(C437&gt;DATE(2020,3,15),IF(C437&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -18822,14 +18786,14 @@
         <v>48</v>
       </c>
       <c r="J438" t="str">
-        <f>IF(C438&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K438" t="s">
         <v>55</v>
       </c>
       <c r="L438" t="str">
-        <f>IF(C438&gt;DATE(2020,3,15),IF(C438&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -18862,14 +18826,14 @@
         <v>62</v>
       </c>
       <c r="J439" t="str">
-        <f>IF(C439&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K439" t="s">
         <v>55</v>
       </c>
       <c r="L439" t="str">
-        <f>IF(C439&gt;DATE(2020,3,15),IF(C439&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -18902,14 +18866,14 @@
         <v>364</v>
       </c>
       <c r="J440" t="str">
-        <f>IF(C440&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K440" t="s">
         <v>55</v>
       </c>
       <c r="L440" t="str">
-        <f>IF(C440&gt;DATE(2020,3,15),IF(C440&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -18942,14 +18906,14 @@
         <v>397</v>
       </c>
       <c r="J441" t="str">
-        <f>IF(C441&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K441" t="s">
         <v>55</v>
       </c>
       <c r="L441" t="str">
-        <f>IF(C441&gt;DATE(2020,3,15),IF(C441&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -18982,14 +18946,14 @@
         <v>431</v>
       </c>
       <c r="J442" t="str">
-        <f>IF(C442&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K442" t="s">
         <v>55</v>
       </c>
       <c r="L442" t="str">
-        <f>IF(C442&gt;DATE(2020,3,15),IF(C442&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -19022,14 +18986,14 @@
         <v>496</v>
       </c>
       <c r="J443" t="str">
-        <f>IF(C443&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>Si</v>
       </c>
       <c r="K443" t="s">
         <v>55</v>
       </c>
       <c r="L443" t="str">
-        <f>IF(C443&gt;DATE(2020,3,15),IF(C443&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -19057,14 +19021,14 @@
       </c>
       <c r="I444" s="3"/>
       <c r="J444" t="str">
-        <f>IF(C444&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K444" t="s">
         <v>54</v>
       </c>
       <c r="L444" t="str">
-        <f>IF(C444&gt;DATE(2020,3,15),IF(C444&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -19092,14 +19056,14 @@
       </c>
       <c r="I445" s="3"/>
       <c r="J445" t="str">
-        <f>IF(C445&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K445" t="s">
         <v>54</v>
       </c>
       <c r="L445" t="str">
-        <f>IF(C445&gt;DATE(2020,3,15),IF(C445&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -19127,14 +19091,14 @@
       </c>
       <c r="I446" s="3"/>
       <c r="J446" t="str">
-        <f>IF(C446&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K446" t="s">
         <v>54</v>
       </c>
       <c r="L446" t="str">
-        <f>IF(C446&gt;DATE(2020,3,15),IF(C446&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -19162,14 +19126,14 @@
       </c>
       <c r="I447" s="3"/>
       <c r="J447" t="str">
-        <f>IF(C447&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K447" t="s">
         <v>54</v>
       </c>
       <c r="L447" t="str">
-        <f>IF(C447&gt;DATE(2020,3,15),IF(C447&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -19197,14 +19161,14 @@
       </c>
       <c r="I448" s="3"/>
       <c r="J448" t="str">
-        <f>IF(C448&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K448" t="s">
         <v>54</v>
       </c>
       <c r="L448" t="str">
-        <f>IF(C448&gt;DATE(2020,3,15),IF(C448&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -19232,14 +19196,14 @@
       </c>
       <c r="I449" s="3"/>
       <c r="J449" t="str">
-        <f>IF(C449&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="K449" t="s">
         <v>54</v>
       </c>
       <c r="L449" t="str">
-        <f>IF(C449&gt;DATE(2020,3,15),IF(C449&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -19267,14 +19231,14 @@
       </c>
       <c r="I450" s="3"/>
       <c r="J450" t="str">
-        <f>IF(C450&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" ref="J450:J495" si="14">IF(C450&gt;DATE(2020,3,22),"Si","No")</f>
         <v>No</v>
       </c>
       <c r="K450" t="s">
         <v>54</v>
       </c>
       <c r="L450" t="str">
-        <f>IF(C450&gt;DATE(2020,3,15),IF(C450&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" ref="L450:L495" si="15">IF(C450&gt;DATE(2020,3,15),IF(C450&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
         <v>No</v>
       </c>
     </row>
@@ -19302,14 +19266,14 @@
       </c>
       <c r="I451" s="3"/>
       <c r="J451" t="str">
-        <f>IF(C451&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K451" t="s">
         <v>54</v>
       </c>
       <c r="L451" t="str">
-        <f>IF(C451&gt;DATE(2020,3,15),IF(C451&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -19332,14 +19296,14 @@
       </c>
       <c r="I452" s="3"/>
       <c r="J452" t="str">
-        <f>IF(C452&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K452" t="s">
         <v>54</v>
       </c>
       <c r="L452" t="str">
-        <f>IF(C452&gt;DATE(2020,3,15),IF(C452&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -19362,14 +19326,14 @@
       </c>
       <c r="I453" s="3"/>
       <c r="J453" t="str">
-        <f>IF(C453&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K453" t="s">
         <v>54</v>
       </c>
       <c r="L453" t="str">
-        <f>IF(C453&gt;DATE(2020,3,15),IF(C453&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -19397,14 +19361,14 @@
       </c>
       <c r="I454" s="3"/>
       <c r="J454" t="str">
-        <f>IF(C454&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K454" t="s">
         <v>54</v>
       </c>
       <c r="L454" t="str">
-        <f>IF(C454&gt;DATE(2020,3,15),IF(C454&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -19432,14 +19396,14 @@
       </c>
       <c r="I455" s="3"/>
       <c r="J455" t="str">
-        <f>IF(C455&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K455" t="s">
         <v>54</v>
       </c>
       <c r="L455" t="str">
-        <f>IF(C455&gt;DATE(2020,3,15),IF(C455&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -19467,14 +19431,14 @@
       </c>
       <c r="I456" s="3"/>
       <c r="J456" t="str">
-        <f>IF(C456&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K456" t="s">
         <v>54</v>
       </c>
       <c r="L456" t="str">
-        <f>IF(C456&gt;DATE(2020,3,15),IF(C456&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -19502,14 +19466,14 @@
       </c>
       <c r="I457" s="3"/>
       <c r="J457" t="str">
-        <f>IF(C457&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K457" t="s">
         <v>54</v>
       </c>
       <c r="L457" t="str">
-        <f>IF(C457&gt;DATE(2020,3,15),IF(C457&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -19536,14 +19500,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="str">
-        <f>IF(C458&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K458" t="s">
         <v>54</v>
       </c>
       <c r="L458" t="str">
-        <f>IF(C458&gt;DATE(2020,3,15),IF(C458&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -19573,14 +19537,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="str">
-        <f>IF(C459&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K459" t="s">
         <v>54</v>
       </c>
       <c r="L459" t="str">
-        <f>IF(C459&gt;DATE(2020,3,15),IF(C459&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -19610,14 +19574,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="str">
-        <f>IF(C460&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K460" t="s">
         <v>54</v>
       </c>
       <c r="L460" t="str">
-        <f>IF(C460&gt;DATE(2020,3,15),IF(C460&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -19650,14 +19614,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="str">
-        <f>IF(C461&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K461" t="s">
         <v>54</v>
       </c>
       <c r="L461" t="str">
-        <f>IF(C461&gt;DATE(2020,3,15),IF(C461&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -19690,14 +19654,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="str">
-        <f>IF(C462&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K462" t="s">
         <v>54</v>
       </c>
       <c r="L462" t="str">
-        <f>IF(C462&gt;DATE(2020,3,15),IF(C462&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -19730,14 +19694,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="str">
-        <f>IF(C463&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K463" t="s">
         <v>54</v>
       </c>
       <c r="L463" t="str">
-        <f>IF(C463&gt;DATE(2020,3,15),IF(C463&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -19770,14 +19734,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="str">
-        <f>IF(C464&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K464" t="s">
         <v>54</v>
       </c>
       <c r="L464" t="str">
-        <f>IF(C464&gt;DATE(2020,3,15),IF(C464&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -19810,14 +19774,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="str">
-        <f>IF(C465&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K465" t="s">
         <v>54</v>
       </c>
       <c r="L465" t="str">
-        <f>IF(C465&gt;DATE(2020,3,15),IF(C465&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -19850,14 +19814,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="str">
-        <f>IF(C466&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K466" t="s">
         <v>54</v>
       </c>
       <c r="L466" t="str">
-        <f>IF(C466&gt;DATE(2020,3,15),IF(C466&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -19890,14 +19854,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="str">
-        <f>IF(C467&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K467" t="s">
         <v>54</v>
       </c>
       <c r="L467" t="str">
-        <f>IF(C467&gt;DATE(2020,3,15),IF(C467&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -19930,14 +19894,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="str">
-        <f>IF(C468&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K468" t="s">
         <v>54</v>
       </c>
       <c r="L468" t="str">
-        <f>IF(C468&gt;DATE(2020,3,15),IF(C468&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -19970,14 +19934,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="str">
-        <f>IF(C469&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K469" t="s">
         <v>54</v>
       </c>
       <c r="L469" t="str">
-        <f>IF(C469&gt;DATE(2020,3,15),IF(C469&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -20004,14 +19968,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="str">
-        <f>IF(C470&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K470" t="s">
         <v>54</v>
       </c>
       <c r="L470" t="str">
-        <f>IF(C470&gt;DATE(2020,3,15),IF(C470&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -20038,14 +20002,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="str">
-        <f>IF(C471&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K471" t="s">
         <v>54</v>
       </c>
       <c r="L471" t="str">
-        <f>IF(C471&gt;DATE(2020,3,15),IF(C471&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -20072,14 +20036,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="str">
-        <f>IF(C472&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K472" t="s">
         <v>54</v>
       </c>
       <c r="L472" t="str">
-        <f>IF(C472&gt;DATE(2020,3,15),IF(C472&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -20106,14 +20070,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="str">
-        <f>IF(C473&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K473" t="s">
         <v>54</v>
       </c>
       <c r="L473" t="str">
-        <f>IF(C473&gt;DATE(2020,3,15),IF(C473&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -20140,14 +20104,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="str">
-        <f>IF(C474&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K474" t="s">
         <v>54</v>
       </c>
       <c r="L474" t="str">
-        <f>IF(C474&gt;DATE(2020,3,15),IF(C474&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -20174,14 +20138,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="str">
-        <f>IF(C475&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K475" t="s">
         <v>54</v>
       </c>
       <c r="L475" t="str">
-        <f>IF(C475&gt;DATE(2020,3,15),IF(C475&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -20208,14 +20172,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="str">
-        <f>IF(C476&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K476" t="s">
         <v>54</v>
       </c>
       <c r="L476" t="str">
-        <f>IF(C476&gt;DATE(2020,3,15),IF(C476&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -20242,14 +20206,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="str">
-        <f>IF(C477&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K477" t="s">
         <v>54</v>
       </c>
       <c r="L477" t="str">
-        <f>IF(C477&gt;DATE(2020,3,15),IF(C477&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -20271,14 +20235,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="str">
-        <f>IF(C478&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K478" t="s">
         <v>54</v>
       </c>
       <c r="L478" t="str">
-        <f>IF(C478&gt;DATE(2020,3,15),IF(C478&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -20300,14 +20264,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="str">
-        <f>IF(C479&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K479" t="s">
         <v>54</v>
       </c>
       <c r="L479" t="str">
-        <f>IF(C479&gt;DATE(2020,3,15),IF(C479&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -20334,14 +20298,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="str">
-        <f>IF(C480&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K480" t="s">
         <v>54</v>
       </c>
       <c r="L480" t="str">
-        <f>IF(C480&gt;DATE(2020,3,15),IF(C480&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
     </row>
@@ -20368,14 +20332,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="str">
-        <f>IF(C481&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K481" t="s">
         <v>54</v>
       </c>
       <c r="L481" t="str">
-        <f>IF(C481&gt;DATE(2020,3,15),IF(C481&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -20402,14 +20366,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="str">
-        <f>IF(C482&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K482" t="s">
         <v>54</v>
       </c>
       <c r="L482" t="str">
-        <f>IF(C482&gt;DATE(2020,3,15),IF(C482&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -20436,14 +20400,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="str">
-        <f>IF(C483&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K483" t="s">
         <v>54</v>
       </c>
       <c r="L483" t="str">
-        <f>IF(C483&gt;DATE(2020,3,15),IF(C483&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -20470,14 +20434,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="str">
-        <f>IF(C484&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K484" t="s">
         <v>54</v>
       </c>
       <c r="L484" t="str">
-        <f>IF(C484&gt;DATE(2020,3,15),IF(C484&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -20507,14 +20471,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="str">
-        <f>IF(C485&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K485" t="s">
         <v>54</v>
       </c>
       <c r="L485" t="str">
-        <f>IF(C485&gt;DATE(2020,3,15),IF(C485&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -20544,14 +20508,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="str">
-        <f>IF(C486&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K486" t="s">
         <v>54</v>
       </c>
       <c r="L486" t="str">
-        <f>IF(C486&gt;DATE(2020,3,15),IF(C486&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -20584,14 +20548,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="str">
-        <f>IF(C487&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="K487" t="s">
         <v>54</v>
       </c>
       <c r="L487" t="str">
-        <f>IF(C487&gt;DATE(2020,3,15),IF(C487&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Debil</v>
       </c>
     </row>
@@ -20624,14 +20588,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="str">
-        <f>IF(C488&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K488" t="s">
         <v>54</v>
       </c>
       <c r="L488" t="str">
-        <f>IF(C488&gt;DATE(2020,3,15),IF(C488&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -20664,14 +20628,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="str">
-        <f>IF(C489&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K489" t="s">
         <v>54</v>
       </c>
       <c r="L489" t="str">
-        <f>IF(C489&gt;DATE(2020,3,15),IF(C489&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -20704,14 +20668,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="str">
-        <f>IF(C490&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K490" t="s">
         <v>54</v>
       </c>
       <c r="L490" t="str">
-        <f>IF(C490&gt;DATE(2020,3,15),IF(C490&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -20744,14 +20708,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="str">
-        <f>IF(C491&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K491" t="s">
         <v>54</v>
       </c>
       <c r="L491" t="str">
-        <f>IF(C491&gt;DATE(2020,3,15),IF(C491&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -20784,14 +20748,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="str">
-        <f>IF(C492&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K492" t="s">
         <v>54</v>
       </c>
       <c r="L492" t="str">
-        <f>IF(C492&gt;DATE(2020,3,15),IF(C492&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -20824,14 +20788,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="str">
-        <f>IF(C493&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K493" t="s">
         <v>54</v>
       </c>
       <c r="L493" t="str">
-        <f>IF(C493&gt;DATE(2020,3,15),IF(C493&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -20864,14 +20828,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="str">
-        <f>IF(C494&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K494" t="s">
         <v>54</v>
       </c>
       <c r="L494" t="str">
-        <f>IF(C494&gt;DATE(2020,3,15),IF(C494&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -20904,14 +20868,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="str">
-        <f>IF(C495&gt;DATE(2020,3,22),"Si","No")</f>
+        <f t="shared" si="14"/>
         <v>Si</v>
       </c>
       <c r="K495" t="s">
         <v>54</v>
       </c>
       <c r="L495" t="str">
-        <f>IF(C495&gt;DATE(2020,3,15),IF(C495&gt;DATE(2020,3,22),"Fuerte","Debil"),"No")</f>
+        <f t="shared" si="15"/>
         <v>Fuerte</v>
       </c>
     </row>
@@ -21977,7 +21941,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I20"/>
+      <selection activeCell="K21" sqref="J21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22608,171 +22572,47 @@
       <c r="B23" s="1"/>
       <c r="E23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="L23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="2">
-        <v>5818</v>
-      </c>
-      <c r="N23" s="2">
-        <v>61.03</v>
-      </c>
-      <c r="O23" s="2">
-        <v>2867</v>
-      </c>
-      <c r="P23" s="2">
-        <v>235</v>
-      </c>
-      <c r="Q23">
-        <v>248</v>
-      </c>
-      <c r="R23">
-        <v>160</v>
-      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E24" s="2"/>
-      <c r="L24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M24" s="2">
-        <v>2272</v>
-      </c>
-      <c r="N24" s="2">
-        <v>156.52000000000001</v>
-      </c>
-      <c r="O24" s="2">
-        <v>1176</v>
-      </c>
-      <c r="P24" s="2">
-        <v>165</v>
-      </c>
-      <c r="Q24">
-        <v>138</v>
-      </c>
-      <c r="R24">
-        <v>204</v>
-      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1236</v>
-      </c>
-      <c r="N25" s="2">
-        <v>101.97</v>
-      </c>
-      <c r="O25" s="2">
-        <v>529</v>
-      </c>
-      <c r="P25">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>55</v>
-      </c>
-      <c r="R25">
-        <v>90</v>
-      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E26" s="2"/>
-      <c r="L26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1069</v>
-      </c>
-      <c r="N26" s="2">
-        <v>85</v>
-      </c>
-      <c r="O26" s="2">
-        <v>399</v>
-      </c>
-      <c r="P26">
-        <v>85</v>
-      </c>
-      <c r="Q26">
-        <v>42</v>
-      </c>
-      <c r="R26">
-        <v>111</v>
-      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L27" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1262</v>
-      </c>
-      <c r="N27" s="2">
-        <v>51.73</v>
-      </c>
-      <c r="O27">
-        <v>483</v>
-      </c>
-      <c r="P27">
-        <v>94</v>
-      </c>
-      <c r="Q27">
-        <v>55</v>
-      </c>
-      <c r="R27">
-        <v>57</v>
-      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="L28" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1171</v>
-      </c>
-      <c r="N28" s="2">
-        <v>191.54</v>
-      </c>
-      <c r="O28">
-        <v>522</v>
-      </c>
-      <c r="P28">
-        <v>50</v>
-      </c>
-      <c r="Q28">
-        <v>37</v>
-      </c>
-      <c r="R28">
-        <v>35</v>
-      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="L29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="2">
-        <v>6424</v>
-      </c>
-      <c r="N29" s="2">
-        <v>288.12</v>
-      </c>
-      <c r="O29" s="2">
-        <v>3225</v>
-      </c>
-      <c r="P29" s="2">
-        <v>344</v>
-      </c>
-      <c r="Q29">
-        <v>708</v>
-      </c>
-      <c r="R29">
-        <v>296</v>
-      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
@@ -22782,27 +22622,11 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="2">
-        <v>6211</v>
-      </c>
-      <c r="N30" s="2">
-        <v>240.88</v>
-      </c>
-      <c r="O30" s="2">
-        <v>2601</v>
-      </c>
-      <c r="P30" s="2">
-        <v>325</v>
-      </c>
-      <c r="Q30">
-        <v>516</v>
-      </c>
-      <c r="R30" s="2">
-        <v>1028</v>
-      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
@@ -22811,107 +22635,39 @@
       <c r="H31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" t="s">
-        <v>61</v>
-      </c>
-      <c r="M31" s="2">
-        <v>18773</v>
-      </c>
-      <c r="N31" s="2">
-        <v>226.43</v>
-      </c>
-      <c r="O31" s="2">
-        <v>12974</v>
-      </c>
-      <c r="P31" s="2">
-        <v>1652</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>1672</v>
-      </c>
-      <c r="R31" s="2">
-        <v>4966</v>
-      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="L32" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>34</v>
-      </c>
-      <c r="N32">
-        <v>38.93</v>
-      </c>
-      <c r="O32" s="2">
-        <v>3</v>
-      </c>
-      <c r="P32">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>1</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
+      <c r="O32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="E33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="L33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="2">
-        <v>5508</v>
-      </c>
-      <c r="N33" s="2">
-        <v>99.27</v>
-      </c>
-      <c r="O33" s="2">
-        <v>2189</v>
-      </c>
-      <c r="P33" s="2">
-        <v>356</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>339</v>
-      </c>
-      <c r="R33" s="2">
-        <v>200</v>
-      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="L34" t="s">
-        <v>3</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1628</v>
-      </c>
-      <c r="N34" s="2">
-        <v>138.15</v>
-      </c>
-      <c r="O34">
-        <v>371</v>
-      </c>
-      <c r="P34">
-        <v>51</v>
-      </c>
-      <c r="Q34">
-        <v>133</v>
-      </c>
-      <c r="R34">
-        <v>91</v>
-      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E35" s="2"/>
@@ -22920,27 +22676,11 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="2">
-        <v>4039</v>
-      </c>
-      <c r="N35" s="2">
-        <v>138.80000000000001</v>
-      </c>
-      <c r="O35" s="2">
-        <v>1250</v>
-      </c>
-      <c r="P35" s="2">
-        <v>149</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>84</v>
-      </c>
-      <c r="R35">
-        <v>187</v>
-      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="14"/>
@@ -22950,80 +22690,27 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M36" s="2">
-        <v>27509</v>
-      </c>
-      <c r="N36" s="2">
-        <v>339.74</v>
-      </c>
-      <c r="O36" s="2">
-        <v>15140</v>
-      </c>
-      <c r="P36" s="2">
-        <v>1514</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>3603</v>
-      </c>
-      <c r="R36" s="2">
-        <v>9330</v>
-      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="L37" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37">
-        <v>54</v>
-      </c>
-      <c r="N37">
-        <v>42.78</v>
-      </c>
-      <c r="O37" s="2">
-        <v>27</v>
-      </c>
-      <c r="P37">
-        <v>3</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
+      <c r="O37" s="2"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="L38" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38">
-        <v>974</v>
-      </c>
-      <c r="N38">
-        <v>58.71</v>
-      </c>
-      <c r="O38" s="2">
-        <v>283</v>
-      </c>
-      <c r="P38">
-        <v>59</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>34</v>
-      </c>
-      <c r="R38" s="2">
-        <v>20</v>
-      </c>
+      <c r="O38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -23032,53 +22719,19 @@
       <c r="E39" s="2"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="L39" t="s">
-        <v>8</v>
-      </c>
-      <c r="M39" s="2">
-        <v>2305</v>
-      </c>
-      <c r="N39" s="2">
-        <v>304.49</v>
-      </c>
-      <c r="O39" s="2">
-        <v>1035</v>
-      </c>
-      <c r="P39">
-        <v>99</v>
-      </c>
-      <c r="Q39">
-        <v>113</v>
-      </c>
-      <c r="R39">
-        <v>192</v>
-      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="E40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="L40" t="s">
-        <v>62</v>
-      </c>
-      <c r="M40" s="2">
-        <v>6320</v>
-      </c>
-      <c r="N40" s="2">
-        <v>251.61</v>
-      </c>
-      <c r="O40" s="2">
-        <v>3594</v>
-      </c>
-      <c r="P40" s="2">
-        <v>307</v>
-      </c>
-      <c r="Q40">
-        <v>325</v>
-      </c>
-      <c r="R40" s="2">
-        <v>1796</v>
-      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
@@ -23088,27 +22741,9 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" t="s">
-        <v>19</v>
-      </c>
-      <c r="M41" s="2">
-        <v>1810</v>
-      </c>
-      <c r="N41" s="2">
-        <v>459.28</v>
-      </c>
-      <c r="O41" s="2">
-        <v>575</v>
-      </c>
-      <c r="P41">
-        <v>51</v>
-      </c>
-      <c r="Q41">
-        <v>85</v>
-      </c>
-      <c r="R41">
-        <v>496</v>
-      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
